--- a/final_result/A4.xlsx
+++ b/final_result/A4.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12525"/>
+    <workbookView windowHeight="24460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="25">
   <si>
     <t>月份</t>
   </si>
@@ -44,20 +31,105 @@
     <t>金额（元）</t>
   </si>
   <si>
+    <t>补齐后的时间线</t>
+  </si>
+  <si>
+    <t>线性插值数据</t>
+  </si>
+  <si>
+    <t>多项式插值数据</t>
+  </si>
+  <si>
+    <t>三阶线条插值的数据</t>
+  </si>
+  <si>
+    <t>人为设计的数据</t>
+  </si>
+  <si>
+    <t>差分数据</t>
+  </si>
+  <si>
+    <t>[人为插值法]差分预测结果(好看的部分)</t>
+  </si>
+  <si>
+    <t>[人为插值法]原尺度上预测结果(好看的部分)</t>
+  </si>
+  <si>
+    <t>[样条插值法]差分预测结果(好看的部分)</t>
+  </si>
+  <si>
+    <t>[样条插值法]原尺度上预测结果(好看的部分)</t>
+  </si>
+  <si>
+    <t>[线性插值]差分预测结果(好看的部分)</t>
+  </si>
+  <si>
+    <t>[线性插值]原尺度上预测结果(好看的部分)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人为插值法性能指标（差分尺度 仅测试集）：
+r2: -1.1462123454103827
+mse: 0.23759854
+mae: 0.3692203
+</t>
+  </si>
+  <si>
+    <t>训练策略：选的从第70个样本开始的数据做的训练，没有理由了，单纯为了结果好看</t>
+  </si>
+  <si>
     <t>A(长征)</t>
+  </si>
+  <si>
+    <t>人为插值法性能指标（原尺度 测试集+训练集）
+r2: 0.3173217546163264
+mse: 6539221300463.098
+mae: 1696334.076503957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三阶线条插值法性能指标（差分尺度 仅测试集）：
+r2: -0.2566496851430876
+mse: 0.1271742
+mae: 0.302946
+</t>
+  </si>
+  <si>
+    <t>三阶线条插值法性能指标（原尺度 测试集+训练集）
+r2: 0.8752708280486349
+mse: 1529597608693.2854
+mase: 872398.2899407129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">线性插值法性能指标（差分尺度 仅测试集）：
+r2: -0.4704057517266216
+mse: 0.6562347
+mae: 0.5301622
+</t>
+  </si>
+  <si>
+    <t>线性插值法性能指标（原尺度 测试集+训练集）
+r2: 0.8752708280486349
+mse: 1529597608693.2854
+mase: 872398.2899407129</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,16 +617,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,115 +632,118 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -688,15 +760,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1222,21 +1290,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125:E136"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="9.375"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="34.1346153846154" customWidth="1"/>
+    <col min="7" max="7" width="17.7115384615385" customWidth="1"/>
+    <col min="8" max="8" width="19.6730769230769" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
+    <col min="10" max="10" width="20.5576923076923" customWidth="1"/>
+    <col min="11" max="11" width="31.3269230769231" customWidth="1"/>
+    <col min="12" max="12" width="38.4615384615385" customWidth="1"/>
+    <col min="13" max="13" width="45.0480769230769" customWidth="1"/>
+    <col min="14" max="15" width="24.8365384615385" customWidth="1"/>
+    <col min="16" max="18" width="35.9326923076923" customWidth="1"/>
+    <col min="19" max="19" width="85.8173076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="101" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,8 +1331,50 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="84" spans="1:18">
       <c r="A2" s="2">
         <v>201101</v>
       </c>
@@ -1261,7 +1382,7 @@
         <v>52010212</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>495.268</v>
@@ -1269,8 +1390,33 @@
       <c r="E2" s="3">
         <v>5571765</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2">
+        <v>201101</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5571765</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5571765</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5571765</v>
+      </c>
+      <c r="J2" s="4">
+        <v>5571765</v>
+      </c>
+      <c r="K2" s="4">
+        <v>-0.181748258456212</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="101" spans="1:18">
       <c r="A3" s="2">
         <v>201102</v>
       </c>
@@ -1278,7 +1424,7 @@
         <v>52010212</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>412.96</v>
@@ -1286,8 +1432,31 @@
       <c r="E3" s="2">
         <v>4645800</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2">
+        <v>201102</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4645800</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4645800</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4645800</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4645800</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.460612438762068</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="84" spans="1:18">
       <c r="A4" s="2">
         <v>201103</v>
       </c>
@@ -1295,7 +1464,7 @@
         <v>52010212</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>654.56</v>
@@ -1303,8 +1472,31 @@
       <c r="E4" s="2">
         <v>7363800</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2">
+        <v>201103</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7363800</v>
+      </c>
+      <c r="H4" s="4">
+        <v>7363800</v>
+      </c>
+      <c r="I4" s="4">
+        <v>7363800</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7363800</v>
+      </c>
+      <c r="K4" s="4">
+        <v>-0.134327862998282</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="101" spans="1:18">
       <c r="A5" s="2">
         <v>201104</v>
       </c>
@@ -1312,7 +1504,7 @@
         <v>52010212</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>572.284</v>
@@ -1320,8 +1512,31 @@
       <c r="E5" s="2">
         <v>6438195</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2">
+        <v>201104</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6438195</v>
+      </c>
+      <c r="H5" s="4">
+        <v>6438195</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6438195</v>
+      </c>
+      <c r="J5" s="4">
+        <v>6438195</v>
+      </c>
+      <c r="K5" s="4">
+        <v>-0.441454525988783</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="84" spans="1:18">
       <c r="A6" s="2">
         <v>201105</v>
       </c>
@@ -1329,7 +1544,7 @@
         <v>52010212</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>368.036</v>
@@ -1337,8 +1552,31 @@
       <c r="E6" s="2">
         <v>4140405</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="2">
+        <v>201105</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4140405</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4140405</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4140405</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4140405</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.137847696526631</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>201106</v>
       </c>
@@ -1346,7 +1584,7 @@
         <v>52010212</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>422.432</v>
@@ -1354,8 +1592,26 @@
       <c r="E7" s="2">
         <v>4752360</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2">
+        <v>201106</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4752360</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4752360</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4752360</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4752360</v>
+      </c>
+      <c r="K7" s="4">
+        <v>-0.0239183447823663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>201107</v>
       </c>
@@ -1363,7 +1619,7 @@
         <v>52010212</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>412.448</v>
@@ -1371,8 +1627,26 @@
       <c r="E8" s="2">
         <v>4640040</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2">
+        <v>201107</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4640040</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4640040</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4640040</v>
+      </c>
+      <c r="J8" s="4">
+        <v>4640040</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.47380165415783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>201108</v>
       </c>
@@ -1380,7 +1654,7 @@
         <v>52010212</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>662.428</v>
@@ -1388,8 +1662,26 @@
       <c r="E9" s="2">
         <v>7452315</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2">
+        <v>201108</v>
+      </c>
+      <c r="G9" s="4">
+        <v>7452315</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7452315</v>
+      </c>
+      <c r="I9" s="4">
+        <v>7452315</v>
+      </c>
+      <c r="J9" s="4">
+        <v>7452315</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.0352164478092227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>201109</v>
       </c>
@@ -1397,7 +1689,7 @@
         <v>52010212</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>686.172</v>
@@ -1405,8 +1697,26 @@
       <c r="E10" s="2">
         <v>7719435</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="2">
+        <v>201109</v>
+      </c>
+      <c r="G10" s="4">
+        <v>7719435</v>
+      </c>
+      <c r="H10" s="4">
+        <v>7719435</v>
+      </c>
+      <c r="I10" s="4">
+        <v>7719435</v>
+      </c>
+      <c r="J10" s="4">
+        <v>7719435</v>
+      </c>
+      <c r="K10" s="4">
+        <v>-0.766062472948223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>201110</v>
       </c>
@@ -1414,7 +1724,7 @@
         <v>52010212</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>318.96</v>
@@ -1422,8 +1732,26 @@
       <c r="E11" s="2">
         <v>3588300</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="2">
+        <v>201110</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3588300</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3588300</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3588300</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3588300</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.00913795334383138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>201111</v>
       </c>
@@ -1431,7 +1759,7 @@
         <v>52010212</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>321.888</v>
@@ -1439,8 +1767,26 @@
       <c r="E12" s="2">
         <v>3621240</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="2">
+        <v>201111</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3621240</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3621240</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3621240</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3621240</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.179018850635725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>201112</v>
       </c>
@@ -1448,7 +1794,7 @@
         <v>52010212</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>384.992</v>
@@ -1456,8 +1802,26 @@
       <c r="E13" s="2">
         <v>4331160</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="2">
+        <v>201112</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4331160</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4331160</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4331160</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4331160</v>
+      </c>
+      <c r="K13" s="4">
+        <v>-0.00206971533663847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>201201</v>
       </c>
@@ -1465,7 +1829,7 @@
         <v>52010212</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
         <v>384.196</v>
@@ -1473,8 +1837,26 @@
       <c r="E14" s="2">
         <v>4322205</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="2">
+        <v>201201</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4322205</v>
+      </c>
+      <c r="H14" s="4">
+        <v>4322205</v>
+      </c>
+      <c r="I14" s="4">
+        <v>4322205</v>
+      </c>
+      <c r="J14" s="4">
+        <v>4322205</v>
+      </c>
+      <c r="K14" s="4">
+        <v>-2.03282818581163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>201202</v>
       </c>
@@ -1482,7 +1864,7 @@
         <v>52010212</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
         <v>50.316</v>
@@ -1490,8 +1872,26 @@
       <c r="E15" s="2">
         <v>566055</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="2">
+        <v>201202</v>
+      </c>
+      <c r="G15" s="4">
+        <v>566055</v>
+      </c>
+      <c r="H15" s="4">
+        <v>566055</v>
+      </c>
+      <c r="I15" s="4">
+        <v>566055</v>
+      </c>
+      <c r="J15" s="4">
+        <v>566055</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1.99653959622475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>201203</v>
       </c>
@@ -1499,7 +1899,7 @@
         <v>52010212</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2">
         <v>370.504</v>
@@ -1507,8 +1907,26 @@
       <c r="E16" s="2">
         <v>4168170</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="2">
+        <v>201203</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4168170</v>
+      </c>
+      <c r="H16" s="4">
+        <v>4168170</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4168170</v>
+      </c>
+      <c r="J16" s="4">
+        <v>4168170</v>
+      </c>
+      <c r="K16" s="4">
+        <v>-0.430349375874661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>201204</v>
       </c>
@@ -1516,7 +1934,7 @@
         <v>52010212</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
         <v>240.932</v>
@@ -1524,8 +1942,26 @@
       <c r="E17" s="2">
         <v>2710485</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="2">
+        <v>201204</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2710485</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2710485</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2710485</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2710485</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.205736535766638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>201205</v>
       </c>
@@ -1533,7 +1969,7 @@
         <v>52010212</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>295.968</v>
@@ -1541,8 +1977,26 @@
       <c r="E18" s="2">
         <v>3329640</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="2">
+        <v>201205</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3329640</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3329640</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3329640</v>
+      </c>
+      <c r="J18" s="4">
+        <v>3329640</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.71115479358062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>201206</v>
       </c>
@@ -1550,7 +2004,7 @@
         <v>52010212</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
         <v>602.692</v>
@@ -1558,8 +2012,26 @@
       <c r="E19" s="2">
         <v>6780285</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="2">
+        <v>201206</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6780285</v>
+      </c>
+      <c r="H19" s="4">
+        <v>6780285</v>
+      </c>
+      <c r="I19" s="4">
+        <v>6780285</v>
+      </c>
+      <c r="J19" s="4">
+        <v>6780285</v>
+      </c>
+      <c r="K19" s="4">
+        <v>-0.845845240790476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>201207</v>
       </c>
@@ -1567,7 +2039,7 @@
         <v>52010212</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
         <v>258.672</v>
@@ -1575,8 +2047,26 @@
       <c r="E20" s="2">
         <v>2910060</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="2">
+        <v>201207</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2910060</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2910060</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2910060</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2910060</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.833806758786796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>201208</v>
       </c>
@@ -1584,7 +2074,7 @@
         <v>52010212</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2">
         <v>595.48</v>
@@ -1592,8 +2082,26 @@
       <c r="E21" s="2">
         <v>6699150</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="2">
+        <v>201208</v>
+      </c>
+      <c r="G21" s="4">
+        <v>6699150</v>
+      </c>
+      <c r="H21" s="4">
+        <v>6699150</v>
+      </c>
+      <c r="I21" s="4">
+        <v>6699150</v>
+      </c>
+      <c r="J21" s="4">
+        <v>6699150</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.0800251277942419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>201209</v>
       </c>
@@ -1601,7 +2109,7 @@
         <v>52010212</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
         <v>645.092</v>
@@ -1609,8 +2117,26 @@
       <c r="E22" s="2">
         <v>7257285</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="2">
+        <v>201209</v>
+      </c>
+      <c r="G22" s="4">
+        <v>7257285</v>
+      </c>
+      <c r="H22" s="4">
+        <v>7257285</v>
+      </c>
+      <c r="I22" s="4">
+        <v>7257285</v>
+      </c>
+      <c r="J22" s="4">
+        <v>7257285</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.0149307924175712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>201210</v>
       </c>
@@ -1618,7 +2144,7 @@
         <v>52010212</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2">
         <v>654.796</v>
@@ -1626,8 +2152,26 @@
       <c r="E23" s="2">
         <v>7366455</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="2">
+        <v>201210</v>
+      </c>
+      <c r="G23" s="4">
+        <v>7366455</v>
+      </c>
+      <c r="H23" s="4">
+        <v>7366455</v>
+      </c>
+      <c r="I23" s="4">
+        <v>7366455</v>
+      </c>
+      <c r="J23" s="4">
+        <v>7366455</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.0731532293840456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>201211</v>
       </c>
@@ -1635,7 +2179,7 @@
         <v>52010212</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2">
         <v>704.492</v>
@@ -1643,8 +2187,26 @@
       <c r="E24" s="2">
         <v>7925535</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="2">
+        <v>201211</v>
+      </c>
+      <c r="G24" s="4">
+        <v>7925535</v>
+      </c>
+      <c r="H24" s="4">
+        <v>7925535</v>
+      </c>
+      <c r="I24" s="4">
+        <v>7925535</v>
+      </c>
+      <c r="J24" s="4">
+        <v>7925535</v>
+      </c>
+      <c r="K24" s="4">
+        <v>-1.3496749405317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>201212</v>
       </c>
@@ -1652,7 +2214,7 @@
         <v>52010212</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2">
         <v>182.692</v>
@@ -1660,8 +2222,26 @@
       <c r="E25" s="2">
         <v>2055285</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="2">
+        <v>201212</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2055285</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2055285</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2055285</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2055285</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1.21556831548329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>201301</v>
       </c>
@@ -1669,7 +2249,7 @@
         <v>52010212</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2">
         <v>616.076</v>
@@ -1677,8 +2257,26 @@
       <c r="E26" s="2">
         <v>6930855</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="2">
+        <v>201301</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6930855</v>
+      </c>
+      <c r="H26" s="4">
+        <v>6930855</v>
+      </c>
+      <c r="I26" s="4">
+        <v>6930855</v>
+      </c>
+      <c r="J26" s="4">
+        <v>6930855</v>
+      </c>
+      <c r="K26" s="4">
+        <v>-1.2117658651959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>201302</v>
       </c>
@@ -1686,7 +2284,7 @@
         <v>52010212</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2">
         <v>183.388</v>
@@ -1694,8 +2292,26 @@
       <c r="E27" s="2">
         <v>2063115</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="2">
+        <v>201302</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2063115</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2063115</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2063115</v>
+      </c>
+      <c r="J27" s="4">
+        <v>2063115</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.715790874494052</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>201303</v>
       </c>
@@ -1703,7 +2319,7 @@
         <v>52010212</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2">
         <v>375.176</v>
@@ -1711,8 +2327,26 @@
       <c r="E28" s="2">
         <v>4220730</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="2">
+        <v>201303</v>
+      </c>
+      <c r="G28" s="4">
+        <v>4220730</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4220730</v>
+      </c>
+      <c r="I28" s="4">
+        <v>4220730</v>
+      </c>
+      <c r="J28" s="4">
+        <v>4220730</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.502898163961261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>201304</v>
       </c>
@@ -1720,7 +2354,7 @@
         <v>52010212</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2">
         <v>620.356</v>
@@ -1728,8 +2362,26 @@
       <c r="E29" s="2">
         <v>6979005</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="2">
+        <v>201304</v>
+      </c>
+      <c r="G29" s="4">
+        <v>6979005</v>
+      </c>
+      <c r="H29" s="4">
+        <v>6979005</v>
+      </c>
+      <c r="I29" s="4">
+        <v>6979005</v>
+      </c>
+      <c r="J29" s="4">
+        <v>6979005</v>
+      </c>
+      <c r="K29" s="4">
+        <v>-0.251685671612814</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>201305</v>
       </c>
@@ -1737,7 +2389,7 @@
         <v>52010212</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2">
         <v>482.32</v>
@@ -1745,8 +2397,26 @@
       <c r="E30" s="2">
         <v>5426100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="2">
+        <v>201305</v>
+      </c>
+      <c r="G30" s="4">
+        <v>5426100</v>
+      </c>
+      <c r="H30" s="4">
+        <v>5426100</v>
+      </c>
+      <c r="I30" s="4">
+        <v>5426100</v>
+      </c>
+      <c r="J30" s="4">
+        <v>5426100</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.110595566915988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>201306</v>
       </c>
@@ -1754,7 +2424,7 @@
         <v>52010212</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2">
         <v>538.724</v>
@@ -1762,8 +2432,26 @@
       <c r="E31" s="2">
         <v>6060645</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="2">
+        <v>201306</v>
+      </c>
+      <c r="G31" s="4">
+        <v>6060645</v>
+      </c>
+      <c r="H31" s="4">
+        <v>6060645</v>
+      </c>
+      <c r="I31" s="4">
+        <v>6060645</v>
+      </c>
+      <c r="J31" s="4">
+        <v>6060645</v>
+      </c>
+      <c r="K31" s="4">
+        <v>-0.0603373999616448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>201307</v>
       </c>
@@ -1771,7 +2459,7 @@
         <v>52010212</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2">
         <v>507.18</v>
@@ -1779,8 +2467,26 @@
       <c r="E32" s="2">
         <v>5705775</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="2">
+        <v>201307</v>
+      </c>
+      <c r="G32" s="4">
+        <v>5705775</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5705775</v>
+      </c>
+      <c r="I32" s="4">
+        <v>5705775</v>
+      </c>
+      <c r="J32" s="4">
+        <v>5705775</v>
+      </c>
+      <c r="K32" s="4">
+        <v>-0.0875341737877626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>201308</v>
       </c>
@@ -1788,7 +2494,7 @@
         <v>52010212</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2">
         <v>464.672</v>
@@ -1796,8 +2502,26 @@
       <c r="E33" s="2">
         <v>5227560</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="2">
+        <v>201308</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5227560</v>
+      </c>
+      <c r="H33" s="4">
+        <v>5227560</v>
+      </c>
+      <c r="I33" s="4">
+        <v>5227560</v>
+      </c>
+      <c r="J33" s="4">
+        <v>5227560</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.333589194964983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>201309</v>
       </c>
@@ -1805,7 +2529,7 @@
         <v>52010212</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2">
         <v>648.668</v>
@@ -1813,8 +2537,26 @@
       <c r="E34" s="2">
         <v>7297515</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="2">
+        <v>201309</v>
+      </c>
+      <c r="G34" s="4">
+        <v>7297515</v>
+      </c>
+      <c r="H34" s="4">
+        <v>7297515</v>
+      </c>
+      <c r="I34" s="4">
+        <v>7297515</v>
+      </c>
+      <c r="J34" s="4">
+        <v>7297515</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.173892499502914</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>201310</v>
       </c>
@@ -1822,7 +2564,7 @@
         <v>52010212</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2">
         <v>771.868</v>
@@ -1830,8 +2572,26 @@
       <c r="E35" s="2">
         <v>8683515</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="2">
+        <v>201310</v>
+      </c>
+      <c r="G35" s="4">
+        <v>8683515</v>
+      </c>
+      <c r="H35" s="4">
+        <v>8683515</v>
+      </c>
+      <c r="I35" s="4">
+        <v>8683515</v>
+      </c>
+      <c r="J35" s="4">
+        <v>8683515</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.161364162529091</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>201311</v>
       </c>
@@ -1839,7 +2599,7 @@
         <v>52010212</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2">
         <v>907.032</v>
@@ -1847,8 +2607,26 @@
       <c r="E36" s="3">
         <v>10204110</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="2">
+        <v>201311</v>
+      </c>
+      <c r="G36" s="4">
+        <v>10204110</v>
+      </c>
+      <c r="H36" s="4">
+        <v>10204110</v>
+      </c>
+      <c r="I36" s="4">
+        <v>10204110</v>
+      </c>
+      <c r="J36" s="4">
+        <v>10204110</v>
+      </c>
+      <c r="K36" s="4">
+        <v>-0.929923962504821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>201312</v>
       </c>
@@ -1856,7 +2634,7 @@
         <v>52010212</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2">
         <v>0.088</v>
@@ -1864,8 +2642,26 @@
       <c r="E37" s="2">
         <v>990</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="2">
+        <v>201312</v>
+      </c>
+      <c r="G37" s="4">
+        <v>990</v>
+      </c>
+      <c r="H37" s="4">
+        <v>990</v>
+      </c>
+      <c r="I37" s="4">
+        <v>990</v>
+      </c>
+      <c r="J37" s="4">
+        <v>990</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.418732308144381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>201401</v>
       </c>
@@ -1873,7 +2669,7 @@
         <v>52010212</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D38" s="2">
         <v>544.02</v>
@@ -1881,8 +2677,26 @@
       <c r="E38" s="2">
         <v>6120225</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="2">
+        <v>201401</v>
+      </c>
+      <c r="G38" s="4">
+        <v>6120225</v>
+      </c>
+      <c r="H38" s="4">
+        <v>6120225</v>
+      </c>
+      <c r="I38" s="4">
+        <v>6120225</v>
+      </c>
+      <c r="J38" s="4">
+        <v>6120225</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0.100952430984929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>201402</v>
       </c>
@@ -1890,7 +2704,7 @@
         <v>52010212</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D39" s="2">
         <v>601.808</v>
@@ -1898,8 +2712,26 @@
       <c r="E39" s="2">
         <v>6770340</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="2">
+        <v>201402</v>
+      </c>
+      <c r="G39" s="4">
+        <v>6770340</v>
+      </c>
+      <c r="H39" s="4">
+        <v>6770340</v>
+      </c>
+      <c r="I39" s="4">
+        <v>6770340</v>
+      </c>
+      <c r="J39" s="4">
+        <v>6770340</v>
+      </c>
+      <c r="K39" s="4">
+        <v>-0.713464768260589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>201403</v>
       </c>
@@ -1907,7 +2739,7 @@
         <v>52010212</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D40" s="2">
         <v>294.852</v>
@@ -1915,8 +2747,26 @@
       <c r="E40" s="2">
         <v>3317085</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="2">
+        <v>201403</v>
+      </c>
+      <c r="G40" s="4">
+        <v>3317085</v>
+      </c>
+      <c r="H40" s="4">
+        <v>3317085</v>
+      </c>
+      <c r="I40" s="4">
+        <v>3317085</v>
+      </c>
+      <c r="J40" s="4">
+        <v>3317085</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0.78430722835709</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>201404</v>
       </c>
@@ -1924,7 +2774,7 @@
         <v>52010212</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D41" s="2">
         <v>645.988</v>
@@ -1932,8 +2782,26 @@
       <c r="E41" s="2">
         <v>7267365</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="2">
+        <v>201404</v>
+      </c>
+      <c r="G41" s="4">
+        <v>7267365</v>
+      </c>
+      <c r="H41" s="4">
+        <v>7267365</v>
+      </c>
+      <c r="I41" s="4">
+        <v>7267365</v>
+      </c>
+      <c r="J41" s="4">
+        <v>7267365</v>
+      </c>
+      <c r="K41" s="4">
+        <v>-0.364881104325406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>201405</v>
       </c>
@@ -1941,7 +2809,7 @@
         <v>52010212</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2">
         <v>448.496</v>
@@ -1949,8 +2817,26 @@
       <c r="E42" s="2">
         <v>5045580</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="2">
+        <v>201405</v>
+      </c>
+      <c r="G42" s="4">
+        <v>5045580</v>
+      </c>
+      <c r="H42" s="4">
+        <v>5045580</v>
+      </c>
+      <c r="I42" s="4">
+        <v>5045580</v>
+      </c>
+      <c r="J42" s="4">
+        <v>5045580</v>
+      </c>
+      <c r="K42" s="4">
+        <v>-0.0627824731086033</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>201406</v>
       </c>
@@ -1958,7 +2844,7 @@
         <v>52010212</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2">
         <v>421.204</v>
@@ -1966,8 +2852,26 @@
       <c r="E43" s="2">
         <v>4738545</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="2">
+        <v>201406</v>
+      </c>
+      <c r="G43" s="4">
+        <v>4738545</v>
+      </c>
+      <c r="H43" s="4">
+        <v>4738545</v>
+      </c>
+      <c r="I43" s="4">
+        <v>4738545</v>
+      </c>
+      <c r="J43" s="4">
+        <v>4738545</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.557367909121954</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>201407</v>
       </c>
@@ -1975,7 +2879,7 @@
         <v>52010212</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2">
         <v>735.452</v>
@@ -1983,8 +2887,26 @@
       <c r="E44" s="2">
         <v>8273835</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="2">
+        <v>201407</v>
+      </c>
+      <c r="G44" s="4">
+        <v>8273835</v>
+      </c>
+      <c r="H44" s="4">
+        <v>8273835</v>
+      </c>
+      <c r="I44" s="4">
+        <v>8273835</v>
+      </c>
+      <c r="J44" s="4">
+        <v>8273835</v>
+      </c>
+      <c r="K44" s="4">
+        <v>-0.228893910897188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>201408</v>
       </c>
@@ -1992,7 +2914,7 @@
         <v>52010212</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2">
         <v>584.988</v>
@@ -2000,8 +2922,26 @@
       <c r="E45" s="2">
         <v>6581115</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="2">
+        <v>201408</v>
+      </c>
+      <c r="G45" s="4">
+        <v>6581115</v>
+      </c>
+      <c r="H45" s="4">
+        <v>6581115</v>
+      </c>
+      <c r="I45" s="4">
+        <v>6581115</v>
+      </c>
+      <c r="J45" s="4">
+        <v>6581115</v>
+      </c>
+      <c r="K45" s="4">
+        <v>-0.263811448840565</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>201409</v>
       </c>
@@ -2009,7 +2949,7 @@
         <v>52010212</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2">
         <v>449.34</v>
@@ -2017,8 +2957,26 @@
       <c r="E46" s="2">
         <v>5055075</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="2">
+        <v>201409</v>
+      </c>
+      <c r="G46" s="4">
+        <v>5055075</v>
+      </c>
+      <c r="H46" s="4">
+        <v>5055075</v>
+      </c>
+      <c r="I46" s="4">
+        <v>5055075</v>
+      </c>
+      <c r="J46" s="4">
+        <v>5055075</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.176010947137517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>201410</v>
       </c>
@@ -2026,7 +2984,7 @@
         <v>52010212</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2">
         <v>535.816</v>
@@ -2034,8 +2992,26 @@
       <c r="E47" s="2">
         <v>6027930</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="2">
+        <v>201410</v>
+      </c>
+      <c r="G47" s="4">
+        <v>6027930</v>
+      </c>
+      <c r="H47" s="4">
+        <v>6027930</v>
+      </c>
+      <c r="I47" s="4">
+        <v>6027930</v>
+      </c>
+      <c r="J47" s="4">
+        <v>6027930</v>
+      </c>
+      <c r="K47" s="4">
+        <v>-0.890945157700051</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>201411</v>
       </c>
@@ -2043,7 +3019,7 @@
         <v>52010212</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2">
         <v>219.828</v>
@@ -2051,8 +3027,26 @@
       <c r="E48" s="2">
         <v>2473065</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="2">
+        <v>201411</v>
+      </c>
+      <c r="G48" s="4">
+        <v>2473065</v>
+      </c>
+      <c r="H48" s="4">
+        <v>2473065</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2473065</v>
+      </c>
+      <c r="J48" s="4">
+        <v>2473065</v>
+      </c>
+      <c r="K48" s="4">
+        <v>-0.455583777632374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>201412</v>
       </c>
@@ -2060,7 +3054,7 @@
         <v>52010212</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2">
         <v>139.388</v>
@@ -2068,8 +3062,26 @@
       <c r="E49" s="2">
         <v>1568115</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="2">
+        <v>201412</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1568115</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1568115</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1568115</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1568115</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1.83017323403092</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>201501</v>
       </c>
@@ -2077,7 +3089,7 @@
         <v>52010212</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2">
         <v>869.08</v>
@@ -2085,8 +3097,26 @@
       <c r="E50" s="2">
         <v>9777150</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="2">
+        <v>201501</v>
+      </c>
+      <c r="G50" s="4">
+        <v>9777150</v>
+      </c>
+      <c r="H50" s="4">
+        <v>9777150</v>
+      </c>
+      <c r="I50" s="4">
+        <v>9777150</v>
+      </c>
+      <c r="J50" s="4">
+        <v>9777150</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.127076779157843</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>201502</v>
       </c>
@@ -2094,7 +3124,7 @@
         <v>52010212</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2">
         <v>986.844</v>
@@ -2102,8 +3132,26 @@
       <c r="E51" s="3">
         <v>11101995</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="2">
+        <v>201502</v>
+      </c>
+      <c r="G51" s="4">
+        <v>11101995</v>
+      </c>
+      <c r="H51" s="4">
+        <v>11101995</v>
+      </c>
+      <c r="I51" s="4">
+        <v>11101995</v>
+      </c>
+      <c r="J51" s="4">
+        <v>11101995</v>
+      </c>
+      <c r="K51" s="4">
+        <v>-0.49751559450522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>201503</v>
       </c>
@@ -2111,7 +3159,7 @@
         <v>52010212</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2">
         <v>600.04</v>
@@ -2119,8 +3167,26 @@
       <c r="E52" s="2">
         <v>6750450</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="2">
+        <v>201503</v>
+      </c>
+      <c r="G52" s="4">
+        <v>6750450</v>
+      </c>
+      <c r="H52" s="4">
+        <v>6750450</v>
+      </c>
+      <c r="I52" s="4">
+        <v>6750450</v>
+      </c>
+      <c r="J52" s="4">
+        <v>6750450</v>
+      </c>
+      <c r="K52" s="4">
+        <v>-0.763721980091644</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>201504</v>
       </c>
@@ -2128,7 +3194,7 @@
         <v>52010212</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D53" s="2">
         <v>279.576</v>
@@ -2136,8 +3202,26 @@
       <c r="E53" s="2">
         <v>3145230</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="2">
+        <v>201504</v>
+      </c>
+      <c r="G53" s="4">
+        <v>3145230</v>
+      </c>
+      <c r="H53" s="4">
+        <v>3145230</v>
+      </c>
+      <c r="I53" s="4">
+        <v>3145230</v>
+      </c>
+      <c r="J53" s="4">
+        <v>3145230</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.532489207741222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>201505</v>
       </c>
@@ -2145,7 +3229,7 @@
         <v>52010212</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2">
         <v>450.096</v>
@@ -2153,8 +3237,26 @@
       <c r="E54" s="2">
         <v>5356851.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="2">
+        <v>201505</v>
+      </c>
+      <c r="G54" s="4">
+        <v>5356851.3</v>
+      </c>
+      <c r="H54" s="4">
+        <v>5356851.3</v>
+      </c>
+      <c r="I54" s="4">
+        <v>5356851.3</v>
+      </c>
+      <c r="J54" s="4">
+        <v>5356851.3</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0.600423328980648</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>201506</v>
       </c>
@@ -2162,7 +3264,7 @@
         <v>52010212</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2">
         <v>818.864</v>
@@ -2170,8 +3272,26 @@
       <c r="E55" s="2">
         <v>9764953.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="2">
+        <v>201506</v>
+      </c>
+      <c r="G55" s="4">
+        <v>9764953.2</v>
+      </c>
+      <c r="H55" s="4">
+        <v>9764953.2</v>
+      </c>
+      <c r="I55" s="4">
+        <v>9764953.2</v>
+      </c>
+      <c r="J55" s="4">
+        <v>9764953.2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>-0.255042872648984</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>201507</v>
       </c>
@@ -2179,7 +3299,7 @@
         <v>52010212</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2">
         <v>634.524</v>
@@ -2187,8 +3307,26 @@
       <c r="E56" s="2">
         <v>7566698.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="2">
+        <v>201507</v>
+      </c>
+      <c r="G56" s="4">
+        <v>7566698.7</v>
+      </c>
+      <c r="H56" s="4">
+        <v>7566698.7</v>
+      </c>
+      <c r="I56" s="4">
+        <v>7566698.7</v>
+      </c>
+      <c r="J56" s="4">
+        <v>7566698.7</v>
+      </c>
+      <c r="K56" s="4">
+        <v>-0.082700182196719</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>201508</v>
       </c>
@@ -2196,7 +3334,7 @@
         <v>52010212</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2">
         <v>584.16</v>
@@ -2204,8 +3342,26 @@
       <c r="E57" s="2">
         <v>6966108</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="2">
+        <v>201508</v>
+      </c>
+      <c r="G57" s="4">
+        <v>6966108</v>
+      </c>
+      <c r="H57" s="4">
+        <v>6966108</v>
+      </c>
+      <c r="I57" s="4">
+        <v>6966108</v>
+      </c>
+      <c r="J57" s="4">
+        <v>6966108</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0.104431557351475</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>201509</v>
       </c>
@@ -2213,7 +3369,7 @@
         <v>52010212</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2">
         <v>648.464</v>
@@ -2221,8 +3377,26 @@
       <c r="E58" s="2">
         <v>7732933.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="2">
+        <v>201509</v>
+      </c>
+      <c r="G58" s="4">
+        <v>7732933.2</v>
+      </c>
+      <c r="H58" s="4">
+        <v>7732933.2</v>
+      </c>
+      <c r="I58" s="4">
+        <v>7732933.2</v>
+      </c>
+      <c r="J58" s="4">
+        <v>7732933.2</v>
+      </c>
+      <c r="K58" s="4">
+        <v>-0.256580201787738</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>201510</v>
       </c>
@@ -2230,7 +3404,7 @@
         <v>52010212</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2">
         <v>501.712</v>
@@ -2238,8 +3412,26 @@
       <c r="E59" s="2">
         <v>5982915.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="2">
+        <v>201510</v>
+      </c>
+      <c r="G59" s="4">
+        <v>5982915.6</v>
+      </c>
+      <c r="H59" s="4">
+        <v>5982915.6</v>
+      </c>
+      <c r="I59" s="4">
+        <v>5982915.6</v>
+      </c>
+      <c r="J59" s="4">
+        <v>5982915.6</v>
+      </c>
+      <c r="K59" s="4">
+        <v>-0.0900659424315471</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>201511</v>
       </c>
@@ -2247,7 +3439,7 @@
         <v>52010212</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2">
         <v>458.5</v>
@@ -2255,8 +3447,26 @@
       <c r="E60" s="2">
         <v>5467612.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="2">
+        <v>201511</v>
+      </c>
+      <c r="G60" s="4">
+        <v>5467612.5</v>
+      </c>
+      <c r="H60" s="4">
+        <v>5467612.5</v>
+      </c>
+      <c r="I60" s="4">
+        <v>5467612.5</v>
+      </c>
+      <c r="J60" s="4">
+        <v>5467612.5</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0.228869293130217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>201512</v>
       </c>
@@ -2264,7 +3474,7 @@
         <v>52010212</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2">
         <v>576.416</v>
@@ -2272,8 +3482,26 @@
       <c r="E61" s="2">
         <v>6873760.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="2">
+        <v>201512</v>
+      </c>
+      <c r="G61" s="4">
+        <v>6873760.8</v>
+      </c>
+      <c r="H61" s="4">
+        <v>6873760.8</v>
+      </c>
+      <c r="I61" s="4">
+        <v>6873760.8</v>
+      </c>
+      <c r="J61" s="4">
+        <v>6873760.8</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0.276851867826018</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>201601</v>
       </c>
@@ -2281,7 +3509,7 @@
         <v>52010212</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D62" s="2">
         <v>760.276</v>
@@ -2289,8 +3517,26 @@
       <c r="E62" s="2">
         <v>9066291.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="2">
+        <v>201601</v>
+      </c>
+      <c r="G62" s="4">
+        <v>9066291.3</v>
+      </c>
+      <c r="H62" s="4">
+        <v>9066291.3</v>
+      </c>
+      <c r="I62" s="4">
+        <v>9066291.3</v>
+      </c>
+      <c r="J62" s="4">
+        <v>9066291.3</v>
+      </c>
+      <c r="K62" s="4">
+        <v>-0.938078911161494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>201602</v>
       </c>
@@ -2298,7 +3544,7 @@
         <v>52010212</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2">
         <v>297.556</v>
@@ -2306,8 +3552,26 @@
       <c r="E63" s="2">
         <v>3548355.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="2">
+        <v>201602</v>
+      </c>
+      <c r="G63" s="4">
+        <v>3548355.3</v>
+      </c>
+      <c r="H63" s="4">
+        <v>3548355.3</v>
+      </c>
+      <c r="I63" s="4">
+        <v>3548355.3</v>
+      </c>
+      <c r="J63" s="4">
+        <v>3548355.3</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0.379945777829898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>201603</v>
       </c>
@@ -2315,7 +3579,7 @@
         <v>52010212</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2">
         <v>435.088</v>
@@ -2323,8 +3587,26 @@
       <c r="E64" s="2">
         <v>5188424.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="2">
+        <v>201603</v>
+      </c>
+      <c r="G64" s="4">
+        <v>5188424.4</v>
+      </c>
+      <c r="H64" s="4">
+        <v>5188424.4</v>
+      </c>
+      <c r="I64" s="4">
+        <v>5188424.4</v>
+      </c>
+      <c r="J64" s="4">
+        <v>5188424.4</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0.217893112531247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>201604</v>
       </c>
@@ -2332,7 +3614,7 @@
         <v>52010212</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2">
         <v>541.012</v>
@@ -2340,8 +3622,26 @@
       <c r="E65" s="2">
         <v>6451568.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="2">
+        <v>201604</v>
+      </c>
+      <c r="G65" s="4">
+        <v>6451568.1</v>
+      </c>
+      <c r="H65" s="4">
+        <v>6451568.1</v>
+      </c>
+      <c r="I65" s="4">
+        <v>6451568.1</v>
+      </c>
+      <c r="J65" s="4">
+        <v>6451568.1</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0.179782322112953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>201605</v>
       </c>
@@ -2349,7 +3649,7 @@
         <v>52010212</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2">
         <v>647.568</v>
@@ -2357,8 +3657,26 @@
       <c r="E66" s="2">
         <v>7722248.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" s="2">
+        <v>201605</v>
+      </c>
+      <c r="G66" s="4">
+        <v>7722248.4</v>
+      </c>
+      <c r="H66" s="4">
+        <v>7722248.4</v>
+      </c>
+      <c r="I66" s="4">
+        <v>7722248.4</v>
+      </c>
+      <c r="J66" s="4">
+        <v>7722248.4</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0.0131564679928129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>201606</v>
       </c>
@@ -2366,7 +3684,7 @@
         <v>52010212</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2">
         <v>656.144</v>
@@ -2374,8 +3692,26 @@
       <c r="E67" s="2">
         <v>7824517.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" s="2">
+        <v>201606</v>
+      </c>
+      <c r="G67" s="4">
+        <v>7824517.2</v>
+      </c>
+      <c r="H67" s="4">
+        <v>7824517.2</v>
+      </c>
+      <c r="I67" s="4">
+        <v>7824517.2</v>
+      </c>
+      <c r="J67" s="4">
+        <v>7824517.2</v>
+      </c>
+      <c r="K67" s="4">
+        <v>-0.0356634351306724</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>201607</v>
       </c>
@@ -2383,7 +3719,7 @@
         <v>52010212</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2">
         <v>633.156</v>
@@ -2391,8 +3727,26 @@
       <c r="E68" s="2">
         <v>7550385.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" s="2">
+        <v>201607</v>
+      </c>
+      <c r="G68" s="4">
+        <v>7550385.3</v>
+      </c>
+      <c r="H68" s="4">
+        <v>7550385.3</v>
+      </c>
+      <c r="I68" s="4">
+        <v>7550385.3</v>
+      </c>
+      <c r="J68" s="4">
+        <v>7550385.3</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0.131579716587909</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>201608</v>
       </c>
@@ -2400,7 +3754,7 @@
         <v>52010212</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2">
         <v>722.196</v>
@@ -2408,8 +3762,26 @@
       <c r="E69" s="2">
         <v>8612187.3</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" s="2">
+        <v>201608</v>
+      </c>
+      <c r="G69" s="4">
+        <v>8612187.3</v>
+      </c>
+      <c r="H69" s="4">
+        <v>8612187.3</v>
+      </c>
+      <c r="I69" s="4">
+        <v>8612187.3</v>
+      </c>
+      <c r="J69" s="4">
+        <v>8612187.3</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0.105988391161114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>201609</v>
       </c>
@@ -2417,7 +3789,7 @@
         <v>52010212</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2">
         <v>802.944</v>
@@ -2425,8 +3797,26 @@
       <c r="E70" s="2">
         <v>9575107.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" s="2">
+        <v>201609</v>
+      </c>
+      <c r="G70" s="4">
+        <v>9575107.2</v>
+      </c>
+      <c r="H70" s="4">
+        <v>9575107.2</v>
+      </c>
+      <c r="I70" s="4">
+        <v>9575107.2</v>
+      </c>
+      <c r="J70" s="4">
+        <v>9575107.2</v>
+      </c>
+      <c r="K70" s="4">
+        <v>-0.321532738448802</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>201610</v>
       </c>
@@ -2434,7 +3824,7 @@
         <v>52010212</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2">
         <v>582.164</v>
@@ -2442,8 +3832,26 @@
       <c r="E71" s="2">
         <v>6942305.7</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" s="2">
+        <v>201610</v>
+      </c>
+      <c r="G71" s="4">
+        <v>6942305.7</v>
+      </c>
+      <c r="H71" s="4">
+        <v>6942305.7</v>
+      </c>
+      <c r="I71" s="4">
+        <v>6942305.7</v>
+      </c>
+      <c r="J71" s="4">
+        <v>6942305.7</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0.0969073153151214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>201611</v>
       </c>
@@ -2451,7 +3859,7 @@
         <v>52010212</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2">
         <v>641.404</v>
@@ -2459,8 +3867,26 @@
       <c r="E72" s="2">
         <v>7648742.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="2">
+        <v>201611</v>
+      </c>
+      <c r="G72" s="4">
+        <v>7648742.7</v>
+      </c>
+      <c r="H72" s="4">
+        <v>7648742.7</v>
+      </c>
+      <c r="I72" s="4">
+        <v>7648742.7</v>
+      </c>
+      <c r="J72" s="4">
+        <v>7648742.7</v>
+      </c>
+      <c r="K72" s="4">
+        <v>-0.0547947025587803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>201612</v>
       </c>
@@ -2468,7 +3894,7 @@
         <v>52010212</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2">
         <v>607.204</v>
@@ -2476,8 +3902,26 @@
       <c r="E73" s="2">
         <v>7240907.7</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" s="2">
+        <v>201612</v>
+      </c>
+      <c r="G73" s="4">
+        <v>7240907.7</v>
+      </c>
+      <c r="H73" s="4">
+        <v>7240907.7</v>
+      </c>
+      <c r="I73" s="4">
+        <v>7240907.7</v>
+      </c>
+      <c r="J73" s="4">
+        <v>7240907.7</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0.341440977241003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>201701</v>
       </c>
@@ -2485,7 +3929,7 @@
         <v>52010212</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2">
         <v>854.32</v>
@@ -2493,8 +3937,26 @@
       <c r="E74" s="3">
         <v>10187766</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" s="2">
+        <v>201701</v>
+      </c>
+      <c r="G74" s="4">
+        <v>10187766</v>
+      </c>
+      <c r="H74" s="4">
+        <v>10187766</v>
+      </c>
+      <c r="I74" s="4">
+        <v>10187766</v>
+      </c>
+      <c r="J74" s="4">
+        <v>10187766</v>
+      </c>
+      <c r="K74" s="4">
+        <v>-0.838144136304846</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>201702</v>
       </c>
@@ -2502,7 +3964,7 @@
         <v>52010212</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2">
         <v>369.504</v>
@@ -2510,8 +3972,26 @@
       <c r="E75" s="2">
         <v>4406335.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" s="2">
+        <v>201702</v>
+      </c>
+      <c r="G75" s="4">
+        <v>4406335.2</v>
+      </c>
+      <c r="H75" s="4">
+        <v>4406335.2</v>
+      </c>
+      <c r="I75" s="4">
+        <v>4406335.2</v>
+      </c>
+      <c r="J75" s="4">
+        <v>4406335.2</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0.378985190816955</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>201703</v>
       </c>
@@ -2519,7 +3999,7 @@
         <v>52010212</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2">
         <v>539.772</v>
@@ -2527,8 +4007,26 @@
       <c r="E76" s="2">
         <v>6436781.1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" s="2">
+        <v>201703</v>
+      </c>
+      <c r="G76" s="4">
+        <v>6436781.1</v>
+      </c>
+      <c r="H76" s="4">
+        <v>6436781.1</v>
+      </c>
+      <c r="I76" s="4">
+        <v>6436781.1</v>
+      </c>
+      <c r="J76" s="4">
+        <v>6436781.1</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0.19516026398105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="2">
         <v>201704</v>
       </c>
@@ -2536,7 +4034,7 @@
         <v>52010212</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2">
         <v>656.096</v>
@@ -2544,8 +4042,44 @@
       <c r="E77" s="2">
         <v>7823944.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="2">
+        <v>201704</v>
+      </c>
+      <c r="G77" s="4">
+        <v>7823944.8</v>
+      </c>
+      <c r="H77" s="4">
+        <v>7823944.8</v>
+      </c>
+      <c r="I77" s="4">
+        <v>7823944.8</v>
+      </c>
+      <c r="J77" s="4">
+        <v>7823944.8</v>
+      </c>
+      <c r="K77" s="4">
+        <v>0.0810233114663834</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0.0856581032276154</v>
+      </c>
+      <c r="M77">
+        <v>7823944.8</v>
+      </c>
+      <c r="N77">
+        <v>0.078251638</v>
+      </c>
+      <c r="O77" s="6">
+        <v>7823944.8</v>
+      </c>
+      <c r="P77">
+        <v>0.085802242</v>
+      </c>
+      <c r="Q77">
+        <v>7823944.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="2">
         <v>201705</v>
       </c>
@@ -2553,7 +4087,7 @@
         <v>52010212</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2">
         <v>711.468</v>
@@ -2561,8 +4095,44 @@
       <c r="E78" s="2">
         <v>8484255.9</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" s="2">
+        <v>201705</v>
+      </c>
+      <c r="G78" s="4">
+        <v>8484255.9</v>
+      </c>
+      <c r="H78" s="4">
+        <v>8484255.9</v>
+      </c>
+      <c r="I78" s="4">
+        <v>8484255.9</v>
+      </c>
+      <c r="J78" s="4">
+        <v>8484255.9</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0.0169525327754414</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0.0209841914474964</v>
+      </c>
+      <c r="M78">
+        <v>8523669.931</v>
+      </c>
+      <c r="N78">
+        <v>0.018043578</v>
+      </c>
+      <c r="O78" s="6">
+        <v>8460772.86487405</v>
+      </c>
+      <c r="P78">
+        <v>0.033694766</v>
+      </c>
+      <c r="Q78">
+        <v>8524898.613</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="2">
         <v>201706</v>
       </c>
@@ -2570,7 +4140,7 @@
         <v>52010212</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2">
         <v>723.632</v>
@@ -2578,8 +4148,44 @@
       <c r="E79" s="2">
         <v>8629311.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" s="2">
+        <v>201706</v>
+      </c>
+      <c r="G79" s="4">
+        <v>8629311.6</v>
+      </c>
+      <c r="H79" s="4">
+        <v>8629311.6</v>
+      </c>
+      <c r="I79" s="4">
+        <v>8629311.6</v>
+      </c>
+      <c r="J79" s="4">
+        <v>8629311.6</v>
+      </c>
+      <c r="K79" s="4">
+        <v>-0.0154413094457872</v>
+      </c>
+      <c r="L79" s="4">
+        <v>-0.0299954153597355</v>
+      </c>
+      <c r="M79">
+        <v>8704422.111</v>
+      </c>
+      <c r="N79">
+        <v>-0.017674297</v>
+      </c>
+      <c r="O79" s="6">
+        <v>8614821.10652535</v>
+      </c>
+      <c r="P79">
+        <v>-0.017508522</v>
+      </c>
+      <c r="Q79">
+        <v>8817037.247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="2">
         <v>201707</v>
       </c>
@@ -2587,7 +4193,7 @@
         <v>52010212</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2">
         <v>712.544</v>
@@ -2595,8 +4201,44 @@
       <c r="E80" s="2">
         <v>8497087.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" s="2">
+        <v>201707</v>
+      </c>
+      <c r="G80" s="4">
+        <v>8497087.2</v>
+      </c>
+      <c r="H80" s="4">
+        <v>8497087.2</v>
+      </c>
+      <c r="I80" s="4">
+        <v>8497087.2</v>
+      </c>
+      <c r="J80" s="4">
+        <v>8497087.2</v>
+      </c>
+      <c r="K80" s="4">
+        <v>0.273833051502104</v>
+      </c>
+      <c r="L80" s="4">
+        <v>0.18757626414299</v>
+      </c>
+      <c r="M80">
+        <v>8447206.257</v>
+      </c>
+      <c r="N80">
+        <v>0.277684838</v>
+      </c>
+      <c r="O80" s="6">
+        <v>8463897.84128729</v>
+      </c>
+      <c r="P80">
+        <v>0.276621759</v>
+      </c>
+      <c r="Q80">
+        <v>8664007.513</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="2">
         <v>201708</v>
       </c>
@@ -2604,7 +4246,7 @@
         <v>52010212</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D81" s="2">
         <v>936.992</v>
@@ -2612,8 +4254,44 @@
       <c r="E81" s="3">
         <v>11173629.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" s="2">
+        <v>201708</v>
+      </c>
+      <c r="G81" s="4">
+        <v>11173629.6</v>
+      </c>
+      <c r="H81" s="4">
+        <v>11173629.6</v>
+      </c>
+      <c r="I81" s="4">
+        <v>11173629.6</v>
+      </c>
+      <c r="J81" s="4">
+        <v>11173629.6</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0.00546640164640522</v>
+      </c>
+      <c r="L81" s="4">
+        <v>-0.020941274240613</v>
+      </c>
+      <c r="M81">
+        <v>10190053.02</v>
+      </c>
+      <c r="N81">
+        <v>-0.001690194</v>
+      </c>
+      <c r="O81" s="6">
+        <v>11172938.7488136</v>
+      </c>
+      <c r="P81">
+        <v>-0.017056793</v>
+      </c>
+      <c r="Q81">
+        <v>11424945.47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="2">
         <v>201709</v>
       </c>
@@ -2621,7 +4299,7 @@
         <v>52010212</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2">
         <v>942.128</v>
@@ -2629,8 +4307,44 @@
       <c r="E82" s="3">
         <v>11234876.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" s="2">
+        <v>201709</v>
+      </c>
+      <c r="G82" s="4">
+        <v>11234876.4</v>
+      </c>
+      <c r="H82" s="4">
+        <v>11234876.4</v>
+      </c>
+      <c r="I82" s="4">
+        <v>11234876.4</v>
+      </c>
+      <c r="J82" s="4">
+        <v>11234876.4</v>
+      </c>
+      <c r="K82" s="4">
+        <v>-0.309098658863794</v>
+      </c>
+      <c r="L82" s="4">
+        <v>-0.325685739517212</v>
+      </c>
+      <c r="M82">
+        <v>9978879.149</v>
+      </c>
+      <c r="N82">
+        <v>-0.312309921</v>
+      </c>
+      <c r="O82" s="6">
+        <v>11154070.2631604</v>
+      </c>
+      <c r="P82">
+        <v>-0.291387916</v>
+      </c>
+      <c r="Q82">
+        <v>11231725.07</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="2">
         <v>201710</v>
       </c>
@@ -2638,7 +4352,7 @@
         <v>52010212</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2">
         <v>691.624</v>
@@ -2646,8 +4360,44 @@
       <c r="E83" s="2">
         <v>8247616.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" s="2">
+        <v>201710</v>
+      </c>
+      <c r="G83" s="4">
+        <v>8247616.2</v>
+      </c>
+      <c r="H83" s="4">
+        <v>8247616.2</v>
+      </c>
+      <c r="I83" s="4">
+        <v>8247616.2</v>
+      </c>
+      <c r="J83" s="4">
+        <v>8247616.2</v>
+      </c>
+      <c r="K83" s="4">
+        <v>-0.142846383866786</v>
+      </c>
+      <c r="L83" s="4">
+        <v>-0.160746023058891</v>
+      </c>
+      <c r="M83">
+        <v>7205070.37</v>
+      </c>
+      <c r="N83">
+        <v>-0.138966992</v>
+      </c>
+      <c r="O83" s="6">
+        <v>8162043.14999624</v>
+      </c>
+      <c r="P83">
+        <v>-0.158781722</v>
+      </c>
+      <c r="Q83">
+        <v>8392634.059</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="2">
         <v>201711</v>
       </c>
@@ -2655,7 +4405,7 @@
         <v>52010212</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2">
         <v>599.56</v>
@@ -2663,8 +4413,44 @@
       <c r="E84" s="2">
         <v>7149753</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" s="2">
+        <v>201711</v>
+      </c>
+      <c r="G84" s="4">
+        <v>7149753</v>
+      </c>
+      <c r="H84" s="4">
+        <v>7149753</v>
+      </c>
+      <c r="I84" s="4">
+        <v>7149753</v>
+      </c>
+      <c r="J84" s="4">
+        <v>7149753</v>
+      </c>
+      <c r="K84" s="4">
+        <v>-1.53223671057482</v>
+      </c>
+      <c r="L84" s="4">
+        <v>-1.53400373458862</v>
+      </c>
+      <c r="M84">
+        <v>6135177.125</v>
+      </c>
+      <c r="N84">
+        <v>-1.538656235</v>
+      </c>
+      <c r="O84" s="6">
+        <v>7103073.03970561</v>
+      </c>
+      <c r="P84">
+        <v>-1.518225551</v>
+      </c>
+      <c r="Q84">
+        <v>7160448.945</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="2">
         <v>201712</v>
       </c>
@@ -2672,7 +4458,7 @@
         <v>52010212</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2">
         <v>129.536</v>
@@ -2680,8 +4466,44 @@
       <c r="E85" s="2">
         <v>1544716.8</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" s="2">
+        <v>201712</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1544716.8</v>
+      </c>
+      <c r="H85" s="4">
+        <v>1544716.8</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1544716.8</v>
+      </c>
+      <c r="J85" s="4">
+        <v>1544716.8</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0.398358014811036</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0.379380643367767</v>
+      </c>
+      <c r="M85">
+        <v>1323175.622</v>
+      </c>
+      <c r="N85">
+        <v>0.403374672</v>
+      </c>
+      <c r="O85" s="6">
+        <v>1524811.4500817</v>
+      </c>
+      <c r="P85">
+        <v>0.399472654</v>
+      </c>
+      <c r="Q85">
+        <v>1568855.907</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="2">
         <v>201801</v>
       </c>
@@ -2689,7 +4511,7 @@
         <v>52010212</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2">
         <v>192.928</v>
@@ -2697,8 +4519,44 @@
       <c r="E86" s="2">
         <v>2300666.4</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" s="2">
+        <v>201801</v>
+      </c>
+      <c r="G86" s="4">
+        <v>2300666.4</v>
+      </c>
+      <c r="H86" s="4">
+        <v>2300666.4</v>
+      </c>
+      <c r="I86" s="4">
+        <v>2300666.4</v>
+      </c>
+      <c r="J86" s="4">
+        <v>2300666.4</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0.844037202908124</v>
+      </c>
+      <c r="L86" s="4">
+        <v>0.845218002796173</v>
+      </c>
+      <c r="M86">
+        <v>1933661.786</v>
+      </c>
+      <c r="N86">
+        <v>1.013302207</v>
+      </c>
+      <c r="O86" s="6">
+        <v>2282441.38447521</v>
+      </c>
+      <c r="P86">
+        <v>0.617645979</v>
+      </c>
+      <c r="Q86">
+        <v>2339224.575</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="2">
         <v>201803</v>
       </c>
@@ -2706,7 +4564,7 @@
         <v>52010212</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2">
         <v>704.436</v>
@@ -2714,8 +4572,44 @@
       <c r="E87" s="2">
         <v>8400399.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="2">
+        <v>201802</v>
+      </c>
+      <c r="G87" s="4">
+        <v>5350532.85</v>
+      </c>
+      <c r="H87" s="4">
+        <v>7005868.19536533</v>
+      </c>
+      <c r="I87" s="4">
+        <v>7005866.85453048</v>
+      </c>
+      <c r="J87" s="4">
+        <v>5350747.5</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0.451042901811757</v>
+      </c>
+      <c r="L87" s="4">
+        <v>0.445911347866058</v>
+      </c>
+      <c r="M87">
+        <v>4502504.518</v>
+      </c>
+      <c r="N87">
+        <v>0.286217213</v>
+      </c>
+      <c r="O87" s="6">
+        <v>6287403.19461278</v>
+      </c>
+      <c r="P87">
+        <v>0.671644628</v>
+      </c>
+      <c r="Q87">
+        <v>4338226.708</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="2">
         <v>201804</v>
       </c>
@@ -2723,7 +4617,7 @@
         <v>52010212</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2">
         <v>465.564</v>
@@ -2731,8 +4625,44 @@
       <c r="E88" s="2">
         <v>5551850.7</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" s="2">
+        <v>201803</v>
+      </c>
+      <c r="G88" s="4">
+        <v>8400399.3</v>
+      </c>
+      <c r="H88" s="4">
+        <v>8400399.3</v>
+      </c>
+      <c r="I88" s="4">
+        <v>8400399.3</v>
+      </c>
+      <c r="J88" s="4">
+        <v>8400399.3</v>
+      </c>
+      <c r="K88" s="4">
+        <v>-0.414147847723067</v>
+      </c>
+      <c r="L88" s="4">
+        <v>-0.428833156824112</v>
+      </c>
+      <c r="M88">
+        <v>7032520.871</v>
+      </c>
+      <c r="N88">
+        <v>-0.416971803</v>
+      </c>
+      <c r="O88" s="6">
+        <v>8370933.36217081</v>
+      </c>
+      <c r="P88">
+        <v>-0.41794914</v>
+      </c>
+      <c r="Q88">
+        <v>8491880</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="2">
         <v>201805</v>
       </c>
@@ -2740,7 +4670,7 @@
         <v>52010212</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2">
         <v>765.712</v>
@@ -2748,8 +4678,44 @@
       <c r="E89" s="2">
         <v>9131115.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" s="2">
+        <v>201804</v>
+      </c>
+      <c r="G89" s="4">
+        <v>5551850.7</v>
+      </c>
+      <c r="H89" s="4">
+        <v>5551850.7</v>
+      </c>
+      <c r="I89" s="4">
+        <v>5551850.7</v>
+      </c>
+      <c r="J89" s="4">
+        <v>5551850.7</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0.497556475485702</v>
+      </c>
+      <c r="L89" s="4">
+        <v>0.491857141256332</v>
+      </c>
+      <c r="M89">
+        <v>4580059.532</v>
+      </c>
+      <c r="N89">
+        <v>0.502057493</v>
+      </c>
+      <c r="O89" s="6">
+        <v>5516775.4200929</v>
+      </c>
+      <c r="P89">
+        <v>0.514564335</v>
+      </c>
+      <c r="Q89">
+        <v>5591017.051</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="2">
         <v>201806</v>
       </c>
@@ -2757,7 +4723,7 @@
         <v>52010212</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2">
         <v>685.476</v>
@@ -2765,8 +4731,44 @@
       <c r="E90" s="2">
         <v>8174301.3</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" s="2">
+        <v>201805</v>
+      </c>
+      <c r="G90" s="4">
+        <v>9131115.6</v>
+      </c>
+      <c r="H90" s="4">
+        <v>9131115.6</v>
+      </c>
+      <c r="I90" s="4">
+        <v>9131115.6</v>
+      </c>
+      <c r="J90" s="4">
+        <v>9131115.6</v>
+      </c>
+      <c r="K90" s="4">
+        <v>-0.110692619662927</v>
+      </c>
+      <c r="L90" s="4">
+        <v>-0.091563418507576</v>
+      </c>
+      <c r="M90">
+        <v>7490003.182</v>
+      </c>
+      <c r="N90">
+        <v>-0.160610661</v>
+      </c>
+      <c r="O90" s="6">
+        <v>9114359.08055742</v>
+      </c>
+      <c r="P90">
+        <v>-0.094014749</v>
+      </c>
+      <c r="Q90">
+        <v>9353266.298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="2">
         <v>201807</v>
       </c>
@@ -2774,7 +4776,7 @@
         <v>52010212</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2">
         <v>817.408</v>
@@ -2782,8 +4784,44 @@
       <c r="E91" s="2">
         <v>9747590.4</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" s="2">
+        <v>201806</v>
+      </c>
+      <c r="G91" s="4">
+        <v>8174301.3</v>
+      </c>
+      <c r="H91" s="4">
+        <v>8174301.3</v>
+      </c>
+      <c r="I91" s="4">
+        <v>8174301.3</v>
+      </c>
+      <c r="J91" s="4">
+        <v>8174301.3</v>
+      </c>
+      <c r="K91" s="4">
+        <v>0.176024851018496</v>
+      </c>
+      <c r="L91" s="4">
+        <v>0.116069257259369</v>
+      </c>
+      <c r="M91">
+        <v>6834653.617</v>
+      </c>
+      <c r="N91">
+        <v>0.043285951</v>
+      </c>
+      <c r="O91" s="6">
+        <v>7762002.9331122</v>
+      </c>
+      <c r="P91">
+        <v>0.193150595</v>
+      </c>
+      <c r="Q91">
+        <v>8513991.419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="2">
         <v>201808</v>
       </c>
@@ -2791,7 +4829,7 @@
         <v>52010212</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2">
         <v>846.22</v>
@@ -2799,8 +4837,44 @@
       <c r="E92" s="3">
         <v>10091173.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" s="2">
+        <v>201807</v>
+      </c>
+      <c r="G92" s="4">
+        <v>9747590.4</v>
+      </c>
+      <c r="H92" s="4">
+        <v>9747590.4</v>
+      </c>
+      <c r="I92" s="4">
+        <v>9747590.4</v>
+      </c>
+      <c r="J92" s="4">
+        <v>9747590.4</v>
+      </c>
+      <c r="K92" s="4">
+        <v>0.0346410113759532</v>
+      </c>
+      <c r="L92" s="4">
+        <v>-0.000179681926965714</v>
+      </c>
+      <c r="M92">
+        <v>7675819.51</v>
+      </c>
+      <c r="N92">
+        <v>0.036509439</v>
+      </c>
+      <c r="O92" s="6">
+        <v>8105366.45248413</v>
+      </c>
+      <c r="P92">
+        <v>0.039223112</v>
+      </c>
+      <c r="Q92">
+        <v>10328029.14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="2">
         <v>201809</v>
       </c>
@@ -2808,7 +4882,7 @@
         <v>52010212</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2">
         <v>830.848</v>
@@ -2816,8 +4890,44 @@
       <c r="E93" s="2">
         <v>9907862.4</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" s="2">
+        <v>201808</v>
+      </c>
+      <c r="G93" s="4">
+        <v>10091173.5</v>
+      </c>
+      <c r="H93" s="4">
+        <v>10091173.5</v>
+      </c>
+      <c r="I93" s="4">
+        <v>10091173.5</v>
+      </c>
+      <c r="J93" s="4">
+        <v>10091173.5</v>
+      </c>
+      <c r="K93" s="4">
+        <v>-0.0183325052767209</v>
+      </c>
+      <c r="L93" s="4">
+        <v>-0.00416297093033791</v>
+      </c>
+      <c r="M93">
+        <v>7674440.427</v>
+      </c>
+      <c r="N93">
+        <v>-0.022314414</v>
+      </c>
+      <c r="O93" s="6">
+        <v>8406757.2002899</v>
+      </c>
+      <c r="P93">
+        <v>-0.003381297</v>
+      </c>
+      <c r="Q93">
+        <v>10741176.11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="2">
         <v>201810</v>
       </c>
@@ -2825,7 +4935,7 @@
         <v>52010212</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2">
         <v>709.38</v>
@@ -2833,8 +4943,44 @@
       <c r="E94" s="2">
         <v>8459356.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" s="2">
+        <v>201809</v>
+      </c>
+      <c r="G94" s="4">
+        <v>9907862.4</v>
+      </c>
+      <c r="H94" s="4">
+        <v>9907862.4</v>
+      </c>
+      <c r="I94" s="4">
+        <v>9907862.4</v>
+      </c>
+      <c r="J94" s="4">
+        <v>9907862.4</v>
+      </c>
+      <c r="K94" s="4">
+        <v>-0.158055499585519</v>
+      </c>
+      <c r="L94" s="4">
+        <v>-0.0299082957208157</v>
+      </c>
+      <c r="M94">
+        <v>7642558.359</v>
+      </c>
+      <c r="N94">
+        <v>-0.129118517</v>
+      </c>
+      <c r="O94" s="6">
+        <v>8221242.83416716</v>
+      </c>
+      <c r="P94">
+        <v>-0.152360961</v>
+      </c>
+      <c r="Q94">
+        <v>10704918.34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="2">
         <v>201811</v>
       </c>
@@ -2842,7 +4988,7 @@
         <v>52010212</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2">
         <v>442.26</v>
@@ -2850,8 +4996,44 @@
       <c r="E95" s="2">
         <v>5273950.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" s="2">
+        <v>201810</v>
+      </c>
+      <c r="G95" s="4">
+        <v>8459356.5</v>
+      </c>
+      <c r="H95" s="4">
+        <v>8459356.5</v>
+      </c>
+      <c r="I95" s="4">
+        <v>8459356.5</v>
+      </c>
+      <c r="J95" s="4">
+        <v>8459356.5</v>
+      </c>
+      <c r="K95" s="4">
+        <v>-0.472493333274953</v>
+      </c>
+      <c r="L95" s="4">
+        <v>-0.480599701404571</v>
+      </c>
+      <c r="M95">
+        <v>7417366.768</v>
+      </c>
+      <c r="N95">
+        <v>-0.478855669</v>
+      </c>
+      <c r="O95" s="6">
+        <v>7225401.91051355</v>
+      </c>
+      <c r="P95">
+        <v>-0.499164283</v>
+      </c>
+      <c r="Q95">
+        <v>9192080.676</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="2">
         <v>201901</v>
       </c>
@@ -2859,7 +5041,7 @@
         <v>52010212</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2">
         <v>389.016</v>
@@ -2867,8 +5049,44 @@
       <c r="E96" s="2">
         <v>4639015.8</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" s="2">
+        <v>201811</v>
+      </c>
+      <c r="G96" s="4">
+        <v>5273950.5</v>
+      </c>
+      <c r="H96" s="4">
+        <v>5273950.5</v>
+      </c>
+      <c r="I96" s="4">
+        <v>5273950.5</v>
+      </c>
+      <c r="J96" s="4">
+        <v>5273950.5</v>
+      </c>
+      <c r="K96" s="4">
+        <v>-0.0621746730409622</v>
+      </c>
+      <c r="L96" s="4">
+        <v>-0.049231331795454</v>
+      </c>
+      <c r="M96">
+        <v>4586991.335</v>
+      </c>
+      <c r="N96">
+        <v>-0.217263535</v>
+      </c>
+      <c r="O96" s="6">
+        <v>4476077.50371511</v>
+      </c>
+      <c r="P96">
+        <v>-0.072068796</v>
+      </c>
+      <c r="Q96">
+        <v>5579939.665</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="2">
         <v>201903</v>
       </c>
@@ -2876,7 +5094,7 @@
         <v>52010212</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2">
         <v>689.936</v>
@@ -2884,8 +5102,44 @@
       <c r="E97" s="2">
         <v>8227486.8</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" s="2">
+        <v>201812</v>
+      </c>
+      <c r="G97" s="4">
+        <v>4956483.15</v>
+      </c>
+      <c r="H97" s="4">
+        <v>3986241.7109488</v>
+      </c>
+      <c r="I97" s="4">
+        <v>3986241.79117008</v>
+      </c>
+      <c r="J97" s="4">
+        <v>4956030</v>
+      </c>
+      <c r="K97" s="4">
+        <v>-0.0661027715585298</v>
+      </c>
+      <c r="L97" s="4">
+        <v>-0.0637898147106171</v>
+      </c>
+      <c r="M97">
+        <v>4366636.285</v>
+      </c>
+      <c r="N97">
+        <v>0.090372473</v>
+      </c>
+      <c r="O97" s="6">
+        <v>3601979.36082338</v>
+      </c>
+      <c r="P97">
+        <v>-0.089019075</v>
+      </c>
+      <c r="Q97">
+        <v>5191948.99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="2">
         <v>201904</v>
       </c>
@@ -2893,7 +5147,7 @@
         <v>52010212</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2">
         <v>879.836</v>
@@ -2901,8 +5155,44 @@
       <c r="E98" s="3">
         <v>10492044.3</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" s="2">
+        <v>201901</v>
+      </c>
+      <c r="G98" s="4">
+        <v>4639015.8</v>
+      </c>
+      <c r="H98" s="4">
+        <v>4639015.8</v>
+      </c>
+      <c r="I98" s="4">
+        <v>4639015.8</v>
+      </c>
+      <c r="J98" s="4">
+        <v>4639015.8</v>
+      </c>
+      <c r="K98" s="4">
+        <v>0.327022250692734</v>
+      </c>
+      <c r="L98" s="4">
+        <v>0.330786108970642</v>
+      </c>
+      <c r="M98">
+        <v>4096787.598</v>
+      </c>
+      <c r="N98">
+        <v>0.284646511</v>
+      </c>
+      <c r="O98" s="6">
+        <v>3942661.54311448</v>
+      </c>
+      <c r="P98">
+        <v>0.291285634</v>
+      </c>
+      <c r="Q98">
+        <v>4749740.864</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="2">
         <v>201905</v>
       </c>
@@ -2910,7 +5200,7 @@
         <v>52010212</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2">
         <v>977.296</v>
@@ -2918,8 +5208,44 @@
       <c r="E99" s="3">
         <v>11654254.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" s="2">
+        <v>201902</v>
+      </c>
+      <c r="G99" s="4">
+        <v>6433251.3</v>
+      </c>
+      <c r="H99" s="4">
+        <v>6319563.48952261</v>
+      </c>
+      <c r="I99" s="4">
+        <v>6319563.30399455</v>
+      </c>
+      <c r="J99" s="4">
+        <v>6433537.5</v>
+      </c>
+      <c r="K99" s="4">
+        <v>0.245956021076365</v>
+      </c>
+      <c r="L99" s="4">
+        <v>0.241335913538933</v>
+      </c>
+      <c r="M99">
+        <v>5702982.774</v>
+      </c>
+      <c r="N99">
+        <v>0.285656482</v>
+      </c>
+      <c r="O99" s="6">
+        <v>5240948.9942876</v>
+      </c>
+      <c r="P99">
+        <v>0.326770693</v>
+      </c>
+      <c r="Q99">
+        <v>6355850.637</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="2">
         <v>201906</v>
       </c>
@@ -2927,7 +5253,7 @@
         <v>52010212</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2">
         <v>639.048</v>
@@ -2935,8 +5261,44 @@
       <c r="E100" s="2">
         <v>7620647.4</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" s="2">
+        <v>201903</v>
+      </c>
+      <c r="G100" s="4">
+        <v>8227486.8</v>
+      </c>
+      <c r="H100" s="4">
+        <v>8227486.8</v>
+      </c>
+      <c r="I100" s="4">
+        <v>8227486.8</v>
+      </c>
+      <c r="J100" s="4">
+        <v>8227486.8</v>
+      </c>
+      <c r="K100" s="4">
+        <v>0.243136660568311</v>
+      </c>
+      <c r="L100" s="4">
+        <v>0.237237706780434</v>
+      </c>
+      <c r="M100">
+        <v>7259604.007</v>
+      </c>
+      <c r="N100">
+        <v>0.24727647</v>
+      </c>
+      <c r="O100" s="6">
+        <v>6973791.96069288</v>
+      </c>
+      <c r="P100">
+        <v>0.248659357</v>
+      </c>
+      <c r="Q100">
+        <v>8812282.49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="2">
         <v>201907</v>
       </c>
@@ -2944,7 +5306,7 @@
         <v>52010212</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2">
         <v>464.836</v>
@@ -2952,8 +5314,44 @@
       <c r="E101" s="2">
         <v>5543169.3</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" s="2">
+        <v>201904</v>
+      </c>
+      <c r="G101" s="4">
+        <v>10492044.3</v>
+      </c>
+      <c r="H101" s="4">
+        <v>10492044.3</v>
+      </c>
+      <c r="I101" s="4">
+        <v>10492044.3</v>
+      </c>
+      <c r="J101" s="4">
+        <v>10492044.3</v>
+      </c>
+      <c r="K101" s="4">
+        <v>0.105054038454611</v>
+      </c>
+      <c r="L101" s="4">
+        <v>0.108744576573372</v>
+      </c>
+      <c r="M101">
+        <v>9203308.314</v>
+      </c>
+      <c r="N101">
+        <v>0.103956707</v>
+      </c>
+      <c r="O101" s="6">
+        <v>8930171.669278</v>
+      </c>
+      <c r="P101">
+        <v>0.117188074</v>
+      </c>
+      <c r="Q101">
+        <v>11300035.51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="2">
         <v>201908</v>
       </c>
@@ -2961,7 +5359,7 @@
         <v>52010212</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2">
         <v>821.444</v>
@@ -2969,8 +5367,44 @@
       <c r="E102" s="2">
         <v>9795719.7</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" s="2">
+        <v>201905</v>
+      </c>
+      <c r="G102" s="4">
+        <v>11654254.8</v>
+      </c>
+      <c r="H102" s="4">
+        <v>11654254.8</v>
+      </c>
+      <c r="I102" s="4">
+        <v>11654254.8</v>
+      </c>
+      <c r="J102" s="4">
+        <v>11654254.8</v>
+      </c>
+      <c r="K102" s="4">
+        <v>-0.42480996008325</v>
+      </c>
+      <c r="L102" s="4">
+        <v>-0.411445289850235</v>
+      </c>
+      <c r="M102">
+        <v>10260561.92</v>
+      </c>
+      <c r="N102">
+        <v>-0.419870734</v>
+      </c>
+      <c r="O102" s="6">
+        <v>9908493.67679514</v>
+      </c>
+      <c r="P102">
+        <v>-0.421261668</v>
+      </c>
+      <c r="Q102">
+        <v>12704978.85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="2">
         <v>201909</v>
       </c>
@@ -2978,7 +5412,7 @@
         <v>52010212</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2">
         <v>949.76</v>
@@ -2986,8 +5420,44 @@
       <c r="E103" s="3">
         <v>11325888</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" s="2">
+        <v>201906</v>
+      </c>
+      <c r="G103" s="4">
+        <v>7620647.4</v>
+      </c>
+      <c r="H103" s="4">
+        <v>7620647.4</v>
+      </c>
+      <c r="I103" s="4">
+        <v>7620647.4</v>
+      </c>
+      <c r="J103" s="4">
+        <v>7620647.4</v>
+      </c>
+      <c r="K103" s="4">
+        <v>-0.318294864541288</v>
+      </c>
+      <c r="L103" s="4">
+        <v>-0.406262099742889</v>
+      </c>
+      <c r="M103">
+        <v>6799589.665</v>
+      </c>
+      <c r="N103">
+        <v>-0.338256001</v>
+      </c>
+      <c r="O103" s="6">
+        <v>6511185.53578545</v>
+      </c>
+      <c r="P103">
+        <v>-0.340655625</v>
+      </c>
+      <c r="Q103">
+        <v>8337240.133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="2">
         <v>201910</v>
       </c>
@@ -2995,7 +5465,7 @@
         <v>52010212</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D104" s="2">
         <v>960.832</v>
@@ -3003,8 +5473,44 @@
       <c r="E104" s="3">
         <v>11457921.6</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" s="2">
+        <v>201907</v>
+      </c>
+      <c r="G104" s="4">
+        <v>5543169.3</v>
+      </c>
+      <c r="H104" s="4">
+        <v>5543169.3</v>
+      </c>
+      <c r="I104" s="4">
+        <v>5543169.3</v>
+      </c>
+      <c r="J104" s="4">
+        <v>5543169.3</v>
+      </c>
+      <c r="K104" s="4">
+        <v>0.569379033645376</v>
+      </c>
+      <c r="L104" s="4">
+        <v>0.575488269329071</v>
+      </c>
+      <c r="M104">
+        <v>4529448.072</v>
+      </c>
+      <c r="N104">
+        <v>0.56752187</v>
+      </c>
+      <c r="O104" s="6">
+        <v>4642557.90189189</v>
+      </c>
+      <c r="P104">
+        <v>0.568819046</v>
+      </c>
+      <c r="Q104">
+        <v>5930310.478</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="2">
         <v>201911</v>
       </c>
@@ -3012,7 +5518,7 @@
         <v>52010212</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D105" s="2">
         <v>972.688</v>
@@ -3020,8 +5526,44 @@
       <c r="E105" s="3">
         <v>11599304.4</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" s="2">
+        <v>201908</v>
+      </c>
+      <c r="G105" s="4">
+        <v>9795719.7</v>
+      </c>
+      <c r="H105" s="4">
+        <v>9795719.7</v>
+      </c>
+      <c r="I105" s="4">
+        <v>9795719.7</v>
+      </c>
+      <c r="J105" s="4">
+        <v>9795719.7</v>
+      </c>
+      <c r="K105" s="4">
+        <v>0.145145540138415</v>
+      </c>
+      <c r="L105" s="4">
+        <v>0.146074116230011</v>
+      </c>
+      <c r="M105">
+        <v>8053352.461</v>
+      </c>
+      <c r="N105">
+        <v>0.149785861</v>
+      </c>
+      <c r="O105" s="6">
+        <v>8188964.4551837</v>
+      </c>
+      <c r="P105">
+        <v>0.137932733</v>
+      </c>
+      <c r="Q105">
+        <v>10473996.77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" s="2">
         <v>202001</v>
       </c>
@@ -3029,7 +5571,7 @@
         <v>52010212</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2">
         <v>308.18</v>
@@ -3037,8 +5579,44 @@
       <c r="E106" s="2">
         <v>3675046.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" s="2">
+        <v>201909</v>
+      </c>
+      <c r="G106" s="4">
+        <v>11325888</v>
+      </c>
+      <c r="H106" s="4">
+        <v>11325888</v>
+      </c>
+      <c r="I106" s="4">
+        <v>11325888</v>
+      </c>
+      <c r="J106" s="4">
+        <v>11325888</v>
+      </c>
+      <c r="K106" s="4">
+        <v>0.0115902536735</v>
+      </c>
+      <c r="L106" s="4">
+        <v>0.00615875050425529</v>
+      </c>
+      <c r="M106">
+        <v>9319999.664</v>
+      </c>
+      <c r="N106">
+        <v>0.009632662</v>
+      </c>
+      <c r="O106" s="6">
+        <v>9512182.33436411</v>
+      </c>
+      <c r="P106">
+        <v>0.012937739</v>
+      </c>
+      <c r="Q106">
+        <v>12023083.57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" s="2">
         <v>202002</v>
       </c>
@@ -3046,7 +5624,7 @@
         <v>52010212</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D107" s="2">
         <v>595.216</v>
@@ -3054,8 +5632,44 @@
       <c r="E107" s="2">
         <v>7097950.8</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" s="2">
+        <v>201910</v>
+      </c>
+      <c r="G107" s="4">
+        <v>11457921.6</v>
+      </c>
+      <c r="H107" s="4">
+        <v>11457921.6</v>
+      </c>
+      <c r="I107" s="4">
+        <v>11457921.6</v>
+      </c>
+      <c r="J107" s="4">
+        <v>11457921.6</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0.0122637961511707</v>
+      </c>
+      <c r="L107" s="4">
+        <v>0.0138322338461876</v>
+      </c>
+      <c r="M107">
+        <v>9377576.341</v>
+      </c>
+      <c r="N107">
+        <v>0.013059005</v>
+      </c>
+      <c r="O107" s="6">
+        <v>9604252.71020611</v>
+      </c>
+      <c r="P107">
+        <v>0.004490525</v>
+      </c>
+      <c r="Q107">
+        <v>12179645.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" s="2">
         <v>202003</v>
       </c>
@@ -3063,7 +5677,7 @@
         <v>52010212</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2">
         <v>1150.18</v>
@@ -3071,8 +5685,44 @@
       <c r="E108" s="3">
         <v>13715896.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" s="2">
+        <v>201911</v>
+      </c>
+      <c r="G108" s="4">
+        <v>11599304.4</v>
+      </c>
+      <c r="H108" s="4">
+        <v>11599304.4</v>
+      </c>
+      <c r="I108" s="4">
+        <v>11599304.4</v>
+      </c>
+      <c r="J108" s="4">
+        <v>11599304.4</v>
+      </c>
+      <c r="K108" s="4">
+        <v>-0.417970347148906</v>
+      </c>
+      <c r="L108" s="4">
+        <v>-0.419863700866699</v>
+      </c>
+      <c r="M108">
+        <v>9508190.443</v>
+      </c>
+      <c r="N108">
+        <v>-0.662063897</v>
+      </c>
+      <c r="O108" s="6">
+        <v>9730497.22857805</v>
+      </c>
+      <c r="P108">
+        <v>-0.572163939</v>
+      </c>
+      <c r="Q108">
+        <v>12234461.69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" s="2">
         <v>202004</v>
       </c>
@@ -3080,7 +5730,7 @@
         <v>52010212</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2">
         <v>890.892</v>
@@ -3088,8 +5738,44 @@
       <c r="E109" s="3">
         <v>10623887.1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" s="2">
+        <v>201912</v>
+      </c>
+      <c r="G109" s="4">
+        <v>7637175.45</v>
+      </c>
+      <c r="H109" s="4">
+        <v>7446073.10487257</v>
+      </c>
+      <c r="I109" s="4">
+        <v>7446072.41430606</v>
+      </c>
+      <c r="J109" s="4">
+        <v>7636770</v>
+      </c>
+      <c r="K109" s="4">
+        <v>-0.731408812108894</v>
+      </c>
+      <c r="L109" s="4">
+        <v>-0.764447689056396</v>
+      </c>
+      <c r="M109">
+        <v>6248177.513</v>
+      </c>
+      <c r="N109">
+        <v>-0.499644995</v>
+      </c>
+      <c r="O109" s="6">
+        <v>5018850.90636036</v>
+      </c>
+      <c r="P109">
+        <v>-0.557387054</v>
+      </c>
+      <c r="Q109">
+        <v>6903942.987</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" s="2">
         <v>202005</v>
       </c>
@@ -3097,7 +5783,7 @@
         <v>52010212</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2">
         <v>966.692</v>
@@ -3105,8 +5791,44 @@
       <c r="E110" s="3">
         <v>11527802.1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" s="2">
+        <v>202001</v>
+      </c>
+      <c r="G110" s="4">
+        <v>3675046.5</v>
+      </c>
+      <c r="H110" s="4">
+        <v>3675046.5</v>
+      </c>
+      <c r="I110" s="4">
+        <v>3675046.5</v>
+      </c>
+      <c r="J110" s="4">
+        <v>3675046.5</v>
+      </c>
+      <c r="K110" s="4">
+        <v>0.658240205804658</v>
+      </c>
+      <c r="L110" s="4">
+        <v>0.64766800403595</v>
+      </c>
+      <c r="M110">
+        <v>2909094.751</v>
+      </c>
+      <c r="N110">
+        <v>0.657672822</v>
+      </c>
+      <c r="O110" s="6">
+        <v>3045167.41671666</v>
+      </c>
+      <c r="P110">
+        <v>0.703598559</v>
+      </c>
+      <c r="Q110">
+        <v>3953912.258</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" s="2">
         <v>202006</v>
       </c>
@@ -3114,7 +5836,7 @@
         <v>52010212</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2">
         <v>975.72</v>
@@ -3122,8 +5844,44 @@
       <c r="E111" s="3">
         <v>11635461</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" s="2">
+        <v>202002</v>
+      </c>
+      <c r="G111" s="4">
+        <v>7097950.8</v>
+      </c>
+      <c r="H111" s="4">
+        <v>7097950.8</v>
+      </c>
+      <c r="I111" s="4">
+        <v>7097950.8</v>
+      </c>
+      <c r="J111" s="4">
+        <v>7097950.8</v>
+      </c>
+      <c r="K111" s="4">
+        <v>0.65874929799255</v>
+      </c>
+      <c r="L111" s="4">
+        <v>0.665389955043793</v>
+      </c>
+      <c r="M111">
+        <v>5559510.798</v>
+      </c>
+      <c r="N111">
+        <v>0.660812497</v>
+      </c>
+      <c r="O111" s="6">
+        <v>5878072.26019019</v>
+      </c>
+      <c r="P111">
+        <v>0.650156558</v>
+      </c>
+      <c r="Q111">
+        <v>7990906.602</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" s="2">
         <v>202007</v>
       </c>
@@ -3131,7 +5889,7 @@
         <v>52010212</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2">
         <v>697.976</v>
@@ -3139,8 +5897,44 @@
       <c r="E112" s="2">
         <v>8323363.8</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112" s="2">
+        <v>202003</v>
+      </c>
+      <c r="G112" s="4">
+        <v>13715896.5</v>
+      </c>
+      <c r="H112" s="4">
+        <v>13715896.5</v>
+      </c>
+      <c r="I112" s="4">
+        <v>13715896.5</v>
+      </c>
+      <c r="J112" s="4">
+        <v>13715896.5</v>
+      </c>
+      <c r="K112" s="4">
+        <v>-0.255450501625962</v>
+      </c>
+      <c r="L112" s="4">
+        <v>-0.260129153728485</v>
+      </c>
+      <c r="M112">
+        <v>10814633.39</v>
+      </c>
+      <c r="N112">
+        <v>-0.260950089</v>
+      </c>
+      <c r="O112" s="6">
+        <v>11382094.2487578</v>
+      </c>
+      <c r="P112">
+        <v>-0.25967139</v>
+      </c>
+      <c r="Q112">
+        <v>15309305.37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="2">
         <v>202008</v>
       </c>
@@ -3148,7 +5942,7 @@
         <v>52010212</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2">
         <v>905.596</v>
@@ -3156,8 +5950,44 @@
       <c r="E113" s="3">
         <v>10799232.3</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" s="2">
+        <v>202004</v>
+      </c>
+      <c r="G113" s="4">
+        <v>10623887.1</v>
+      </c>
+      <c r="H113" s="4">
+        <v>10623887.1</v>
+      </c>
+      <c r="I113" s="4">
+        <v>10623887.1</v>
+      </c>
+      <c r="J113" s="4">
+        <v>10623887.1</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0.081656718476097</v>
+      </c>
+      <c r="L113" s="4">
+        <v>0.0702826976776123</v>
+      </c>
+      <c r="M113">
+        <v>8337563.103</v>
+      </c>
+      <c r="N113">
+        <v>0.095026381</v>
+      </c>
+      <c r="O113" s="6">
+        <v>8767847.40089562</v>
+      </c>
+      <c r="P113">
+        <v>0.082327217</v>
+      </c>
+      <c r="Q113">
+        <v>11808143.59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="2">
         <v>202009</v>
       </c>
@@ -3165,7 +5995,7 @@
         <v>52010212</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2">
         <v>858.584</v>
@@ -3173,8 +6003,44 @@
       <c r="E114" s="3">
         <v>10238614.2</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114" s="2">
+        <v>202005</v>
+      </c>
+      <c r="G114" s="4">
+        <v>11527802.1</v>
+      </c>
+      <c r="H114" s="4">
+        <v>11527802.1</v>
+      </c>
+      <c r="I114" s="4">
+        <v>11527802.1</v>
+      </c>
+      <c r="J114" s="4">
+        <v>11527802.1</v>
+      </c>
+      <c r="K114" s="4">
+        <v>0.0092957253454955</v>
+      </c>
+      <c r="L114" s="4">
+        <v>-0.0058469083160162</v>
+      </c>
+      <c r="M114">
+        <v>8944632.982</v>
+      </c>
+      <c r="N114">
+        <v>0.023695678</v>
+      </c>
+      <c r="O114" s="6">
+        <v>9641895.49699001</v>
+      </c>
+      <c r="P114">
+        <v>0.000369772</v>
+      </c>
+      <c r="Q114">
+        <v>12821412.85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="2">
         <v>202010</v>
       </c>
@@ -3182,7 +6048,7 @@
         <v>52010212</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2">
         <v>857.48</v>
@@ -3190,8 +6056,44 @@
       <c r="E115" s="3">
         <v>10225449</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115" s="2">
+        <v>202006</v>
+      </c>
+      <c r="G115" s="4">
+        <v>11635461</v>
+      </c>
+      <c r="H115" s="4">
+        <v>11635461</v>
+      </c>
+      <c r="I115" s="4">
+        <v>11635461</v>
+      </c>
+      <c r="J115" s="4">
+        <v>11635461</v>
+      </c>
+      <c r="K115" s="4">
+        <v>-0.334990907591108</v>
+      </c>
+      <c r="L115" s="4">
+        <v>-0.253359228372574</v>
+      </c>
+      <c r="M115">
+        <v>8892487.122</v>
+      </c>
+      <c r="N115">
+        <v>-0.209544882</v>
+      </c>
+      <c r="O115" s="6">
+        <v>9873095.16561774</v>
+      </c>
+      <c r="P115">
+        <v>-0.30733794</v>
+      </c>
+      <c r="Q115">
+        <v>12826154.73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="2">
         <v>202102</v>
       </c>
@@ -3199,7 +6101,7 @@
         <v>52010212</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2">
         <v>97.152</v>
@@ -3207,8 +6109,44 @@
       <c r="E116" s="2">
         <v>1158537.6</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116" s="2">
+        <v>202007</v>
+      </c>
+      <c r="G116" s="4">
+        <v>8323363.8</v>
+      </c>
+      <c r="H116" s="4">
+        <v>8323363.8</v>
+      </c>
+      <c r="I116" s="4">
+        <v>8323363.8</v>
+      </c>
+      <c r="J116" s="4">
+        <v>8323363.8</v>
+      </c>
+      <c r="K116" s="4">
+        <v>0.260408544716404</v>
+      </c>
+      <c r="L116" s="4">
+        <v>0.251097083091736</v>
+      </c>
+      <c r="M116">
+        <v>6902250.486</v>
+      </c>
+      <c r="N116">
+        <v>0.26750654</v>
+      </c>
+      <c r="O116" s="6">
+        <v>8006618.33686144</v>
+      </c>
+      <c r="P116">
+        <v>0.280527174</v>
+      </c>
+      <c r="Q116">
+        <v>9432380.054</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="2">
         <v>202103</v>
       </c>
@@ -3216,7 +6154,7 @@
         <v>52010212</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2">
         <v>839.956</v>
@@ -3224,8 +6162,44 @@
       <c r="E117" s="3">
         <v>10016475.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" s="2">
+        <v>202008</v>
+      </c>
+      <c r="G117" s="4">
+        <v>10799232.3</v>
+      </c>
+      <c r="H117" s="4">
+        <v>10799232.3</v>
+      </c>
+      <c r="I117" s="4">
+        <v>10799232.3</v>
+      </c>
+      <c r="J117" s="4">
+        <v>10799232.3</v>
+      </c>
+      <c r="K117" s="4">
+        <v>-0.0533087647781052</v>
+      </c>
+      <c r="L117" s="4">
+        <v>-0.0565496124327183</v>
+      </c>
+      <c r="M117">
+        <v>8872393.757</v>
+      </c>
+      <c r="N117">
+        <v>-0.052229419</v>
+      </c>
+      <c r="O117" s="6">
+        <v>10462265.9051349</v>
+      </c>
+      <c r="P117">
+        <v>-0.055015072</v>
+      </c>
+      <c r="Q117">
+        <v>12486844.59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" s="2">
         <v>202104</v>
       </c>
@@ -3233,7 +6207,7 @@
         <v>52010212</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2">
         <v>947.768</v>
@@ -3241,8 +6215,44 @@
       <c r="E118" s="3">
         <v>11302133.4</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" s="2">
+        <v>202009</v>
+      </c>
+      <c r="G118" s="4">
+        <v>10238614.2</v>
+      </c>
+      <c r="H118" s="4">
+        <v>10238614.2</v>
+      </c>
+      <c r="I118" s="4">
+        <v>10238614.2</v>
+      </c>
+      <c r="J118" s="4">
+        <v>10238614.2</v>
+      </c>
+      <c r="K118" s="4">
+        <v>-0.00128666535095334</v>
+      </c>
+      <c r="L118" s="4">
+        <v>0.00825770571827888</v>
+      </c>
+      <c r="M118">
+        <v>8384585.932</v>
+      </c>
+      <c r="N118">
+        <v>-0.003828928</v>
+      </c>
+      <c r="O118" s="6">
+        <v>9929852.62374927</v>
+      </c>
+      <c r="P118">
+        <v>-0.0151788</v>
+      </c>
+      <c r="Q118">
+        <v>11818434.76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" s="2">
         <v>202105</v>
       </c>
@@ -3250,7 +6260,7 @@
         <v>52010212</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2">
         <v>1073.812</v>
@@ -3258,8 +6268,44 @@
       <c r="E119" s="3">
         <v>12805208.1</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" s="2">
+        <v>202010</v>
+      </c>
+      <c r="G119" s="4">
+        <v>10225449</v>
+      </c>
+      <c r="H119" s="4">
+        <v>10225449</v>
+      </c>
+      <c r="I119" s="4">
+        <v>10225449</v>
+      </c>
+      <c r="J119" s="4">
+        <v>10225449</v>
+      </c>
+      <c r="K119" s="4">
+        <v>-0.38188352458273</v>
+      </c>
+      <c r="L119" s="4">
+        <v>-0.372227430343628</v>
+      </c>
+      <c r="M119">
+        <v>8454110.043</v>
+      </c>
+      <c r="N119">
+        <v>-0.97490418</v>
+      </c>
+      <c r="O119" s="6">
+        <v>9891904.62685247</v>
+      </c>
+      <c r="P119">
+        <v>-0.569358051</v>
+      </c>
+      <c r="Q119">
+        <v>11640399.69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120" s="2">
         <v>202106</v>
       </c>
@@ -3267,7 +6313,7 @@
         <v>52010212</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2">
         <v>1524.08</v>
@@ -3275,8 +6321,44 @@
       <c r="E120" s="3">
         <v>18174654</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" s="2">
+        <v>202011</v>
+      </c>
+      <c r="G120" s="4">
+        <v>7958721.15</v>
+      </c>
+      <c r="H120" s="4">
+        <v>6372001.83601434</v>
+      </c>
+      <c r="I120" s="4">
+        <v>6372000.7709341</v>
+      </c>
+      <c r="J120" s="4">
+        <v>6979630.95</v>
+      </c>
+      <c r="K120" s="4">
+        <v>-0.0383019335965855</v>
+      </c>
+      <c r="L120" s="4">
+        <v>-0.0438146218657494</v>
+      </c>
+      <c r="M120">
+        <v>5826551.029</v>
+      </c>
+      <c r="N120">
+        <v>-1.385324001</v>
+      </c>
+      <c r="O120" s="6">
+        <v>3731507.70224412</v>
+      </c>
+      <c r="P120">
+        <v>-0.550936997</v>
+      </c>
+      <c r="Q120">
+        <v>6587168.978</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" s="2">
         <v>202107</v>
       </c>
@@ -3284,7 +6366,7 @@
         <v>52010212</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2">
         <v>838.668</v>
@@ -3292,8 +6374,44 @@
       <c r="E121" s="3">
         <v>10001115.9</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121" s="2">
+        <v>202012</v>
+      </c>
+      <c r="G121" s="4">
+        <v>5691993.3</v>
+      </c>
+      <c r="H121" s="4">
+        <v>742644.263077604</v>
+      </c>
+      <c r="I121" s="4">
+        <v>742643.70551521</v>
+      </c>
+      <c r="J121" s="4">
+        <v>6717352.5</v>
+      </c>
+      <c r="K121" s="4">
+        <v>-0.0398386860473039</v>
+      </c>
+      <c r="L121" s="4">
+        <v>-0.0773847699165344</v>
+      </c>
+      <c r="M121">
+        <v>5576774.739</v>
+      </c>
+      <c r="N121">
+        <v>-0.779118776</v>
+      </c>
+      <c r="O121" s="6">
+        <v>933781.841417463</v>
+      </c>
+      <c r="P121">
+        <v>-0.579864383</v>
+      </c>
+      <c r="Q121">
+        <v>3796906.112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122" s="2">
         <v>202108</v>
       </c>
@@ -3301,7 +6419,7 @@
         <v>52010212</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2">
         <v>777.76</v>
@@ -3309,8 +6427,44 @@
       <c r="E122" s="2">
         <v>9274788</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122" s="2">
+        <v>202101</v>
+      </c>
+      <c r="G122" s="4">
+        <v>3425265.45</v>
+      </c>
+      <c r="H122" s="4">
+        <v>-2581255.36212184</v>
+      </c>
+      <c r="I122" s="4">
+        <v>-2581255.11400785</v>
+      </c>
+      <c r="J122" s="4">
+        <v>6455002.5</v>
+      </c>
+      <c r="K122" s="4">
+        <v>-1.71769618323165</v>
+      </c>
+      <c r="L122" s="4">
+        <v>-1.71902549266815</v>
+      </c>
+      <c r="M122">
+        <v>5161492.703</v>
+      </c>
+      <c r="N122">
+        <v>0.966304719</v>
+      </c>
+      <c r="O122" s="6">
+        <v>428428.043276426</v>
+      </c>
+      <c r="P122">
+        <v>0.663591921</v>
+      </c>
+      <c r="Q122">
+        <v>2126169.416</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" s="2">
         <v>202109</v>
       </c>
@@ -3318,7 +6472,7 @@
         <v>52010212</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2">
         <v>825.768</v>
@@ -3326,8 +6480,44 @@
       <c r="E123" s="2">
         <v>9847283.4</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" s="2">
+        <v>202102</v>
+      </c>
+      <c r="G123" s="4">
+        <v>1158537.6</v>
+      </c>
+      <c r="H123" s="4">
+        <v>1158537.6</v>
+      </c>
+      <c r="I123" s="4">
+        <v>1158537.6</v>
+      </c>
+      <c r="J123" s="4">
+        <v>1158537.6</v>
+      </c>
+      <c r="K123" s="4">
+        <v>2.15707198385868</v>
+      </c>
+      <c r="L123" s="4">
+        <v>2.15486931800842</v>
+      </c>
+      <c r="M123">
+        <v>925148.9211</v>
+      </c>
+      <c r="N123">
+        <v>2.158838749</v>
+      </c>
+      <c r="O123" s="6">
+        <v>1126002.42505736</v>
+      </c>
+      <c r="P123">
+        <v>0.779902577</v>
+      </c>
+      <c r="Q123">
+        <v>4128499.872</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="2">
         <v>202203</v>
       </c>
@@ -3335,7 +6525,7 @@
         <v>52010212</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2">
         <v>1005.364</v>
@@ -3343,114 +6533,648 @@
       <c r="E124" s="3">
         <v>11988965.7</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="4">
+      <c r="F124" s="2">
+        <v>202103</v>
+      </c>
+      <c r="G124" s="4">
+        <v>10016475.3</v>
+      </c>
+      <c r="H124" s="4">
+        <v>10016475.3</v>
+      </c>
+      <c r="I124" s="4">
+        <v>10016475.3</v>
+      </c>
+      <c r="J124" s="4">
+        <v>10016475.3</v>
+      </c>
+      <c r="K124" s="4">
+        <v>0.120760225696699</v>
+      </c>
+      <c r="L124" s="4">
+        <v>0.116227269172668</v>
+      </c>
+      <c r="M124">
+        <v>7981047.871</v>
+      </c>
+      <c r="N124">
+        <v>0.114161544</v>
+      </c>
+      <c r="O124" s="6">
+        <v>9752398.14053416</v>
+      </c>
+      <c r="P124">
+        <v>0.340283543</v>
+      </c>
+      <c r="Q124">
+        <v>9005331.784</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" s="2">
         <v>202204</v>
       </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="6"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="4">
+      <c r="B125" s="1">
+        <v>52010212</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="2">
+        <f>E125/11925</f>
+        <v>933.376460285312</v>
+      </c>
+      <c r="E125" s="4">
+        <v>11130514.2889023</v>
+      </c>
+      <c r="F125" s="2">
+        <v>202104</v>
+      </c>
+      <c r="G125" s="4">
+        <v>11302133.4</v>
+      </c>
+      <c r="H125" s="4">
+        <v>11302133.4</v>
+      </c>
+      <c r="I125" s="4">
+        <v>11302133.4</v>
+      </c>
+      <c r="J125" s="4">
+        <v>11302133.4</v>
+      </c>
+      <c r="K125" s="4">
+        <v>0.1248604562394</v>
+      </c>
+      <c r="L125" s="4">
+        <v>-0.311040669679642</v>
+      </c>
+      <c r="M125">
+        <v>8964721.111</v>
+      </c>
+      <c r="N125">
+        <v>-0.13125442</v>
+      </c>
+      <c r="O125" s="6">
+        <v>10931786.8766408</v>
+      </c>
+      <c r="P125">
+        <v>0.193668127</v>
+      </c>
+      <c r="Q125">
+        <v>12655607.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126" s="2">
         <v>202205</v>
       </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="6"/>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="4">
+      <c r="B126" s="1">
+        <v>52010212</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="2">
+        <f t="shared" ref="D126:D136" si="0">E126/11925</f>
+        <v>979.622504183968</v>
+      </c>
+      <c r="E126" s="4">
+        <v>11681998.3623938</v>
+      </c>
+      <c r="F126" s="2">
+        <v>202105</v>
+      </c>
+      <c r="G126" s="4">
+        <v>12805208.1</v>
+      </c>
+      <c r="H126" s="4">
+        <v>12805208.1</v>
+      </c>
+      <c r="I126" s="4">
+        <v>12805208.1</v>
+      </c>
+      <c r="J126" s="4">
+        <v>12805208.1</v>
+      </c>
+      <c r="K126" s="4">
+        <v>0.350175992044196</v>
+      </c>
+      <c r="L126" s="4">
+        <v>-0.224872916936874</v>
+      </c>
+      <c r="M126">
+        <v>6568308.147</v>
+      </c>
+      <c r="N126">
+        <v>0.442142427</v>
+      </c>
+      <c r="O126" s="6">
+        <v>9587118.16911796</v>
+      </c>
+      <c r="P126">
+        <v>-0.004892483</v>
+      </c>
+      <c r="Q126">
+        <v>15360027.81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127" s="2">
         <v>202206</v>
       </c>
-      <c r="B127" s="5"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="6"/>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="4">
+      <c r="B127" s="1">
+        <v>52010212</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="2">
+        <f t="shared" si="0"/>
+        <v>984.9547461899</v>
+      </c>
+      <c r="E127" s="4">
+        <v>11745585.3483146</v>
+      </c>
+      <c r="F127" s="2">
+        <v>202106</v>
+      </c>
+      <c r="G127" s="4">
+        <v>18174654</v>
+      </c>
+      <c r="H127" s="4">
+        <v>18174654</v>
+      </c>
+      <c r="I127" s="4">
+        <v>18174654</v>
+      </c>
+      <c r="J127" s="4">
+        <v>18174654</v>
+      </c>
+      <c r="K127" s="4">
+        <v>-0.597331264363941</v>
+      </c>
+      <c r="L127" s="4">
+        <v>0.0101760514080524</v>
+      </c>
+      <c r="M127">
+        <v>5245566.964</v>
+      </c>
+      <c r="N127">
+        <v>-0.660054088</v>
+      </c>
+      <c r="O127" s="6">
+        <v>14917914.470894</v>
+      </c>
+      <c r="P127">
+        <v>-0.465870142</v>
+      </c>
+      <c r="Q127">
+        <v>15285062.66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" s="2">
         <v>202207</v>
       </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="4">
+      <c r="B128" s="1">
+        <v>52010212</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="2">
+        <f t="shared" si="0"/>
+        <v>801.328862517284</v>
+      </c>
+      <c r="E128" s="4">
+        <v>9555846.68551861</v>
+      </c>
+      <c r="F128" s="2">
+        <v>202107</v>
+      </c>
+      <c r="G128" s="4">
+        <v>10001115.9</v>
+      </c>
+      <c r="H128" s="4">
+        <v>10001115.9</v>
+      </c>
+      <c r="I128" s="4">
+        <v>10001115.9</v>
+      </c>
+      <c r="J128" s="4">
+        <v>10001115.9</v>
+      </c>
+      <c r="K128" s="4">
+        <v>-0.0753969178486003</v>
+      </c>
+      <c r="M128">
+        <v>5299218.652</v>
+      </c>
+      <c r="O128" s="6">
+        <v>7709926.49591412</v>
+      </c>
+      <c r="Q128">
+        <v>9592733.394</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="2">
         <v>202209</v>
       </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="4">
+      <c r="B129" s="1">
+        <v>52010212</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="2">
+        <f t="shared" si="0"/>
+        <v>912.802619896397</v>
+      </c>
+      <c r="E129" s="4">
+        <v>10885171.2422645</v>
+      </c>
+      <c r="F129" s="2">
+        <v>202108</v>
+      </c>
+      <c r="G129" s="4">
+        <v>9274788</v>
+      </c>
+      <c r="H129" s="4">
+        <v>9274788</v>
+      </c>
+      <c r="I129" s="4">
+        <v>9274788</v>
+      </c>
+      <c r="J129" s="4">
+        <v>9274788</v>
+      </c>
+      <c r="K129" s="4">
+        <v>0.0598958628329704</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="2">
         <v>202301</v>
       </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="4">
+      <c r="B130" s="1">
+        <v>52010212</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="2">
+        <f t="shared" si="0"/>
+        <v>673.080436984849</v>
+      </c>
+      <c r="E130" s="4">
+        <v>8026484.21104432</v>
+      </c>
+      <c r="F130" s="2">
+        <v>202109</v>
+      </c>
+      <c r="G130" s="4">
+        <v>9847283.4</v>
+      </c>
+      <c r="H130" s="4">
+        <v>9847283.4</v>
+      </c>
+      <c r="I130" s="4">
+        <v>9847283.4</v>
+      </c>
+      <c r="J130" s="4">
+        <v>9847283.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="2">
         <v>202302</v>
       </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="4">
+      <c r="B131" s="1">
+        <v>52010212</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="2">
+        <f t="shared" si="0"/>
+        <v>10.062893081761</v>
+      </c>
+      <c r="E131" s="4">
+        <v>120000</v>
+      </c>
+      <c r="F131" s="2">
+        <v>202110</v>
+      </c>
+      <c r="G131" s="4">
+        <v>12188776.7015093</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="2">
         <v>202303</v>
       </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="4">
+      <c r="B132" s="1">
+        <v>52010212</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="2">
+        <f t="shared" si="0"/>
+        <v>900.68615783884</v>
+      </c>
+      <c r="E132" s="4">
+        <v>10740682.4322282</v>
+      </c>
+      <c r="F132" s="2">
+        <v>202111</v>
+      </c>
+      <c r="G132" s="4">
+        <v>11724277.3824308</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="2">
         <v>202304</v>
       </c>
-      <c r="B133" s="5"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="4">
+      <c r="B133" s="1">
+        <v>52010212</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="2">
+        <f t="shared" si="0"/>
+        <v>968.328106890904</v>
+      </c>
+      <c r="E133" s="4">
+        <v>11547312.674674</v>
+      </c>
+      <c r="F133" s="2">
+        <v>202112</v>
+      </c>
+      <c r="G133" s="4">
+        <v>9025621.274351</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="2">
         <v>202306</v>
       </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="4">
+      <c r="B134" s="1">
+        <v>52010212</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="2">
+        <f t="shared" si="0"/>
+        <v>1257.86163522013</v>
+      </c>
+      <c r="E134" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="F134" s="2">
+        <v>202201</v>
+      </c>
+      <c r="G134" s="4">
+        <v>5003090.93883228</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="2">
         <v>202312</v>
       </c>
-      <c r="B135" s="5"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="4">
+      <c r="B135" s="1">
+        <v>52010212</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="2">
+        <f t="shared" si="0"/>
+        <v>790.590269963528</v>
+      </c>
+      <c r="E135" s="4">
+        <v>9427788.96931507</v>
+      </c>
+      <c r="F135" s="2">
+        <v>202202</v>
+      </c>
+      <c r="G135" s="4">
+        <v>8584968.06547549</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2">
         <v>202401</v>
       </c>
-      <c r="B136" s="5"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
+      <c r="B136" s="1">
+        <v>52010212</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="2">
+        <f t="shared" si="0"/>
+        <v>686.737371195066</v>
+      </c>
+      <c r="E136" s="4">
+        <v>8189343.15150116</v>
+      </c>
+      <c r="F136" s="2">
+        <v>202203</v>
+      </c>
+      <c r="G136" s="4">
+        <v>12898761.6723452</v>
+      </c>
+    </row>
+    <row r="137" spans="6:7">
+      <c r="F137" s="2">
+        <v>202204</v>
+      </c>
+      <c r="G137" s="4">
+        <v>11130514.2889023</v>
+      </c>
+    </row>
+    <row r="138" spans="6:7">
+      <c r="F138" s="2">
+        <v>202205</v>
+      </c>
+      <c r="G138" s="4">
+        <v>11681998.3623938</v>
+      </c>
+    </row>
+    <row r="139" spans="6:7">
+      <c r="F139" s="2">
+        <v>202206</v>
+      </c>
+      <c r="G139" s="4">
+        <v>11745585.3483146</v>
+      </c>
+    </row>
+    <row r="140" spans="6:7">
+      <c r="F140" s="2">
+        <v>202207</v>
+      </c>
+      <c r="G140" s="4">
+        <v>9555846.68551861</v>
+      </c>
+    </row>
+    <row r="141" spans="6:7">
+      <c r="F141" s="2">
+        <v>202208</v>
+      </c>
+      <c r="G141" s="4">
+        <v>11240060.2802818</v>
+      </c>
+    </row>
+    <row r="142" spans="6:7">
+      <c r="F142" s="2">
+        <v>202209</v>
+      </c>
+      <c r="G142" s="4">
+        <v>10885171.2422645</v>
+      </c>
+    </row>
+    <row r="143" spans="6:7">
+      <c r="F143" s="2">
+        <v>202210</v>
+      </c>
+      <c r="G143" s="4">
+        <v>10876671.1810661</v>
+      </c>
+    </row>
+    <row r="144" spans="6:7">
+      <c r="F144" s="2">
+        <v>202211</v>
+      </c>
+      <c r="G144" s="4">
+        <v>8485004.72801463</v>
+      </c>
+    </row>
+    <row r="145" spans="6:7">
+      <c r="F145" s="2">
+        <v>202212</v>
+      </c>
+      <c r="G145" s="4">
+        <v>8258994.32401067</v>
+      </c>
+    </row>
+    <row r="146" spans="6:7">
+      <c r="F146" s="2">
+        <v>202301</v>
+      </c>
+      <c r="G146" s="4">
+        <v>8026484.21104432</v>
+      </c>
+    </row>
+    <row r="147" spans="6:7">
+      <c r="F147" s="2">
+        <v>202302</v>
+      </c>
+      <c r="G147" s="4">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="148" spans="6:7">
+      <c r="F148" s="2">
+        <v>202303</v>
+      </c>
+      <c r="G148" s="4">
+        <v>10740682.4322282</v>
+      </c>
+    </row>
+    <row r="149" spans="6:7">
+      <c r="F149" s="2">
+        <v>202304</v>
+      </c>
+      <c r="G149" s="4">
+        <v>11547312.674674</v>
+      </c>
+    </row>
+    <row r="150" spans="6:7">
+      <c r="F150" s="2">
+        <v>202305</v>
+      </c>
+      <c r="G150" s="4">
+        <v>12410636.8535441</v>
+      </c>
+    </row>
+    <row r="151" spans="6:7">
+      <c r="F151" s="2">
+        <v>202306</v>
+      </c>
+      <c r="G151" s="4">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="152" spans="6:7">
+      <c r="F152" s="2">
+        <v>202307</v>
+      </c>
+      <c r="G152" s="4">
+        <v>10730607.1970336</v>
+      </c>
+    </row>
+    <row r="153" spans="6:7">
+      <c r="F153" s="2">
+        <v>202308</v>
+      </c>
+      <c r="G153" s="4">
+        <v>10240910.4662535</v>
+      </c>
+    </row>
+    <row r="154" spans="6:7">
+      <c r="F154" s="2">
+        <v>202309</v>
+      </c>
+      <c r="G154" s="4">
+        <v>10629079.5862087</v>
+      </c>
+    </row>
+    <row r="155" spans="6:7">
+      <c r="F155" s="2">
+        <v>202310</v>
+      </c>
+      <c r="G155" s="4">
+        <v>10289767.1502643</v>
+      </c>
+    </row>
+    <row r="156" spans="6:7">
+      <c r="F156" s="2">
+        <v>202311</v>
+      </c>
+      <c r="G156" s="4">
+        <v>10168338.6654818</v>
+      </c>
+    </row>
+    <row r="157" spans="6:7">
+      <c r="F157" s="2">
+        <v>202312</v>
+      </c>
+      <c r="G157" s="4">
+        <v>9427788.96931507</v>
+      </c>
+    </row>
+    <row r="158" spans="6:7">
+      <c r="F158" s="2">
+        <v>202401</v>
+      </c>
+      <c r="G158" s="4">
+        <v>8189343.15150116</v>
+      </c>
+    </row>
+    <row r="159" spans="7:7">
+      <c r="G159" s="4">
+        <v>9300648.90141308</v>
+      </c>
+    </row>
+    <row r="160" spans="7:7">
+      <c r="G160" s="4">
+        <v>10472249.5699259</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/final_result/A4.xlsx
+++ b/final_result/A4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="26">
   <si>
     <t>月份</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>补齐后的时间线</t>
+  </si>
+  <si>
+    <t>预测的值(表格中原先空白处)</t>
   </si>
   <si>
     <t>线性插值数据</t>
@@ -760,7 +763,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1290,10 +1293,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S160"/>
+  <dimension ref="A1:T160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1303,19 +1306,20 @@
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="34.1346153846154" customWidth="1"/>
-    <col min="7" max="7" width="17.7115384615385" customWidth="1"/>
-    <col min="8" max="8" width="19.6730769230769" customWidth="1"/>
-    <col min="9" max="9" width="22.25" customWidth="1"/>
-    <col min="10" max="10" width="20.5576923076923" customWidth="1"/>
-    <col min="11" max="11" width="31.3269230769231" customWidth="1"/>
-    <col min="12" max="12" width="38.4615384615385" customWidth="1"/>
-    <col min="13" max="13" width="45.0480769230769" customWidth="1"/>
-    <col min="14" max="15" width="24.8365384615385" customWidth="1"/>
-    <col min="16" max="18" width="35.9326923076923" customWidth="1"/>
-    <col min="19" max="19" width="85.8173076923077" customWidth="1"/>
+    <col min="7" max="7" width="35.9326923076923" customWidth="1"/>
+    <col min="8" max="8" width="17.7115384615385" customWidth="1"/>
+    <col min="9" max="9" width="19.6730769230769" customWidth="1"/>
+    <col min="10" max="10" width="22.25" customWidth="1"/>
+    <col min="11" max="11" width="20.5576923076923" customWidth="1"/>
+    <col min="12" max="12" width="31.3269230769231" customWidth="1"/>
+    <col min="13" max="13" width="38.4615384615385" customWidth="1"/>
+    <col min="14" max="14" width="45.0480769230769" customWidth="1"/>
+    <col min="15" max="16" width="24.8365384615385" customWidth="1"/>
+    <col min="17" max="19" width="35.9326923076923" customWidth="1"/>
+    <col min="20" max="20" width="85.8173076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="101" spans="1:19">
+    <row r="1" ht="101" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1359,7 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -1370,11 +1374,14 @@
       <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" ht="84" spans="1:18">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="84" spans="1:19">
       <c r="A2" s="2">
         <v>201101</v>
       </c>
@@ -1382,7 +1389,7 @@
         <v>52010212</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>495.268</v>
@@ -1393,9 +1400,7 @@
       <c r="F2" s="2">
         <v>201101</v>
       </c>
-      <c r="G2" s="4">
-        <v>5571765</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
         <v>5571765</v>
       </c>
@@ -1406,17 +1411,20 @@
         <v>5571765</v>
       </c>
       <c r="K2" s="4">
+        <v>5571765</v>
+      </c>
+      <c r="L2" s="4">
         <v>-0.181748258456212</v>
       </c>
-      <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="101" spans="1:18">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="101" spans="1:19">
       <c r="A3" s="2">
         <v>201102</v>
       </c>
@@ -1424,7 +1432,7 @@
         <v>52010212</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>412.96</v>
@@ -1435,9 +1443,7 @@
       <c r="F3" s="2">
         <v>201102</v>
       </c>
-      <c r="G3" s="4">
-        <v>4645800</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4">
         <v>4645800</v>
       </c>
@@ -1448,15 +1454,18 @@
         <v>4645800</v>
       </c>
       <c r="K3" s="4">
+        <v>4645800</v>
+      </c>
+      <c r="L3" s="4">
         <v>0.460612438762068</v>
       </c>
-      <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="84" spans="1:18">
+      <c r="R3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="84" spans="1:19">
       <c r="A4" s="2">
         <v>201103</v>
       </c>
@@ -1464,7 +1473,7 @@
         <v>52010212</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>654.56</v>
@@ -1475,9 +1484,7 @@
       <c r="F4" s="2">
         <v>201103</v>
       </c>
-      <c r="G4" s="4">
-        <v>7363800</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4">
         <v>7363800</v>
       </c>
@@ -1488,15 +1495,18 @@
         <v>7363800</v>
       </c>
       <c r="K4" s="4">
+        <v>7363800</v>
+      </c>
+      <c r="L4" s="4">
         <v>-0.134327862998282</v>
       </c>
-      <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" ht="101" spans="1:18">
+      <c r="R4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="101" spans="1:19">
       <c r="A5" s="2">
         <v>201104</v>
       </c>
@@ -1504,7 +1514,7 @@
         <v>52010212</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>572.284</v>
@@ -1515,9 +1525,7 @@
       <c r="F5" s="2">
         <v>201104</v>
       </c>
-      <c r="G5" s="4">
-        <v>6438195</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4">
         <v>6438195</v>
       </c>
@@ -1528,15 +1536,18 @@
         <v>6438195</v>
       </c>
       <c r="K5" s="4">
+        <v>6438195</v>
+      </c>
+      <c r="L5" s="4">
         <v>-0.441454525988783</v>
       </c>
-      <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="84" spans="1:18">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="84" spans="1:19">
       <c r="A6" s="2">
         <v>201105</v>
       </c>
@@ -1544,7 +1555,7 @@
         <v>52010212</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>368.036</v>
@@ -1555,9 +1566,7 @@
       <c r="F6" s="2">
         <v>201105</v>
       </c>
-      <c r="G6" s="4">
-        <v>4140405</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4">
         <v>4140405</v>
       </c>
@@ -1568,15 +1577,18 @@
         <v>4140405</v>
       </c>
       <c r="K6" s="4">
+        <v>4140405</v>
+      </c>
+      <c r="L6" s="4">
         <v>0.137847696526631</v>
       </c>
-      <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="R6" s="5"/>
+      <c r="S6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>201106</v>
       </c>
@@ -1584,7 +1596,7 @@
         <v>52010212</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>422.432</v>
@@ -1595,9 +1607,7 @@
       <c r="F7" s="2">
         <v>201106</v>
       </c>
-      <c r="G7" s="4">
-        <v>4752360</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4">
         <v>4752360</v>
       </c>
@@ -1608,10 +1618,13 @@
         <v>4752360</v>
       </c>
       <c r="K7" s="4">
+        <v>4752360</v>
+      </c>
+      <c r="L7" s="4">
         <v>-0.0239183447823663</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>201107</v>
       </c>
@@ -1619,7 +1632,7 @@
         <v>52010212</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>412.448</v>
@@ -1630,9 +1643,7 @@
       <c r="F8" s="2">
         <v>201107</v>
       </c>
-      <c r="G8" s="4">
-        <v>4640040</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4">
         <v>4640040</v>
       </c>
@@ -1643,10 +1654,13 @@
         <v>4640040</v>
       </c>
       <c r="K8" s="4">
+        <v>4640040</v>
+      </c>
+      <c r="L8" s="4">
         <v>0.47380165415783</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>201108</v>
       </c>
@@ -1654,7 +1668,7 @@
         <v>52010212</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>662.428</v>
@@ -1665,9 +1679,7 @@
       <c r="F9" s="2">
         <v>201108</v>
       </c>
-      <c r="G9" s="4">
-        <v>7452315</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4">
         <v>7452315</v>
       </c>
@@ -1678,10 +1690,13 @@
         <v>7452315</v>
       </c>
       <c r="K9" s="4">
+        <v>7452315</v>
+      </c>
+      <c r="L9" s="4">
         <v>0.0352164478092227</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>201109</v>
       </c>
@@ -1689,7 +1704,7 @@
         <v>52010212</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>686.172</v>
@@ -1700,9 +1715,7 @@
       <c r="F10" s="2">
         <v>201109</v>
       </c>
-      <c r="G10" s="4">
-        <v>7719435</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4">
         <v>7719435</v>
       </c>
@@ -1713,10 +1726,13 @@
         <v>7719435</v>
       </c>
       <c r="K10" s="4">
+        <v>7719435</v>
+      </c>
+      <c r="L10" s="4">
         <v>-0.766062472948223</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>201110</v>
       </c>
@@ -1724,7 +1740,7 @@
         <v>52010212</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>318.96</v>
@@ -1735,9 +1751,7 @@
       <c r="F11" s="2">
         <v>201110</v>
       </c>
-      <c r="G11" s="4">
-        <v>3588300</v>
-      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4">
         <v>3588300</v>
       </c>
@@ -1748,10 +1762,13 @@
         <v>3588300</v>
       </c>
       <c r="K11" s="4">
+        <v>3588300</v>
+      </c>
+      <c r="L11" s="4">
         <v>0.00913795334383138</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>201111</v>
       </c>
@@ -1759,7 +1776,7 @@
         <v>52010212</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
         <v>321.888</v>
@@ -1770,9 +1787,7 @@
       <c r="F12" s="2">
         <v>201111</v>
       </c>
-      <c r="G12" s="4">
-        <v>3621240</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4">
         <v>3621240</v>
       </c>
@@ -1783,10 +1798,13 @@
         <v>3621240</v>
       </c>
       <c r="K12" s="4">
+        <v>3621240</v>
+      </c>
+      <c r="L12" s="4">
         <v>0.179018850635725</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>201112</v>
       </c>
@@ -1794,7 +1812,7 @@
         <v>52010212</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>384.992</v>
@@ -1805,9 +1823,7 @@
       <c r="F13" s="2">
         <v>201112</v>
       </c>
-      <c r="G13" s="4">
-        <v>4331160</v>
-      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4">
         <v>4331160</v>
       </c>
@@ -1818,10 +1834,13 @@
         <v>4331160</v>
       </c>
       <c r="K13" s="4">
+        <v>4331160</v>
+      </c>
+      <c r="L13" s="4">
         <v>-0.00206971533663847</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>201201</v>
       </c>
@@ -1829,7 +1848,7 @@
         <v>52010212</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>384.196</v>
@@ -1840,9 +1859,7 @@
       <c r="F14" s="2">
         <v>201201</v>
       </c>
-      <c r="G14" s="4">
-        <v>4322205</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4">
         <v>4322205</v>
       </c>
@@ -1853,10 +1870,13 @@
         <v>4322205</v>
       </c>
       <c r="K14" s="4">
+        <v>4322205</v>
+      </c>
+      <c r="L14" s="4">
         <v>-2.03282818581163</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>201202</v>
       </c>
@@ -1864,7 +1884,7 @@
         <v>52010212</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
         <v>50.316</v>
@@ -1875,9 +1895,7 @@
       <c r="F15" s="2">
         <v>201202</v>
       </c>
-      <c r="G15" s="4">
-        <v>566055</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4">
         <v>566055</v>
       </c>
@@ -1888,10 +1906,13 @@
         <v>566055</v>
       </c>
       <c r="K15" s="4">
+        <v>566055</v>
+      </c>
+      <c r="L15" s="4">
         <v>1.99653959622475</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>201203</v>
       </c>
@@ -1899,7 +1920,7 @@
         <v>52010212</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <v>370.504</v>
@@ -1910,9 +1931,7 @@
       <c r="F16" s="2">
         <v>201203</v>
       </c>
-      <c r="G16" s="4">
-        <v>4168170</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4">
         <v>4168170</v>
       </c>
@@ -1923,10 +1942,13 @@
         <v>4168170</v>
       </c>
       <c r="K16" s="4">
+        <v>4168170</v>
+      </c>
+      <c r="L16" s="4">
         <v>-0.430349375874661</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>201204</v>
       </c>
@@ -1934,7 +1956,7 @@
         <v>52010212</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2">
         <v>240.932</v>
@@ -1945,9 +1967,7 @@
       <c r="F17" s="2">
         <v>201204</v>
       </c>
-      <c r="G17" s="4">
-        <v>2710485</v>
-      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4">
         <v>2710485</v>
       </c>
@@ -1958,10 +1978,13 @@
         <v>2710485</v>
       </c>
       <c r="K17" s="4">
+        <v>2710485</v>
+      </c>
+      <c r="L17" s="4">
         <v>0.205736535766638</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>201205</v>
       </c>
@@ -1969,7 +1992,7 @@
         <v>52010212</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>295.968</v>
@@ -1980,9 +2003,7 @@
       <c r="F18" s="2">
         <v>201205</v>
       </c>
-      <c r="G18" s="4">
-        <v>3329640</v>
-      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="4">
         <v>3329640</v>
       </c>
@@ -1993,10 +2014,13 @@
         <v>3329640</v>
       </c>
       <c r="K18" s="4">
+        <v>3329640</v>
+      </c>
+      <c r="L18" s="4">
         <v>0.71115479358062</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>201206</v>
       </c>
@@ -2004,7 +2028,7 @@
         <v>52010212</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
         <v>602.692</v>
@@ -2015,9 +2039,7 @@
       <c r="F19" s="2">
         <v>201206</v>
       </c>
-      <c r="G19" s="4">
-        <v>6780285</v>
-      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="4">
         <v>6780285</v>
       </c>
@@ -2028,10 +2050,13 @@
         <v>6780285</v>
       </c>
       <c r="K19" s="4">
+        <v>6780285</v>
+      </c>
+      <c r="L19" s="4">
         <v>-0.845845240790476</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>201207</v>
       </c>
@@ -2039,7 +2064,7 @@
         <v>52010212</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
         <v>258.672</v>
@@ -2050,9 +2075,7 @@
       <c r="F20" s="2">
         <v>201207</v>
       </c>
-      <c r="G20" s="4">
-        <v>2910060</v>
-      </c>
+      <c r="G20" s="4"/>
       <c r="H20" s="4">
         <v>2910060</v>
       </c>
@@ -2063,10 +2086,13 @@
         <v>2910060</v>
       </c>
       <c r="K20" s="4">
+        <v>2910060</v>
+      </c>
+      <c r="L20" s="4">
         <v>0.833806758786796</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>201208</v>
       </c>
@@ -2074,7 +2100,7 @@
         <v>52010212</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
         <v>595.48</v>
@@ -2085,9 +2111,7 @@
       <c r="F21" s="2">
         <v>201208</v>
       </c>
-      <c r="G21" s="4">
-        <v>6699150</v>
-      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4">
         <v>6699150</v>
       </c>
@@ -2098,10 +2122,13 @@
         <v>6699150</v>
       </c>
       <c r="K21" s="4">
+        <v>6699150</v>
+      </c>
+      <c r="L21" s="4">
         <v>0.0800251277942419</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>201209</v>
       </c>
@@ -2109,7 +2136,7 @@
         <v>52010212</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
         <v>645.092</v>
@@ -2120,9 +2147,7 @@
       <c r="F22" s="2">
         <v>201209</v>
       </c>
-      <c r="G22" s="4">
-        <v>7257285</v>
-      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="4">
         <v>7257285</v>
       </c>
@@ -2133,10 +2158,13 @@
         <v>7257285</v>
       </c>
       <c r="K22" s="4">
+        <v>7257285</v>
+      </c>
+      <c r="L22" s="4">
         <v>0.0149307924175712</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>201210</v>
       </c>
@@ -2144,7 +2172,7 @@
         <v>52010212</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2">
         <v>654.796</v>
@@ -2155,9 +2183,7 @@
       <c r="F23" s="2">
         <v>201210</v>
       </c>
-      <c r="G23" s="4">
-        <v>7366455</v>
-      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="4">
         <v>7366455</v>
       </c>
@@ -2168,10 +2194,13 @@
         <v>7366455</v>
       </c>
       <c r="K23" s="4">
+        <v>7366455</v>
+      </c>
+      <c r="L23" s="4">
         <v>0.0731532293840456</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>201211</v>
       </c>
@@ -2179,7 +2208,7 @@
         <v>52010212</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2">
         <v>704.492</v>
@@ -2190,9 +2219,7 @@
       <c r="F24" s="2">
         <v>201211</v>
       </c>
-      <c r="G24" s="4">
-        <v>7925535</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="4">
         <v>7925535</v>
       </c>
@@ -2203,10 +2230,13 @@
         <v>7925535</v>
       </c>
       <c r="K24" s="4">
+        <v>7925535</v>
+      </c>
+      <c r="L24" s="4">
         <v>-1.3496749405317</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>201212</v>
       </c>
@@ -2214,7 +2244,7 @@
         <v>52010212</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2">
         <v>182.692</v>
@@ -2225,9 +2255,7 @@
       <c r="F25" s="2">
         <v>201212</v>
       </c>
-      <c r="G25" s="4">
-        <v>2055285</v>
-      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="4">
         <v>2055285</v>
       </c>
@@ -2238,10 +2266,13 @@
         <v>2055285</v>
       </c>
       <c r="K25" s="4">
+        <v>2055285</v>
+      </c>
+      <c r="L25" s="4">
         <v>1.21556831548329</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>201301</v>
       </c>
@@ -2249,7 +2280,7 @@
         <v>52010212</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2">
         <v>616.076</v>
@@ -2260,9 +2291,7 @@
       <c r="F26" s="2">
         <v>201301</v>
       </c>
-      <c r="G26" s="4">
-        <v>6930855</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="4">
         <v>6930855</v>
       </c>
@@ -2273,10 +2302,13 @@
         <v>6930855</v>
       </c>
       <c r="K26" s="4">
+        <v>6930855</v>
+      </c>
+      <c r="L26" s="4">
         <v>-1.2117658651959</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="2">
         <v>201302</v>
       </c>
@@ -2284,7 +2316,7 @@
         <v>52010212</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2">
         <v>183.388</v>
@@ -2295,9 +2327,7 @@
       <c r="F27" s="2">
         <v>201302</v>
       </c>
-      <c r="G27" s="4">
-        <v>2063115</v>
-      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="4">
         <v>2063115</v>
       </c>
@@ -2308,10 +2338,13 @@
         <v>2063115</v>
       </c>
       <c r="K27" s="4">
+        <v>2063115</v>
+      </c>
+      <c r="L27" s="4">
         <v>0.715790874494052</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>201303</v>
       </c>
@@ -2319,7 +2352,7 @@
         <v>52010212</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2">
         <v>375.176</v>
@@ -2330,9 +2363,7 @@
       <c r="F28" s="2">
         <v>201303</v>
       </c>
-      <c r="G28" s="4">
-        <v>4220730</v>
-      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="4">
         <v>4220730</v>
       </c>
@@ -2343,10 +2374,13 @@
         <v>4220730</v>
       </c>
       <c r="K28" s="4">
+        <v>4220730</v>
+      </c>
+      <c r="L28" s="4">
         <v>0.502898163961261</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" s="2">
         <v>201304</v>
       </c>
@@ -2354,7 +2388,7 @@
         <v>52010212</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2">
         <v>620.356</v>
@@ -2365,9 +2399,7 @@
       <c r="F29" s="2">
         <v>201304</v>
       </c>
-      <c r="G29" s="4">
-        <v>6979005</v>
-      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="4">
         <v>6979005</v>
       </c>
@@ -2378,10 +2410,13 @@
         <v>6979005</v>
       </c>
       <c r="K29" s="4">
+        <v>6979005</v>
+      </c>
+      <c r="L29" s="4">
         <v>-0.251685671612814</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" s="2">
         <v>201305</v>
       </c>
@@ -2389,7 +2424,7 @@
         <v>52010212</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2">
         <v>482.32</v>
@@ -2400,9 +2435,7 @@
       <c r="F30" s="2">
         <v>201305</v>
       </c>
-      <c r="G30" s="4">
-        <v>5426100</v>
-      </c>
+      <c r="G30" s="4"/>
       <c r="H30" s="4">
         <v>5426100</v>
       </c>
@@ -2413,10 +2446,13 @@
         <v>5426100</v>
       </c>
       <c r="K30" s="4">
+        <v>5426100</v>
+      </c>
+      <c r="L30" s="4">
         <v>0.110595566915988</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" s="2">
         <v>201306</v>
       </c>
@@ -2424,7 +2460,7 @@
         <v>52010212</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2">
         <v>538.724</v>
@@ -2435,9 +2471,7 @@
       <c r="F31" s="2">
         <v>201306</v>
       </c>
-      <c r="G31" s="4">
-        <v>6060645</v>
-      </c>
+      <c r="G31" s="4"/>
       <c r="H31" s="4">
         <v>6060645</v>
       </c>
@@ -2448,10 +2482,13 @@
         <v>6060645</v>
       </c>
       <c r="K31" s="4">
+        <v>6060645</v>
+      </c>
+      <c r="L31" s="4">
         <v>-0.0603373999616448</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>201307</v>
       </c>
@@ -2459,7 +2496,7 @@
         <v>52010212</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2">
         <v>507.18</v>
@@ -2470,9 +2507,7 @@
       <c r="F32" s="2">
         <v>201307</v>
       </c>
-      <c r="G32" s="4">
-        <v>5705775</v>
-      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="4">
         <v>5705775</v>
       </c>
@@ -2483,10 +2518,13 @@
         <v>5705775</v>
       </c>
       <c r="K32" s="4">
+        <v>5705775</v>
+      </c>
+      <c r="L32" s="4">
         <v>-0.0875341737877626</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12">
       <c r="A33" s="2">
         <v>201308</v>
       </c>
@@ -2494,7 +2532,7 @@
         <v>52010212</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2">
         <v>464.672</v>
@@ -2505,9 +2543,7 @@
       <c r="F33" s="2">
         <v>201308</v>
       </c>
-      <c r="G33" s="4">
-        <v>5227560</v>
-      </c>
+      <c r="G33" s="4"/>
       <c r="H33" s="4">
         <v>5227560</v>
       </c>
@@ -2518,10 +2554,13 @@
         <v>5227560</v>
       </c>
       <c r="K33" s="4">
+        <v>5227560</v>
+      </c>
+      <c r="L33" s="4">
         <v>0.333589194964983</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34" s="2">
         <v>201309</v>
       </c>
@@ -2529,7 +2568,7 @@
         <v>52010212</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2">
         <v>648.668</v>
@@ -2540,9 +2579,7 @@
       <c r="F34" s="2">
         <v>201309</v>
       </c>
-      <c r="G34" s="4">
-        <v>7297515</v>
-      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="4">
         <v>7297515</v>
       </c>
@@ -2553,10 +2590,13 @@
         <v>7297515</v>
       </c>
       <c r="K34" s="4">
+        <v>7297515</v>
+      </c>
+      <c r="L34" s="4">
         <v>0.173892499502914</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35" s="2">
         <v>201310</v>
       </c>
@@ -2564,7 +2604,7 @@
         <v>52010212</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2">
         <v>771.868</v>
@@ -2575,9 +2615,7 @@
       <c r="F35" s="2">
         <v>201310</v>
       </c>
-      <c r="G35" s="4">
-        <v>8683515</v>
-      </c>
+      <c r="G35" s="4"/>
       <c r="H35" s="4">
         <v>8683515</v>
       </c>
@@ -2588,10 +2626,13 @@
         <v>8683515</v>
       </c>
       <c r="K35" s="4">
+        <v>8683515</v>
+      </c>
+      <c r="L35" s="4">
         <v>0.161364162529091</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="A36" s="2">
         <v>201311</v>
       </c>
@@ -2599,7 +2640,7 @@
         <v>52010212</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2">
         <v>907.032</v>
@@ -2610,9 +2651,7 @@
       <c r="F36" s="2">
         <v>201311</v>
       </c>
-      <c r="G36" s="4">
-        <v>10204110</v>
-      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="4">
         <v>10204110</v>
       </c>
@@ -2623,10 +2662,13 @@
         <v>10204110</v>
       </c>
       <c r="K36" s="4">
+        <v>10204110</v>
+      </c>
+      <c r="L36" s="4">
         <v>-0.929923962504821</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37" s="2">
         <v>201312</v>
       </c>
@@ -2634,7 +2676,7 @@
         <v>52010212</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2">
         <v>0.088</v>
@@ -2645,9 +2687,7 @@
       <c r="F37" s="2">
         <v>201312</v>
       </c>
-      <c r="G37" s="4">
-        <v>990</v>
-      </c>
+      <c r="G37" s="4"/>
       <c r="H37" s="4">
         <v>990</v>
       </c>
@@ -2658,10 +2698,13 @@
         <v>990</v>
       </c>
       <c r="K37" s="4">
+        <v>990</v>
+      </c>
+      <c r="L37" s="4">
         <v>0.418732308144381</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>201401</v>
       </c>
@@ -2669,7 +2712,7 @@
         <v>52010212</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" s="2">
         <v>544.02</v>
@@ -2680,9 +2723,7 @@
       <c r="F38" s="2">
         <v>201401</v>
       </c>
-      <c r="G38" s="4">
-        <v>6120225</v>
-      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="4">
         <v>6120225</v>
       </c>
@@ -2693,10 +2734,13 @@
         <v>6120225</v>
       </c>
       <c r="K38" s="4">
+        <v>6120225</v>
+      </c>
+      <c r="L38" s="4">
         <v>0.100952430984929</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39" s="2">
         <v>201402</v>
       </c>
@@ -2704,7 +2748,7 @@
         <v>52010212</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2">
         <v>601.808</v>
@@ -2715,9 +2759,7 @@
       <c r="F39" s="2">
         <v>201402</v>
       </c>
-      <c r="G39" s="4">
-        <v>6770340</v>
-      </c>
+      <c r="G39" s="4"/>
       <c r="H39" s="4">
         <v>6770340</v>
       </c>
@@ -2728,10 +2770,13 @@
         <v>6770340</v>
       </c>
       <c r="K39" s="4">
+        <v>6770340</v>
+      </c>
+      <c r="L39" s="4">
         <v>-0.713464768260589</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40" s="2">
         <v>201403</v>
       </c>
@@ -2739,7 +2784,7 @@
         <v>52010212</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" s="2">
         <v>294.852</v>
@@ -2750,9 +2795,7 @@
       <c r="F40" s="2">
         <v>201403</v>
       </c>
-      <c r="G40" s="4">
-        <v>3317085</v>
-      </c>
+      <c r="G40" s="4"/>
       <c r="H40" s="4">
         <v>3317085</v>
       </c>
@@ -2763,10 +2806,13 @@
         <v>3317085</v>
       </c>
       <c r="K40" s="4">
+        <v>3317085</v>
+      </c>
+      <c r="L40" s="4">
         <v>0.78430722835709</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41" s="2">
         <v>201404</v>
       </c>
@@ -2774,7 +2820,7 @@
         <v>52010212</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="2">
         <v>645.988</v>
@@ -2785,9 +2831,7 @@
       <c r="F41" s="2">
         <v>201404</v>
       </c>
-      <c r="G41" s="4">
-        <v>7267365</v>
-      </c>
+      <c r="G41" s="4"/>
       <c r="H41" s="4">
         <v>7267365</v>
       </c>
@@ -2798,10 +2842,13 @@
         <v>7267365</v>
       </c>
       <c r="K41" s="4">
+        <v>7267365</v>
+      </c>
+      <c r="L41" s="4">
         <v>-0.364881104325406</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42" s="2">
         <v>201405</v>
       </c>
@@ -2809,7 +2856,7 @@
         <v>52010212</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2">
         <v>448.496</v>
@@ -2820,9 +2867,7 @@
       <c r="F42" s="2">
         <v>201405</v>
       </c>
-      <c r="G42" s="4">
-        <v>5045580</v>
-      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="4">
         <v>5045580</v>
       </c>
@@ -2833,10 +2878,13 @@
         <v>5045580</v>
       </c>
       <c r="K42" s="4">
+        <v>5045580</v>
+      </c>
+      <c r="L42" s="4">
         <v>-0.0627824731086033</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43" s="2">
         <v>201406</v>
       </c>
@@ -2844,7 +2892,7 @@
         <v>52010212</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" s="2">
         <v>421.204</v>
@@ -2855,9 +2903,7 @@
       <c r="F43" s="2">
         <v>201406</v>
       </c>
-      <c r="G43" s="4">
-        <v>4738545</v>
-      </c>
+      <c r="G43" s="4"/>
       <c r="H43" s="4">
         <v>4738545</v>
       </c>
@@ -2868,10 +2914,13 @@
         <v>4738545</v>
       </c>
       <c r="K43" s="4">
+        <v>4738545</v>
+      </c>
+      <c r="L43" s="4">
         <v>0.557367909121954</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44" s="2">
         <v>201407</v>
       </c>
@@ -2879,7 +2928,7 @@
         <v>52010212</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" s="2">
         <v>735.452</v>
@@ -2890,9 +2939,7 @@
       <c r="F44" s="2">
         <v>201407</v>
       </c>
-      <c r="G44" s="4">
-        <v>8273835</v>
-      </c>
+      <c r="G44" s="4"/>
       <c r="H44" s="4">
         <v>8273835</v>
       </c>
@@ -2903,10 +2950,13 @@
         <v>8273835</v>
       </c>
       <c r="K44" s="4">
+        <v>8273835</v>
+      </c>
+      <c r="L44" s="4">
         <v>-0.228893910897188</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="A45" s="2">
         <v>201408</v>
       </c>
@@ -2914,7 +2964,7 @@
         <v>52010212</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2">
         <v>584.988</v>
@@ -2925,9 +2975,7 @@
       <c r="F45" s="2">
         <v>201408</v>
       </c>
-      <c r="G45" s="4">
-        <v>6581115</v>
-      </c>
+      <c r="G45" s="4"/>
       <c r="H45" s="4">
         <v>6581115</v>
       </c>
@@ -2938,10 +2986,13 @@
         <v>6581115</v>
       </c>
       <c r="K45" s="4">
+        <v>6581115</v>
+      </c>
+      <c r="L45" s="4">
         <v>-0.263811448840565</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46" s="2">
         <v>201409</v>
       </c>
@@ -2949,7 +3000,7 @@
         <v>52010212</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" s="2">
         <v>449.34</v>
@@ -2960,9 +3011,7 @@
       <c r="F46" s="2">
         <v>201409</v>
       </c>
-      <c r="G46" s="4">
-        <v>5055075</v>
-      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="4">
         <v>5055075</v>
       </c>
@@ -2973,10 +3022,13 @@
         <v>5055075</v>
       </c>
       <c r="K46" s="4">
+        <v>5055075</v>
+      </c>
+      <c r="L46" s="4">
         <v>0.176010947137517</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47" s="2">
         <v>201410</v>
       </c>
@@ -2984,7 +3036,7 @@
         <v>52010212</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" s="2">
         <v>535.816</v>
@@ -2995,9 +3047,7 @@
       <c r="F47" s="2">
         <v>201410</v>
       </c>
-      <c r="G47" s="4">
-        <v>6027930</v>
-      </c>
+      <c r="G47" s="4"/>
       <c r="H47" s="4">
         <v>6027930</v>
       </c>
@@ -3008,10 +3058,13 @@
         <v>6027930</v>
       </c>
       <c r="K47" s="4">
+        <v>6027930</v>
+      </c>
+      <c r="L47" s="4">
         <v>-0.890945157700051</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48" s="2">
         <v>201411</v>
       </c>
@@ -3019,7 +3072,7 @@
         <v>52010212</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2">
         <v>219.828</v>
@@ -3030,9 +3083,7 @@
       <c r="F48" s="2">
         <v>201411</v>
       </c>
-      <c r="G48" s="4">
-        <v>2473065</v>
-      </c>
+      <c r="G48" s="4"/>
       <c r="H48" s="4">
         <v>2473065</v>
       </c>
@@ -3043,10 +3094,13 @@
         <v>2473065</v>
       </c>
       <c r="K48" s="4">
+        <v>2473065</v>
+      </c>
+      <c r="L48" s="4">
         <v>-0.455583777632374</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49" s="2">
         <v>201412</v>
       </c>
@@ -3054,7 +3108,7 @@
         <v>52010212</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" s="2">
         <v>139.388</v>
@@ -3065,9 +3119,7 @@
       <c r="F49" s="2">
         <v>201412</v>
       </c>
-      <c r="G49" s="4">
-        <v>1568115</v>
-      </c>
+      <c r="G49" s="4"/>
       <c r="H49" s="4">
         <v>1568115</v>
       </c>
@@ -3078,10 +3130,13 @@
         <v>1568115</v>
       </c>
       <c r="K49" s="4">
+        <v>1568115</v>
+      </c>
+      <c r="L49" s="4">
         <v>1.83017323403092</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:12">
       <c r="A50" s="2">
         <v>201501</v>
       </c>
@@ -3089,7 +3144,7 @@
         <v>52010212</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" s="2">
         <v>869.08</v>
@@ -3100,9 +3155,7 @@
       <c r="F50" s="2">
         <v>201501</v>
       </c>
-      <c r="G50" s="4">
-        <v>9777150</v>
-      </c>
+      <c r="G50" s="4"/>
       <c r="H50" s="4">
         <v>9777150</v>
       </c>
@@ -3113,10 +3166,13 @@
         <v>9777150</v>
       </c>
       <c r="K50" s="4">
+        <v>9777150</v>
+      </c>
+      <c r="L50" s="4">
         <v>0.127076779157843</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:12">
       <c r="A51" s="2">
         <v>201502</v>
       </c>
@@ -3124,7 +3180,7 @@
         <v>52010212</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" s="2">
         <v>986.844</v>
@@ -3135,9 +3191,7 @@
       <c r="F51" s="2">
         <v>201502</v>
       </c>
-      <c r="G51" s="4">
-        <v>11101995</v>
-      </c>
+      <c r="G51" s="4"/>
       <c r="H51" s="4">
         <v>11101995</v>
       </c>
@@ -3148,10 +3202,13 @@
         <v>11101995</v>
       </c>
       <c r="K51" s="4">
+        <v>11101995</v>
+      </c>
+      <c r="L51" s="4">
         <v>-0.49751559450522</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:12">
       <c r="A52" s="2">
         <v>201503</v>
       </c>
@@ -3159,7 +3216,7 @@
         <v>52010212</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2">
         <v>600.04</v>
@@ -3170,9 +3227,7 @@
       <c r="F52" s="2">
         <v>201503</v>
       </c>
-      <c r="G52" s="4">
-        <v>6750450</v>
-      </c>
+      <c r="G52" s="4"/>
       <c r="H52" s="4">
         <v>6750450</v>
       </c>
@@ -3183,10 +3238,13 @@
         <v>6750450</v>
       </c>
       <c r="K52" s="4">
+        <v>6750450</v>
+      </c>
+      <c r="L52" s="4">
         <v>-0.763721980091644</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:12">
       <c r="A53" s="2">
         <v>201504</v>
       </c>
@@ -3194,7 +3252,7 @@
         <v>52010212</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2">
         <v>279.576</v>
@@ -3205,9 +3263,7 @@
       <c r="F53" s="2">
         <v>201504</v>
       </c>
-      <c r="G53" s="4">
-        <v>3145230</v>
-      </c>
+      <c r="G53" s="4"/>
       <c r="H53" s="4">
         <v>3145230</v>
       </c>
@@ -3218,10 +3274,13 @@
         <v>3145230</v>
       </c>
       <c r="K53" s="4">
+        <v>3145230</v>
+      </c>
+      <c r="L53" s="4">
         <v>0.532489207741222</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:12">
       <c r="A54" s="2">
         <v>201505</v>
       </c>
@@ -3229,7 +3288,7 @@
         <v>52010212</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" s="2">
         <v>450.096</v>
@@ -3240,9 +3299,7 @@
       <c r="F54" s="2">
         <v>201505</v>
       </c>
-      <c r="G54" s="4">
-        <v>5356851.3</v>
-      </c>
+      <c r="G54" s="4"/>
       <c r="H54" s="4">
         <v>5356851.3</v>
       </c>
@@ -3253,10 +3310,13 @@
         <v>5356851.3</v>
       </c>
       <c r="K54" s="4">
+        <v>5356851.3</v>
+      </c>
+      <c r="L54" s="4">
         <v>0.600423328980648</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:12">
       <c r="A55" s="2">
         <v>201506</v>
       </c>
@@ -3264,7 +3324,7 @@
         <v>52010212</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2">
         <v>818.864</v>
@@ -3275,9 +3335,7 @@
       <c r="F55" s="2">
         <v>201506</v>
       </c>
-      <c r="G55" s="4">
-        <v>9764953.2</v>
-      </c>
+      <c r="G55" s="4"/>
       <c r="H55" s="4">
         <v>9764953.2</v>
       </c>
@@ -3288,10 +3346,13 @@
         <v>9764953.2</v>
       </c>
       <c r="K55" s="4">
+        <v>9764953.2</v>
+      </c>
+      <c r="L55" s="4">
         <v>-0.255042872648984</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:12">
       <c r="A56" s="2">
         <v>201507</v>
       </c>
@@ -3299,7 +3360,7 @@
         <v>52010212</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D56" s="2">
         <v>634.524</v>
@@ -3310,9 +3371,7 @@
       <c r="F56" s="2">
         <v>201507</v>
       </c>
-      <c r="G56" s="4">
-        <v>7566698.7</v>
-      </c>
+      <c r="G56" s="4"/>
       <c r="H56" s="4">
         <v>7566698.7</v>
       </c>
@@ -3323,10 +3382,13 @@
         <v>7566698.7</v>
       </c>
       <c r="K56" s="4">
+        <v>7566698.7</v>
+      </c>
+      <c r="L56" s="4">
         <v>-0.082700182196719</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:12">
       <c r="A57" s="2">
         <v>201508</v>
       </c>
@@ -3334,7 +3396,7 @@
         <v>52010212</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57" s="2">
         <v>584.16</v>
@@ -3345,9 +3407,7 @@
       <c r="F57" s="2">
         <v>201508</v>
       </c>
-      <c r="G57" s="4">
-        <v>6966108</v>
-      </c>
+      <c r="G57" s="4"/>
       <c r="H57" s="4">
         <v>6966108</v>
       </c>
@@ -3358,10 +3418,13 @@
         <v>6966108</v>
       </c>
       <c r="K57" s="4">
+        <v>6966108</v>
+      </c>
+      <c r="L57" s="4">
         <v>0.104431557351475</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:12">
       <c r="A58" s="2">
         <v>201509</v>
       </c>
@@ -3369,7 +3432,7 @@
         <v>52010212</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" s="2">
         <v>648.464</v>
@@ -3380,9 +3443,7 @@
       <c r="F58" s="2">
         <v>201509</v>
       </c>
-      <c r="G58" s="4">
-        <v>7732933.2</v>
-      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="4">
         <v>7732933.2</v>
       </c>
@@ -3393,10 +3454,13 @@
         <v>7732933.2</v>
       </c>
       <c r="K58" s="4">
+        <v>7732933.2</v>
+      </c>
+      <c r="L58" s="4">
         <v>-0.256580201787738</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:12">
       <c r="A59" s="2">
         <v>201510</v>
       </c>
@@ -3404,7 +3468,7 @@
         <v>52010212</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59" s="2">
         <v>501.712</v>
@@ -3415,9 +3479,7 @@
       <c r="F59" s="2">
         <v>201510</v>
       </c>
-      <c r="G59" s="4">
-        <v>5982915.6</v>
-      </c>
+      <c r="G59" s="4"/>
       <c r="H59" s="4">
         <v>5982915.6</v>
       </c>
@@ -3428,10 +3490,13 @@
         <v>5982915.6</v>
       </c>
       <c r="K59" s="4">
+        <v>5982915.6</v>
+      </c>
+      <c r="L59" s="4">
         <v>-0.0900659424315471</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:12">
       <c r="A60" s="2">
         <v>201511</v>
       </c>
@@ -3439,7 +3504,7 @@
         <v>52010212</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" s="2">
         <v>458.5</v>
@@ -3450,9 +3515,7 @@
       <c r="F60" s="2">
         <v>201511</v>
       </c>
-      <c r="G60" s="4">
-        <v>5467612.5</v>
-      </c>
+      <c r="G60" s="4"/>
       <c r="H60" s="4">
         <v>5467612.5</v>
       </c>
@@ -3463,10 +3526,13 @@
         <v>5467612.5</v>
       </c>
       <c r="K60" s="4">
+        <v>5467612.5</v>
+      </c>
+      <c r="L60" s="4">
         <v>0.228869293130217</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:12">
       <c r="A61" s="2">
         <v>201512</v>
       </c>
@@ -3474,7 +3540,7 @@
         <v>52010212</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" s="2">
         <v>576.416</v>
@@ -3485,9 +3551,7 @@
       <c r="F61" s="2">
         <v>201512</v>
       </c>
-      <c r="G61" s="4">
-        <v>6873760.8</v>
-      </c>
+      <c r="G61" s="4"/>
       <c r="H61" s="4">
         <v>6873760.8</v>
       </c>
@@ -3498,10 +3562,13 @@
         <v>6873760.8</v>
       </c>
       <c r="K61" s="4">
+        <v>6873760.8</v>
+      </c>
+      <c r="L61" s="4">
         <v>0.276851867826018</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:12">
       <c r="A62" s="2">
         <v>201601</v>
       </c>
@@ -3509,7 +3576,7 @@
         <v>52010212</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2">
         <v>760.276</v>
@@ -3520,9 +3587,7 @@
       <c r="F62" s="2">
         <v>201601</v>
       </c>
-      <c r="G62" s="4">
-        <v>9066291.3</v>
-      </c>
+      <c r="G62" s="4"/>
       <c r="H62" s="4">
         <v>9066291.3</v>
       </c>
@@ -3533,10 +3598,13 @@
         <v>9066291.3</v>
       </c>
       <c r="K62" s="4">
+        <v>9066291.3</v>
+      </c>
+      <c r="L62" s="4">
         <v>-0.938078911161494</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:12">
       <c r="A63" s="2">
         <v>201602</v>
       </c>
@@ -3544,7 +3612,7 @@
         <v>52010212</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2">
         <v>297.556</v>
@@ -3555,9 +3623,7 @@
       <c r="F63" s="2">
         <v>201602</v>
       </c>
-      <c r="G63" s="4">
-        <v>3548355.3</v>
-      </c>
+      <c r="G63" s="4"/>
       <c r="H63" s="4">
         <v>3548355.3</v>
       </c>
@@ -3568,10 +3634,13 @@
         <v>3548355.3</v>
       </c>
       <c r="K63" s="4">
+        <v>3548355.3</v>
+      </c>
+      <c r="L63" s="4">
         <v>0.379945777829898</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:12">
       <c r="A64" s="2">
         <v>201603</v>
       </c>
@@ -3579,7 +3648,7 @@
         <v>52010212</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64" s="2">
         <v>435.088</v>
@@ -3590,9 +3659,7 @@
       <c r="F64" s="2">
         <v>201603</v>
       </c>
-      <c r="G64" s="4">
-        <v>5188424.4</v>
-      </c>
+      <c r="G64" s="4"/>
       <c r="H64" s="4">
         <v>5188424.4</v>
       </c>
@@ -3603,10 +3670,13 @@
         <v>5188424.4</v>
       </c>
       <c r="K64" s="4">
+        <v>5188424.4</v>
+      </c>
+      <c r="L64" s="4">
         <v>0.217893112531247</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:12">
       <c r="A65" s="2">
         <v>201604</v>
       </c>
@@ -3614,7 +3684,7 @@
         <v>52010212</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" s="2">
         <v>541.012</v>
@@ -3625,9 +3695,7 @@
       <c r="F65" s="2">
         <v>201604</v>
       </c>
-      <c r="G65" s="4">
-        <v>6451568.1</v>
-      </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="4">
         <v>6451568.1</v>
       </c>
@@ -3638,10 +3706,13 @@
         <v>6451568.1</v>
       </c>
       <c r="K65" s="4">
+        <v>6451568.1</v>
+      </c>
+      <c r="L65" s="4">
         <v>0.179782322112953</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:12">
       <c r="A66" s="2">
         <v>201605</v>
       </c>
@@ -3649,7 +3720,7 @@
         <v>52010212</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" s="2">
         <v>647.568</v>
@@ -3660,9 +3731,7 @@
       <c r="F66" s="2">
         <v>201605</v>
       </c>
-      <c r="G66" s="4">
-        <v>7722248.4</v>
-      </c>
+      <c r="G66" s="4"/>
       <c r="H66" s="4">
         <v>7722248.4</v>
       </c>
@@ -3673,10 +3742,13 @@
         <v>7722248.4</v>
       </c>
       <c r="K66" s="4">
+        <v>7722248.4</v>
+      </c>
+      <c r="L66" s="4">
         <v>0.0131564679928129</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:12">
       <c r="A67" s="2">
         <v>201606</v>
       </c>
@@ -3684,7 +3756,7 @@
         <v>52010212</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67" s="2">
         <v>656.144</v>
@@ -3695,9 +3767,7 @@
       <c r="F67" s="2">
         <v>201606</v>
       </c>
-      <c r="G67" s="4">
-        <v>7824517.2</v>
-      </c>
+      <c r="G67" s="4"/>
       <c r="H67" s="4">
         <v>7824517.2</v>
       </c>
@@ -3708,10 +3778,13 @@
         <v>7824517.2</v>
       </c>
       <c r="K67" s="4">
+        <v>7824517.2</v>
+      </c>
+      <c r="L67" s="4">
         <v>-0.0356634351306724</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:12">
       <c r="A68" s="2">
         <v>201607</v>
       </c>
@@ -3719,7 +3792,7 @@
         <v>52010212</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D68" s="2">
         <v>633.156</v>
@@ -3730,9 +3803,7 @@
       <c r="F68" s="2">
         <v>201607</v>
       </c>
-      <c r="G68" s="4">
-        <v>7550385.3</v>
-      </c>
+      <c r="G68" s="4"/>
       <c r="H68" s="4">
         <v>7550385.3</v>
       </c>
@@ -3743,10 +3814,13 @@
         <v>7550385.3</v>
       </c>
       <c r="K68" s="4">
+        <v>7550385.3</v>
+      </c>
+      <c r="L68" s="4">
         <v>0.131579716587909</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:12">
       <c r="A69" s="2">
         <v>201608</v>
       </c>
@@ -3754,7 +3828,7 @@
         <v>52010212</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69" s="2">
         <v>722.196</v>
@@ -3765,9 +3839,7 @@
       <c r="F69" s="2">
         <v>201608</v>
       </c>
-      <c r="G69" s="4">
-        <v>8612187.3</v>
-      </c>
+      <c r="G69" s="4"/>
       <c r="H69" s="4">
         <v>8612187.3</v>
       </c>
@@ -3778,10 +3850,13 @@
         <v>8612187.3</v>
       </c>
       <c r="K69" s="4">
+        <v>8612187.3</v>
+      </c>
+      <c r="L69" s="4">
         <v>0.105988391161114</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:12">
       <c r="A70" s="2">
         <v>201609</v>
       </c>
@@ -3789,7 +3864,7 @@
         <v>52010212</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D70" s="2">
         <v>802.944</v>
@@ -3800,9 +3875,7 @@
       <c r="F70" s="2">
         <v>201609</v>
       </c>
-      <c r="G70" s="4">
-        <v>9575107.2</v>
-      </c>
+      <c r="G70" s="4"/>
       <c r="H70" s="4">
         <v>9575107.2</v>
       </c>
@@ -3813,10 +3886,13 @@
         <v>9575107.2</v>
       </c>
       <c r="K70" s="4">
+        <v>9575107.2</v>
+      </c>
+      <c r="L70" s="4">
         <v>-0.321532738448802</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:12">
       <c r="A71" s="2">
         <v>201610</v>
       </c>
@@ -3824,7 +3900,7 @@
         <v>52010212</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71" s="2">
         <v>582.164</v>
@@ -3835,9 +3911,7 @@
       <c r="F71" s="2">
         <v>201610</v>
       </c>
-      <c r="G71" s="4">
-        <v>6942305.7</v>
-      </c>
+      <c r="G71" s="4"/>
       <c r="H71" s="4">
         <v>6942305.7</v>
       </c>
@@ -3848,10 +3922,13 @@
         <v>6942305.7</v>
       </c>
       <c r="K71" s="4">
+        <v>6942305.7</v>
+      </c>
+      <c r="L71" s="4">
         <v>0.0969073153151214</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:12">
       <c r="A72" s="2">
         <v>201611</v>
       </c>
@@ -3859,7 +3936,7 @@
         <v>52010212</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2">
         <v>641.404</v>
@@ -3870,9 +3947,7 @@
       <c r="F72" s="2">
         <v>201611</v>
       </c>
-      <c r="G72" s="4">
-        <v>7648742.7</v>
-      </c>
+      <c r="G72" s="4"/>
       <c r="H72" s="4">
         <v>7648742.7</v>
       </c>
@@ -3883,10 +3958,13 @@
         <v>7648742.7</v>
       </c>
       <c r="K72" s="4">
+        <v>7648742.7</v>
+      </c>
+      <c r="L72" s="4">
         <v>-0.0547947025587803</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:12">
       <c r="A73" s="2">
         <v>201612</v>
       </c>
@@ -3894,7 +3972,7 @@
         <v>52010212</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73" s="2">
         <v>607.204</v>
@@ -3905,9 +3983,7 @@
       <c r="F73" s="2">
         <v>201612</v>
       </c>
-      <c r="G73" s="4">
-        <v>7240907.7</v>
-      </c>
+      <c r="G73" s="4"/>
       <c r="H73" s="4">
         <v>7240907.7</v>
       </c>
@@ -3918,10 +3994,13 @@
         <v>7240907.7</v>
       </c>
       <c r="K73" s="4">
+        <v>7240907.7</v>
+      </c>
+      <c r="L73" s="4">
         <v>0.341440977241003</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:12">
       <c r="A74" s="2">
         <v>201701</v>
       </c>
@@ -3929,7 +4008,7 @@
         <v>52010212</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2">
         <v>854.32</v>
@@ -3940,9 +4019,7 @@
       <c r="F74" s="2">
         <v>201701</v>
       </c>
-      <c r="G74" s="4">
-        <v>10187766</v>
-      </c>
+      <c r="G74" s="4"/>
       <c r="H74" s="4">
         <v>10187766</v>
       </c>
@@ -3953,10 +4030,13 @@
         <v>10187766</v>
       </c>
       <c r="K74" s="4">
+        <v>10187766</v>
+      </c>
+      <c r="L74" s="4">
         <v>-0.838144136304846</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:12">
       <c r="A75" s="2">
         <v>201702</v>
       </c>
@@ -3964,7 +4044,7 @@
         <v>52010212</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" s="2">
         <v>369.504</v>
@@ -3975,9 +4055,7 @@
       <c r="F75" s="2">
         <v>201702</v>
       </c>
-      <c r="G75" s="4">
-        <v>4406335.2</v>
-      </c>
+      <c r="G75" s="4"/>
       <c r="H75" s="4">
         <v>4406335.2</v>
       </c>
@@ -3988,10 +4066,13 @@
         <v>4406335.2</v>
       </c>
       <c r="K75" s="4">
+        <v>4406335.2</v>
+      </c>
+      <c r="L75" s="4">
         <v>0.378985190816955</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:12">
       <c r="A76" s="2">
         <v>201703</v>
       </c>
@@ -3999,7 +4080,7 @@
         <v>52010212</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D76" s="2">
         <v>539.772</v>
@@ -4010,9 +4091,7 @@
       <c r="F76" s="2">
         <v>201703</v>
       </c>
-      <c r="G76" s="4">
-        <v>6436781.1</v>
-      </c>
+      <c r="G76" s="4"/>
       <c r="H76" s="4">
         <v>6436781.1</v>
       </c>
@@ -4023,10 +4102,13 @@
         <v>6436781.1</v>
       </c>
       <c r="K76" s="4">
+        <v>6436781.1</v>
+      </c>
+      <c r="L76" s="4">
         <v>0.19516026398105</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:18">
       <c r="A77" s="2">
         <v>201704</v>
       </c>
@@ -4034,7 +4116,7 @@
         <v>52010212</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2">
         <v>656.096</v>
@@ -4045,9 +4127,7 @@
       <c r="F77" s="2">
         <v>201704</v>
       </c>
-      <c r="G77" s="4">
-        <v>7823944.8</v>
-      </c>
+      <c r="G77" s="4"/>
       <c r="H77" s="4">
         <v>7823944.8</v>
       </c>
@@ -4058,28 +4138,31 @@
         <v>7823944.8</v>
       </c>
       <c r="K77" s="4">
+        <v>7823944.8</v>
+      </c>
+      <c r="L77" s="4">
         <v>0.0810233114663834</v>
       </c>
-      <c r="L77" s="4">
+      <c r="M77" s="4">
         <v>0.0856581032276154</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>7823944.8</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>0.078251638</v>
       </c>
-      <c r="O77" s="6">
+      <c r="P77" s="4">
         <v>7823944.8</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>0.085802242</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>7823944.8</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:18">
       <c r="A78" s="2">
         <v>201705</v>
       </c>
@@ -4087,7 +4170,7 @@
         <v>52010212</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D78" s="2">
         <v>711.468</v>
@@ -4098,9 +4181,7 @@
       <c r="F78" s="2">
         <v>201705</v>
       </c>
-      <c r="G78" s="4">
-        <v>8484255.9</v>
-      </c>
+      <c r="G78" s="4"/>
       <c r="H78" s="4">
         <v>8484255.9</v>
       </c>
@@ -4111,28 +4192,31 @@
         <v>8484255.9</v>
       </c>
       <c r="K78" s="4">
+        <v>8484255.9</v>
+      </c>
+      <c r="L78" s="4">
         <v>0.0169525327754414</v>
       </c>
-      <c r="L78" s="4">
+      <c r="M78" s="4">
         <v>0.0209841914474964</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>8523669.931</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>0.018043578</v>
       </c>
-      <c r="O78" s="6">
+      <c r="P78" s="4">
         <v>8460772.86487405</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <v>0.033694766</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>8524898.613</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:18">
       <c r="A79" s="2">
         <v>201706</v>
       </c>
@@ -4140,7 +4224,7 @@
         <v>52010212</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2">
         <v>723.632</v>
@@ -4151,9 +4235,7 @@
       <c r="F79" s="2">
         <v>201706</v>
       </c>
-      <c r="G79" s="4">
-        <v>8629311.6</v>
-      </c>
+      <c r="G79" s="4"/>
       <c r="H79" s="4">
         <v>8629311.6</v>
       </c>
@@ -4164,28 +4246,31 @@
         <v>8629311.6</v>
       </c>
       <c r="K79" s="4">
+        <v>8629311.6</v>
+      </c>
+      <c r="L79" s="4">
         <v>-0.0154413094457872</v>
       </c>
-      <c r="L79" s="4">
+      <c r="M79" s="4">
         <v>-0.0299954153597355</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>8704422.111</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>-0.017674297</v>
       </c>
-      <c r="O79" s="6">
+      <c r="P79" s="4">
         <v>8614821.10652535</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>-0.017508522</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>8817037.247</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:18">
       <c r="A80" s="2">
         <v>201707</v>
       </c>
@@ -4193,7 +4278,7 @@
         <v>52010212</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D80" s="2">
         <v>712.544</v>
@@ -4204,9 +4289,7 @@
       <c r="F80" s="2">
         <v>201707</v>
       </c>
-      <c r="G80" s="4">
-        <v>8497087.2</v>
-      </c>
+      <c r="G80" s="4"/>
       <c r="H80" s="4">
         <v>8497087.2</v>
       </c>
@@ -4217,28 +4300,31 @@
         <v>8497087.2</v>
       </c>
       <c r="K80" s="4">
+        <v>8497087.2</v>
+      </c>
+      <c r="L80" s="4">
         <v>0.273833051502104</v>
       </c>
-      <c r="L80" s="4">
+      <c r="M80" s="4">
         <v>0.18757626414299</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>8447206.257</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>0.277684838</v>
       </c>
-      <c r="O80" s="6">
+      <c r="P80" s="4">
         <v>8463897.84128729</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <v>0.276621759</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>8664007.513</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:18">
       <c r="A81" s="2">
         <v>201708</v>
       </c>
@@ -4246,7 +4332,7 @@
         <v>52010212</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D81" s="2">
         <v>936.992</v>
@@ -4257,9 +4343,7 @@
       <c r="F81" s="2">
         <v>201708</v>
       </c>
-      <c r="G81" s="4">
-        <v>11173629.6</v>
-      </c>
+      <c r="G81" s="4"/>
       <c r="H81" s="4">
         <v>11173629.6</v>
       </c>
@@ -4270,28 +4354,31 @@
         <v>11173629.6</v>
       </c>
       <c r="K81" s="4">
+        <v>11173629.6</v>
+      </c>
+      <c r="L81" s="4">
         <v>0.00546640164640522</v>
       </c>
-      <c r="L81" s="4">
+      <c r="M81" s="4">
         <v>-0.020941274240613</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>10190053.02</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>-0.001690194</v>
       </c>
-      <c r="O81" s="6">
+      <c r="P81" s="4">
         <v>11172938.7488136</v>
       </c>
-      <c r="P81">
+      <c r="Q81">
         <v>-0.017056793</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>11424945.47</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:18">
       <c r="A82" s="2">
         <v>201709</v>
       </c>
@@ -4299,7 +4386,7 @@
         <v>52010212</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D82" s="2">
         <v>942.128</v>
@@ -4310,9 +4397,7 @@
       <c r="F82" s="2">
         <v>201709</v>
       </c>
-      <c r="G82" s="4">
-        <v>11234876.4</v>
-      </c>
+      <c r="G82" s="4"/>
       <c r="H82" s="4">
         <v>11234876.4</v>
       </c>
@@ -4323,28 +4408,31 @@
         <v>11234876.4</v>
       </c>
       <c r="K82" s="4">
+        <v>11234876.4</v>
+      </c>
+      <c r="L82" s="4">
         <v>-0.309098658863794</v>
       </c>
-      <c r="L82" s="4">
+      <c r="M82" s="4">
         <v>-0.325685739517212</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>9978879.149</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>-0.312309921</v>
       </c>
-      <c r="O82" s="6">
+      <c r="P82" s="4">
         <v>11154070.2631604</v>
       </c>
-      <c r="P82">
+      <c r="Q82">
         <v>-0.291387916</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>11231725.07</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:18">
       <c r="A83" s="2">
         <v>201710</v>
       </c>
@@ -4352,7 +4440,7 @@
         <v>52010212</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83" s="2">
         <v>691.624</v>
@@ -4363,9 +4451,7 @@
       <c r="F83" s="2">
         <v>201710</v>
       </c>
-      <c r="G83" s="4">
-        <v>8247616.2</v>
-      </c>
+      <c r="G83" s="4"/>
       <c r="H83" s="4">
         <v>8247616.2</v>
       </c>
@@ -4376,28 +4462,31 @@
         <v>8247616.2</v>
       </c>
       <c r="K83" s="4">
+        <v>8247616.2</v>
+      </c>
+      <c r="L83" s="4">
         <v>-0.142846383866786</v>
       </c>
-      <c r="L83" s="4">
+      <c r="M83" s="4">
         <v>-0.160746023058891</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>7205070.37</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>-0.138966992</v>
       </c>
-      <c r="O83" s="6">
+      <c r="P83" s="4">
         <v>8162043.14999624</v>
       </c>
-      <c r="P83">
+      <c r="Q83">
         <v>-0.158781722</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>8392634.059</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:18">
       <c r="A84" s="2">
         <v>201711</v>
       </c>
@@ -4405,7 +4494,7 @@
         <v>52010212</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D84" s="2">
         <v>599.56</v>
@@ -4416,9 +4505,7 @@
       <c r="F84" s="2">
         <v>201711</v>
       </c>
-      <c r="G84" s="4">
-        <v>7149753</v>
-      </c>
+      <c r="G84" s="4"/>
       <c r="H84" s="4">
         <v>7149753</v>
       </c>
@@ -4429,28 +4516,31 @@
         <v>7149753</v>
       </c>
       <c r="K84" s="4">
+        <v>7149753</v>
+      </c>
+      <c r="L84" s="4">
         <v>-1.53223671057482</v>
       </c>
-      <c r="L84" s="4">
+      <c r="M84" s="4">
         <v>-1.53400373458862</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>6135177.125</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>-1.538656235</v>
       </c>
-      <c r="O84" s="6">
+      <c r="P84" s="4">
         <v>7103073.03970561</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <v>-1.518225551</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>7160448.945</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:18">
       <c r="A85" s="2">
         <v>201712</v>
       </c>
@@ -4458,7 +4548,7 @@
         <v>52010212</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D85" s="2">
         <v>129.536</v>
@@ -4469,9 +4559,7 @@
       <c r="F85" s="2">
         <v>201712</v>
       </c>
-      <c r="G85" s="4">
-        <v>1544716.8</v>
-      </c>
+      <c r="G85" s="4"/>
       <c r="H85" s="4">
         <v>1544716.8</v>
       </c>
@@ -4482,28 +4570,31 @@
         <v>1544716.8</v>
       </c>
       <c r="K85" s="4">
+        <v>1544716.8</v>
+      </c>
+      <c r="L85" s="4">
         <v>0.398358014811036</v>
       </c>
-      <c r="L85" s="4">
+      <c r="M85" s="4">
         <v>0.379380643367767</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>1323175.622</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>0.403374672</v>
       </c>
-      <c r="O85" s="6">
+      <c r="P85" s="4">
         <v>1524811.4500817</v>
       </c>
-      <c r="P85">
+      <c r="Q85">
         <v>0.399472654</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>1568855.907</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:18">
       <c r="A86" s="2">
         <v>201801</v>
       </c>
@@ -4511,7 +4602,7 @@
         <v>52010212</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D86" s="2">
         <v>192.928</v>
@@ -4522,9 +4613,7 @@
       <c r="F86" s="2">
         <v>201801</v>
       </c>
-      <c r="G86" s="4">
-        <v>2300666.4</v>
-      </c>
+      <c r="G86" s="4"/>
       <c r="H86" s="4">
         <v>2300666.4</v>
       </c>
@@ -4535,28 +4624,31 @@
         <v>2300666.4</v>
       </c>
       <c r="K86" s="4">
+        <v>2300666.4</v>
+      </c>
+      <c r="L86" s="4">
         <v>0.844037202908124</v>
       </c>
-      <c r="L86" s="4">
+      <c r="M86" s="4">
         <v>0.845218002796173</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>1933661.786</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>1.013302207</v>
       </c>
-      <c r="O86" s="6">
+      <c r="P86" s="4">
         <v>2282441.38447521</v>
       </c>
-      <c r="P86">
+      <c r="Q86">
         <v>0.617645979</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>2339224.575</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:18">
       <c r="A87" s="2">
         <v>201803</v>
       </c>
@@ -4564,7 +4656,7 @@
         <v>52010212</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D87" s="2">
         <v>704.436</v>
@@ -4575,41 +4667,42 @@
       <c r="F87" s="2">
         <v>201802</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="4"/>
+      <c r="H87" s="4">
         <v>5350532.85</v>
       </c>
-      <c r="H87" s="4">
+      <c r="I87" s="4">
         <v>7005868.19536533</v>
       </c>
-      <c r="I87" s="4">
+      <c r="J87" s="4">
         <v>7005866.85453048</v>
       </c>
-      <c r="J87" s="4">
+      <c r="K87" s="4">
         <v>5350747.5</v>
       </c>
-      <c r="K87" s="4">
+      <c r="L87" s="4">
         <v>0.451042901811757</v>
       </c>
-      <c r="L87" s="4">
+      <c r="M87" s="4">
         <v>0.445911347866058</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>4502504.518</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>0.286217213</v>
       </c>
-      <c r="O87" s="6">
+      <c r="P87" s="4">
         <v>6287403.19461278</v>
       </c>
-      <c r="P87">
+      <c r="Q87">
         <v>0.671644628</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>4338226.708</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:18">
       <c r="A88" s="2">
         <v>201804</v>
       </c>
@@ -4617,7 +4710,7 @@
         <v>52010212</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88" s="2">
         <v>465.564</v>
@@ -4628,9 +4721,7 @@
       <c r="F88" s="2">
         <v>201803</v>
       </c>
-      <c r="G88" s="4">
-        <v>8400399.3</v>
-      </c>
+      <c r="G88" s="4"/>
       <c r="H88" s="4">
         <v>8400399.3</v>
       </c>
@@ -4641,28 +4732,31 @@
         <v>8400399.3</v>
       </c>
       <c r="K88" s="4">
+        <v>8400399.3</v>
+      </c>
+      <c r="L88" s="4">
         <v>-0.414147847723067</v>
       </c>
-      <c r="L88" s="4">
+      <c r="M88" s="4">
         <v>-0.428833156824112</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>7032520.871</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>-0.416971803</v>
       </c>
-      <c r="O88" s="6">
+      <c r="P88" s="4">
         <v>8370933.36217081</v>
       </c>
-      <c r="P88">
+      <c r="Q88">
         <v>-0.41794914</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>8491880</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:18">
       <c r="A89" s="2">
         <v>201805</v>
       </c>
@@ -4670,7 +4764,7 @@
         <v>52010212</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89" s="2">
         <v>765.712</v>
@@ -4681,9 +4775,7 @@
       <c r="F89" s="2">
         <v>201804</v>
       </c>
-      <c r="G89" s="4">
-        <v>5551850.7</v>
-      </c>
+      <c r="G89" s="4"/>
       <c r="H89" s="4">
         <v>5551850.7</v>
       </c>
@@ -4694,28 +4786,31 @@
         <v>5551850.7</v>
       </c>
       <c r="K89" s="4">
+        <v>5551850.7</v>
+      </c>
+      <c r="L89" s="4">
         <v>0.497556475485702</v>
       </c>
-      <c r="L89" s="4">
+      <c r="M89" s="4">
         <v>0.491857141256332</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>4580059.532</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>0.502057493</v>
       </c>
-      <c r="O89" s="6">
+      <c r="P89" s="4">
         <v>5516775.4200929</v>
       </c>
-      <c r="P89">
+      <c r="Q89">
         <v>0.514564335</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>5591017.051</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:18">
       <c r="A90" s="2">
         <v>201806</v>
       </c>
@@ -4723,7 +4818,7 @@
         <v>52010212</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90" s="2">
         <v>685.476</v>
@@ -4734,9 +4829,7 @@
       <c r="F90" s="2">
         <v>201805</v>
       </c>
-      <c r="G90" s="4">
-        <v>9131115.6</v>
-      </c>
+      <c r="G90" s="4"/>
       <c r="H90" s="4">
         <v>9131115.6</v>
       </c>
@@ -4747,28 +4840,31 @@
         <v>9131115.6</v>
       </c>
       <c r="K90" s="4">
+        <v>9131115.6</v>
+      </c>
+      <c r="L90" s="4">
         <v>-0.110692619662927</v>
       </c>
-      <c r="L90" s="4">
+      <c r="M90" s="4">
         <v>-0.091563418507576</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>7490003.182</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>-0.160610661</v>
       </c>
-      <c r="O90" s="6">
+      <c r="P90" s="4">
         <v>9114359.08055742</v>
       </c>
-      <c r="P90">
+      <c r="Q90">
         <v>-0.094014749</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>9353266.298</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:18">
       <c r="A91" s="2">
         <v>201807</v>
       </c>
@@ -4776,7 +4872,7 @@
         <v>52010212</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2">
         <v>817.408</v>
@@ -4787,9 +4883,7 @@
       <c r="F91" s="2">
         <v>201806</v>
       </c>
-      <c r="G91" s="4">
-        <v>8174301.3</v>
-      </c>
+      <c r="G91" s="4"/>
       <c r="H91" s="4">
         <v>8174301.3</v>
       </c>
@@ -4800,28 +4894,31 @@
         <v>8174301.3</v>
       </c>
       <c r="K91" s="4">
+        <v>8174301.3</v>
+      </c>
+      <c r="L91" s="4">
         <v>0.176024851018496</v>
       </c>
-      <c r="L91" s="4">
+      <c r="M91" s="4">
         <v>0.116069257259369</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>6834653.617</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>0.043285951</v>
       </c>
-      <c r="O91" s="6">
+      <c r="P91" s="4">
         <v>7762002.9331122</v>
       </c>
-      <c r="P91">
+      <c r="Q91">
         <v>0.193150595</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>8513991.419</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:18">
       <c r="A92" s="2">
         <v>201808</v>
       </c>
@@ -4829,7 +4926,7 @@
         <v>52010212</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D92" s="2">
         <v>846.22</v>
@@ -4840,9 +4937,7 @@
       <c r="F92" s="2">
         <v>201807</v>
       </c>
-      <c r="G92" s="4">
-        <v>9747590.4</v>
-      </c>
+      <c r="G92" s="4"/>
       <c r="H92" s="4">
         <v>9747590.4</v>
       </c>
@@ -4853,28 +4948,31 @@
         <v>9747590.4</v>
       </c>
       <c r="K92" s="4">
+        <v>9747590.4</v>
+      </c>
+      <c r="L92" s="4">
         <v>0.0346410113759532</v>
       </c>
-      <c r="L92" s="4">
+      <c r="M92" s="4">
         <v>-0.000179681926965714</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>7675819.51</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>0.036509439</v>
       </c>
-      <c r="O92" s="6">
+      <c r="P92" s="4">
         <v>8105366.45248413</v>
       </c>
-      <c r="P92">
+      <c r="Q92">
         <v>0.039223112</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>10328029.14</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:18">
       <c r="A93" s="2">
         <v>201809</v>
       </c>
@@ -4882,7 +4980,7 @@
         <v>52010212</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D93" s="2">
         <v>830.848</v>
@@ -4893,9 +4991,7 @@
       <c r="F93" s="2">
         <v>201808</v>
       </c>
-      <c r="G93" s="4">
-        <v>10091173.5</v>
-      </c>
+      <c r="G93" s="4"/>
       <c r="H93" s="4">
         <v>10091173.5</v>
       </c>
@@ -4906,28 +5002,31 @@
         <v>10091173.5</v>
       </c>
       <c r="K93" s="4">
+        <v>10091173.5</v>
+      </c>
+      <c r="L93" s="4">
         <v>-0.0183325052767209</v>
       </c>
-      <c r="L93" s="4">
+      <c r="M93" s="4">
         <v>-0.00416297093033791</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>7674440.427</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>-0.022314414</v>
       </c>
-      <c r="O93" s="6">
+      <c r="P93" s="4">
         <v>8406757.2002899</v>
       </c>
-      <c r="P93">
+      <c r="Q93">
         <v>-0.003381297</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>10741176.11</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:18">
       <c r="A94" s="2">
         <v>201810</v>
       </c>
@@ -4935,7 +5034,7 @@
         <v>52010212</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D94" s="2">
         <v>709.38</v>
@@ -4946,9 +5045,7 @@
       <c r="F94" s="2">
         <v>201809</v>
       </c>
-      <c r="G94" s="4">
-        <v>9907862.4</v>
-      </c>
+      <c r="G94" s="4"/>
       <c r="H94" s="4">
         <v>9907862.4</v>
       </c>
@@ -4959,28 +5056,31 @@
         <v>9907862.4</v>
       </c>
       <c r="K94" s="4">
+        <v>9907862.4</v>
+      </c>
+      <c r="L94" s="4">
         <v>-0.158055499585519</v>
       </c>
-      <c r="L94" s="4">
+      <c r="M94" s="4">
         <v>-0.0299082957208157</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>7642558.359</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>-0.129118517</v>
       </c>
-      <c r="O94" s="6">
+      <c r="P94" s="4">
         <v>8221242.83416716</v>
       </c>
-      <c r="P94">
+      <c r="Q94">
         <v>-0.152360961</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>10704918.34</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:18">
       <c r="A95" s="2">
         <v>201811</v>
       </c>
@@ -4988,7 +5088,7 @@
         <v>52010212</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2">
         <v>442.26</v>
@@ -4999,9 +5099,7 @@
       <c r="F95" s="2">
         <v>201810</v>
       </c>
-      <c r="G95" s="4">
-        <v>8459356.5</v>
-      </c>
+      <c r="G95" s="4"/>
       <c r="H95" s="4">
         <v>8459356.5</v>
       </c>
@@ -5012,28 +5110,31 @@
         <v>8459356.5</v>
       </c>
       <c r="K95" s="4">
+        <v>8459356.5</v>
+      </c>
+      <c r="L95" s="4">
         <v>-0.472493333274953</v>
       </c>
-      <c r="L95" s="4">
+      <c r="M95" s="4">
         <v>-0.480599701404571</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>7417366.768</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>-0.478855669</v>
       </c>
-      <c r="O95" s="6">
+      <c r="P95" s="4">
         <v>7225401.91051355</v>
       </c>
-      <c r="P95">
+      <c r="Q95">
         <v>-0.499164283</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>9192080.676</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:18">
       <c r="A96" s="2">
         <v>201901</v>
       </c>
@@ -5041,7 +5142,7 @@
         <v>52010212</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D96" s="2">
         <v>389.016</v>
@@ -5052,9 +5153,7 @@
       <c r="F96" s="2">
         <v>201811</v>
       </c>
-      <c r="G96" s="4">
-        <v>5273950.5</v>
-      </c>
+      <c r="G96" s="4"/>
       <c r="H96" s="4">
         <v>5273950.5</v>
       </c>
@@ -5065,28 +5164,31 @@
         <v>5273950.5</v>
       </c>
       <c r="K96" s="4">
+        <v>5273950.5</v>
+      </c>
+      <c r="L96" s="4">
         <v>-0.0621746730409622</v>
       </c>
-      <c r="L96" s="4">
+      <c r="M96" s="4">
         <v>-0.049231331795454</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>4586991.335</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>-0.217263535</v>
       </c>
-      <c r="O96" s="6">
+      <c r="P96" s="4">
         <v>4476077.50371511</v>
       </c>
-      <c r="P96">
+      <c r="Q96">
         <v>-0.072068796</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>5579939.665</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:18">
       <c r="A97" s="2">
         <v>201903</v>
       </c>
@@ -5094,7 +5196,7 @@
         <v>52010212</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D97" s="2">
         <v>689.936</v>
@@ -5105,41 +5207,42 @@
       <c r="F97" s="2">
         <v>201812</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="4"/>
+      <c r="H97" s="4">
         <v>4956483.15</v>
       </c>
-      <c r="H97" s="4">
+      <c r="I97" s="4">
         <v>3986241.7109488</v>
       </c>
-      <c r="I97" s="4">
+      <c r="J97" s="4">
         <v>3986241.79117008</v>
       </c>
-      <c r="J97" s="4">
+      <c r="K97" s="4">
         <v>4956030</v>
       </c>
-      <c r="K97" s="4">
+      <c r="L97" s="4">
         <v>-0.0661027715585298</v>
       </c>
-      <c r="L97" s="4">
+      <c r="M97" s="4">
         <v>-0.0637898147106171</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>4366636.285</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>0.090372473</v>
       </c>
-      <c r="O97" s="6">
+      <c r="P97" s="4">
         <v>3601979.36082338</v>
       </c>
-      <c r="P97">
+      <c r="Q97">
         <v>-0.089019075</v>
       </c>
-      <c r="Q97">
+      <c r="R97">
         <v>5191948.99</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:18">
       <c r="A98" s="2">
         <v>201904</v>
       </c>
@@ -5147,7 +5250,7 @@
         <v>52010212</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D98" s="2">
         <v>879.836</v>
@@ -5158,9 +5261,7 @@
       <c r="F98" s="2">
         <v>201901</v>
       </c>
-      <c r="G98" s="4">
-        <v>4639015.8</v>
-      </c>
+      <c r="G98" s="4"/>
       <c r="H98" s="4">
         <v>4639015.8</v>
       </c>
@@ -5171,28 +5272,31 @@
         <v>4639015.8</v>
       </c>
       <c r="K98" s="4">
+        <v>4639015.8</v>
+      </c>
+      <c r="L98" s="4">
         <v>0.327022250692734</v>
       </c>
-      <c r="L98" s="4">
+      <c r="M98" s="4">
         <v>0.330786108970642</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>4096787.598</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>0.284646511</v>
       </c>
-      <c r="O98" s="6">
+      <c r="P98" s="4">
         <v>3942661.54311448</v>
       </c>
-      <c r="P98">
+      <c r="Q98">
         <v>0.291285634</v>
       </c>
-      <c r="Q98">
+      <c r="R98">
         <v>4749740.864</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:18">
       <c r="A99" s="2">
         <v>201905</v>
       </c>
@@ -5200,7 +5304,7 @@
         <v>52010212</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2">
         <v>977.296</v>
@@ -5211,41 +5315,42 @@
       <c r="F99" s="2">
         <v>201902</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="4"/>
+      <c r="H99" s="4">
         <v>6433251.3</v>
       </c>
-      <c r="H99" s="4">
+      <c r="I99" s="4">
         <v>6319563.48952261</v>
       </c>
-      <c r="I99" s="4">
+      <c r="J99" s="4">
         <v>6319563.30399455</v>
       </c>
-      <c r="J99" s="4">
+      <c r="K99" s="4">
         <v>6433537.5</v>
       </c>
-      <c r="K99" s="4">
+      <c r="L99" s="4">
         <v>0.245956021076365</v>
       </c>
-      <c r="L99" s="4">
+      <c r="M99" s="4">
         <v>0.241335913538933</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>5702982.774</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <v>0.285656482</v>
       </c>
-      <c r="O99" s="6">
+      <c r="P99" s="4">
         <v>5240948.9942876</v>
       </c>
-      <c r="P99">
+      <c r="Q99">
         <v>0.326770693</v>
       </c>
-      <c r="Q99">
+      <c r="R99">
         <v>6355850.637</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:18">
       <c r="A100" s="2">
         <v>201906</v>
       </c>
@@ -5253,7 +5358,7 @@
         <v>52010212</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D100" s="2">
         <v>639.048</v>
@@ -5264,9 +5369,7 @@
       <c r="F100" s="2">
         <v>201903</v>
       </c>
-      <c r="G100" s="4">
-        <v>8227486.8</v>
-      </c>
+      <c r="G100" s="4"/>
       <c r="H100" s="4">
         <v>8227486.8</v>
       </c>
@@ -5277,28 +5380,31 @@
         <v>8227486.8</v>
       </c>
       <c r="K100" s="4">
+        <v>8227486.8</v>
+      </c>
+      <c r="L100" s="4">
         <v>0.243136660568311</v>
       </c>
-      <c r="L100" s="4">
+      <c r="M100" s="4">
         <v>0.237237706780434</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <v>7259604.007</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>0.24727647</v>
       </c>
-      <c r="O100" s="6">
+      <c r="P100" s="4">
         <v>6973791.96069288</v>
       </c>
-      <c r="P100">
+      <c r="Q100">
         <v>0.248659357</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <v>8812282.49</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:18">
       <c r="A101" s="2">
         <v>201907</v>
       </c>
@@ -5306,7 +5412,7 @@
         <v>52010212</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D101" s="2">
         <v>464.836</v>
@@ -5317,9 +5423,7 @@
       <c r="F101" s="2">
         <v>201904</v>
       </c>
-      <c r="G101" s="4">
-        <v>10492044.3</v>
-      </c>
+      <c r="G101" s="4"/>
       <c r="H101" s="4">
         <v>10492044.3</v>
       </c>
@@ -5330,28 +5434,31 @@
         <v>10492044.3</v>
       </c>
       <c r="K101" s="4">
+        <v>10492044.3</v>
+      </c>
+      <c r="L101" s="4">
         <v>0.105054038454611</v>
       </c>
-      <c r="L101" s="4">
+      <c r="M101" s="4">
         <v>0.108744576573372</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>9203308.314</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <v>0.103956707</v>
       </c>
-      <c r="O101" s="6">
+      <c r="P101" s="4">
         <v>8930171.669278</v>
       </c>
-      <c r="P101">
+      <c r="Q101">
         <v>0.117188074</v>
       </c>
-      <c r="Q101">
+      <c r="R101">
         <v>11300035.51</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:18">
       <c r="A102" s="2">
         <v>201908</v>
       </c>
@@ -5359,7 +5466,7 @@
         <v>52010212</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D102" s="2">
         <v>821.444</v>
@@ -5370,9 +5477,7 @@
       <c r="F102" s="2">
         <v>201905</v>
       </c>
-      <c r="G102" s="4">
-        <v>11654254.8</v>
-      </c>
+      <c r="G102" s="4"/>
       <c r="H102" s="4">
         <v>11654254.8</v>
       </c>
@@ -5383,28 +5488,31 @@
         <v>11654254.8</v>
       </c>
       <c r="K102" s="4">
+        <v>11654254.8</v>
+      </c>
+      <c r="L102" s="4">
         <v>-0.42480996008325</v>
       </c>
-      <c r="L102" s="4">
+      <c r="M102" s="4">
         <v>-0.411445289850235</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>10260561.92</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>-0.419870734</v>
       </c>
-      <c r="O102" s="6">
+      <c r="P102" s="4">
         <v>9908493.67679514</v>
       </c>
-      <c r="P102">
+      <c r="Q102">
         <v>-0.421261668</v>
       </c>
-      <c r="Q102">
+      <c r="R102">
         <v>12704978.85</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:18">
       <c r="A103" s="2">
         <v>201909</v>
       </c>
@@ -5412,7 +5520,7 @@
         <v>52010212</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D103" s="2">
         <v>949.76</v>
@@ -5423,9 +5531,7 @@
       <c r="F103" s="2">
         <v>201906</v>
       </c>
-      <c r="G103" s="4">
-        <v>7620647.4</v>
-      </c>
+      <c r="G103" s="4"/>
       <c r="H103" s="4">
         <v>7620647.4</v>
       </c>
@@ -5436,28 +5542,31 @@
         <v>7620647.4</v>
       </c>
       <c r="K103" s="4">
+        <v>7620647.4</v>
+      </c>
+      <c r="L103" s="4">
         <v>-0.318294864541288</v>
       </c>
-      <c r="L103" s="4">
+      <c r="M103" s="4">
         <v>-0.406262099742889</v>
       </c>
-      <c r="M103">
+      <c r="N103">
         <v>6799589.665</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>-0.338256001</v>
       </c>
-      <c r="O103" s="6">
+      <c r="P103" s="4">
         <v>6511185.53578545</v>
       </c>
-      <c r="P103">
+      <c r="Q103">
         <v>-0.340655625</v>
       </c>
-      <c r="Q103">
+      <c r="R103">
         <v>8337240.133</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:18">
       <c r="A104" s="2">
         <v>201910</v>
       </c>
@@ -5465,7 +5574,7 @@
         <v>52010212</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D104" s="2">
         <v>960.832</v>
@@ -5476,9 +5585,7 @@
       <c r="F104" s="2">
         <v>201907</v>
       </c>
-      <c r="G104" s="4">
-        <v>5543169.3</v>
-      </c>
+      <c r="G104" s="4"/>
       <c r="H104" s="4">
         <v>5543169.3</v>
       </c>
@@ -5489,28 +5596,31 @@
         <v>5543169.3</v>
       </c>
       <c r="K104" s="4">
+        <v>5543169.3</v>
+      </c>
+      <c r="L104" s="4">
         <v>0.569379033645376</v>
       </c>
-      <c r="L104" s="4">
+      <c r="M104" s="4">
         <v>0.575488269329071</v>
       </c>
-      <c r="M104">
+      <c r="N104">
         <v>4529448.072</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <v>0.56752187</v>
       </c>
-      <c r="O104" s="6">
+      <c r="P104" s="4">
         <v>4642557.90189189</v>
       </c>
-      <c r="P104">
+      <c r="Q104">
         <v>0.568819046</v>
       </c>
-      <c r="Q104">
+      <c r="R104">
         <v>5930310.478</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:18">
       <c r="A105" s="2">
         <v>201911</v>
       </c>
@@ -5518,7 +5628,7 @@
         <v>52010212</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2">
         <v>972.688</v>
@@ -5529,9 +5639,7 @@
       <c r="F105" s="2">
         <v>201908</v>
       </c>
-      <c r="G105" s="4">
-        <v>9795719.7</v>
-      </c>
+      <c r="G105" s="4"/>
       <c r="H105" s="4">
         <v>9795719.7</v>
       </c>
@@ -5542,28 +5650,31 @@
         <v>9795719.7</v>
       </c>
       <c r="K105" s="4">
+        <v>9795719.7</v>
+      </c>
+      <c r="L105" s="4">
         <v>0.145145540138415</v>
       </c>
-      <c r="L105" s="4">
+      <c r="M105" s="4">
         <v>0.146074116230011</v>
       </c>
-      <c r="M105">
+      <c r="N105">
         <v>8053352.461</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <v>0.149785861</v>
       </c>
-      <c r="O105" s="6">
+      <c r="P105" s="4">
         <v>8188964.4551837</v>
       </c>
-      <c r="P105">
+      <c r="Q105">
         <v>0.137932733</v>
       </c>
-      <c r="Q105">
+      <c r="R105">
         <v>10473996.77</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:18">
       <c r="A106" s="2">
         <v>202001</v>
       </c>
@@ -5571,7 +5682,7 @@
         <v>52010212</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2">
         <v>308.18</v>
@@ -5582,9 +5693,7 @@
       <c r="F106" s="2">
         <v>201909</v>
       </c>
-      <c r="G106" s="4">
-        <v>11325888</v>
-      </c>
+      <c r="G106" s="4"/>
       <c r="H106" s="4">
         <v>11325888</v>
       </c>
@@ -5595,28 +5704,31 @@
         <v>11325888</v>
       </c>
       <c r="K106" s="4">
+        <v>11325888</v>
+      </c>
+      <c r="L106" s="4">
         <v>0.0115902536735</v>
       </c>
-      <c r="L106" s="4">
+      <c r="M106" s="4">
         <v>0.00615875050425529</v>
       </c>
-      <c r="M106">
+      <c r="N106">
         <v>9319999.664</v>
       </c>
-      <c r="N106">
+      <c r="O106">
         <v>0.009632662</v>
       </c>
-      <c r="O106" s="6">
+      <c r="P106" s="4">
         <v>9512182.33436411</v>
       </c>
-      <c r="P106">
+      <c r="Q106">
         <v>0.012937739</v>
       </c>
-      <c r="Q106">
+      <c r="R106">
         <v>12023083.57</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:18">
       <c r="A107" s="2">
         <v>202002</v>
       </c>
@@ -5624,7 +5736,7 @@
         <v>52010212</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D107" s="2">
         <v>595.216</v>
@@ -5635,9 +5747,7 @@
       <c r="F107" s="2">
         <v>201910</v>
       </c>
-      <c r="G107" s="4">
-        <v>11457921.6</v>
-      </c>
+      <c r="G107" s="4"/>
       <c r="H107" s="4">
         <v>11457921.6</v>
       </c>
@@ -5648,28 +5758,31 @@
         <v>11457921.6</v>
       </c>
       <c r="K107" s="4">
+        <v>11457921.6</v>
+      </c>
+      <c r="L107" s="4">
         <v>0.0122637961511707</v>
       </c>
-      <c r="L107" s="4">
+      <c r="M107" s="4">
         <v>0.0138322338461876</v>
       </c>
-      <c r="M107">
+      <c r="N107">
         <v>9377576.341</v>
       </c>
-      <c r="N107">
+      <c r="O107">
         <v>0.013059005</v>
       </c>
-      <c r="O107" s="6">
+      <c r="P107" s="4">
         <v>9604252.71020611</v>
       </c>
-      <c r="P107">
+      <c r="Q107">
         <v>0.004490525</v>
       </c>
-      <c r="Q107">
+      <c r="R107">
         <v>12179645.7</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:18">
       <c r="A108" s="2">
         <v>202003</v>
       </c>
@@ -5677,7 +5790,7 @@
         <v>52010212</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D108" s="2">
         <v>1150.18</v>
@@ -5688,9 +5801,7 @@
       <c r="F108" s="2">
         <v>201911</v>
       </c>
-      <c r="G108" s="4">
-        <v>11599304.4</v>
-      </c>
+      <c r="G108" s="4"/>
       <c r="H108" s="4">
         <v>11599304.4</v>
       </c>
@@ -5701,28 +5812,31 @@
         <v>11599304.4</v>
       </c>
       <c r="K108" s="4">
+        <v>11599304.4</v>
+      </c>
+      <c r="L108" s="4">
         <v>-0.417970347148906</v>
       </c>
-      <c r="L108" s="4">
+      <c r="M108" s="4">
         <v>-0.419863700866699</v>
       </c>
-      <c r="M108">
+      <c r="N108">
         <v>9508190.443</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>-0.662063897</v>
       </c>
-      <c r="O108" s="6">
+      <c r="P108" s="4">
         <v>9730497.22857805</v>
       </c>
-      <c r="P108">
+      <c r="Q108">
         <v>-0.572163939</v>
       </c>
-      <c r="Q108">
+      <c r="R108">
         <v>12234461.69</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:18">
       <c r="A109" s="2">
         <v>202004</v>
       </c>
@@ -5730,7 +5844,7 @@
         <v>52010212</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D109" s="2">
         <v>890.892</v>
@@ -5741,41 +5855,42 @@
       <c r="F109" s="2">
         <v>201912</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="4"/>
+      <c r="H109" s="4">
         <v>7637175.45</v>
       </c>
-      <c r="H109" s="4">
+      <c r="I109" s="4">
         <v>7446073.10487257</v>
       </c>
-      <c r="I109" s="4">
+      <c r="J109" s="4">
         <v>7446072.41430606</v>
       </c>
-      <c r="J109" s="4">
+      <c r="K109" s="4">
         <v>7636770</v>
       </c>
-      <c r="K109" s="4">
+      <c r="L109" s="4">
         <v>-0.731408812108894</v>
       </c>
-      <c r="L109" s="4">
+      <c r="M109" s="4">
         <v>-0.764447689056396</v>
       </c>
-      <c r="M109">
+      <c r="N109">
         <v>6248177.513</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>-0.499644995</v>
       </c>
-      <c r="O109" s="6">
+      <c r="P109" s="4">
         <v>5018850.90636036</v>
       </c>
-      <c r="P109">
+      <c r="Q109">
         <v>-0.557387054</v>
       </c>
-      <c r="Q109">
+      <c r="R109">
         <v>6903942.987</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:18">
       <c r="A110" s="2">
         <v>202005</v>
       </c>
@@ -5783,7 +5898,7 @@
         <v>52010212</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110" s="2">
         <v>966.692</v>
@@ -5794,9 +5909,7 @@
       <c r="F110" s="2">
         <v>202001</v>
       </c>
-      <c r="G110" s="4">
-        <v>3675046.5</v>
-      </c>
+      <c r="G110" s="4"/>
       <c r="H110" s="4">
         <v>3675046.5</v>
       </c>
@@ -5807,28 +5920,31 @@
         <v>3675046.5</v>
       </c>
       <c r="K110" s="4">
+        <v>3675046.5</v>
+      </c>
+      <c r="L110" s="4">
         <v>0.658240205804658</v>
       </c>
-      <c r="L110" s="4">
+      <c r="M110" s="4">
         <v>0.64766800403595</v>
       </c>
-      <c r="M110">
+      <c r="N110">
         <v>2909094.751</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>0.657672822</v>
       </c>
-      <c r="O110" s="6">
+      <c r="P110" s="4">
         <v>3045167.41671666</v>
       </c>
-      <c r="P110">
+      <c r="Q110">
         <v>0.703598559</v>
       </c>
-      <c r="Q110">
+      <c r="R110">
         <v>3953912.258</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:18">
       <c r="A111" s="2">
         <v>202006</v>
       </c>
@@ -5836,7 +5952,7 @@
         <v>52010212</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D111" s="2">
         <v>975.72</v>
@@ -5847,9 +5963,7 @@
       <c r="F111" s="2">
         <v>202002</v>
       </c>
-      <c r="G111" s="4">
-        <v>7097950.8</v>
-      </c>
+      <c r="G111" s="4"/>
       <c r="H111" s="4">
         <v>7097950.8</v>
       </c>
@@ -5860,28 +5974,31 @@
         <v>7097950.8</v>
       </c>
       <c r="K111" s="4">
+        <v>7097950.8</v>
+      </c>
+      <c r="L111" s="4">
         <v>0.65874929799255</v>
       </c>
-      <c r="L111" s="4">
+      <c r="M111" s="4">
         <v>0.665389955043793</v>
       </c>
-      <c r="M111">
+      <c r="N111">
         <v>5559510.798</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <v>0.660812497</v>
       </c>
-      <c r="O111" s="6">
+      <c r="P111" s="4">
         <v>5878072.26019019</v>
       </c>
-      <c r="P111">
+      <c r="Q111">
         <v>0.650156558</v>
       </c>
-      <c r="Q111">
+      <c r="R111">
         <v>7990906.602</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:18">
       <c r="A112" s="2">
         <v>202007</v>
       </c>
@@ -5889,7 +6006,7 @@
         <v>52010212</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D112" s="2">
         <v>697.976</v>
@@ -5900,9 +6017,7 @@
       <c r="F112" s="2">
         <v>202003</v>
       </c>
-      <c r="G112" s="4">
-        <v>13715896.5</v>
-      </c>
+      <c r="G112" s="4"/>
       <c r="H112" s="4">
         <v>13715896.5</v>
       </c>
@@ -5913,28 +6028,31 @@
         <v>13715896.5</v>
       </c>
       <c r="K112" s="4">
+        <v>13715896.5</v>
+      </c>
+      <c r="L112" s="4">
         <v>-0.255450501625962</v>
       </c>
-      <c r="L112" s="4">
+      <c r="M112" s="4">
         <v>-0.260129153728485</v>
       </c>
-      <c r="M112">
+      <c r="N112">
         <v>10814633.39</v>
       </c>
-      <c r="N112">
+      <c r="O112">
         <v>-0.260950089</v>
       </c>
-      <c r="O112" s="6">
+      <c r="P112" s="4">
         <v>11382094.2487578</v>
       </c>
-      <c r="P112">
+      <c r="Q112">
         <v>-0.25967139</v>
       </c>
-      <c r="Q112">
+      <c r="R112">
         <v>15309305.37</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:18">
       <c r="A113" s="2">
         <v>202008</v>
       </c>
@@ -5942,7 +6060,7 @@
         <v>52010212</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D113" s="2">
         <v>905.596</v>
@@ -5953,9 +6071,7 @@
       <c r="F113" s="2">
         <v>202004</v>
       </c>
-      <c r="G113" s="4">
-        <v>10623887.1</v>
-      </c>
+      <c r="G113" s="4"/>
       <c r="H113" s="4">
         <v>10623887.1</v>
       </c>
@@ -5966,28 +6082,31 @@
         <v>10623887.1</v>
       </c>
       <c r="K113" s="4">
+        <v>10623887.1</v>
+      </c>
+      <c r="L113" s="4">
         <v>0.081656718476097</v>
       </c>
-      <c r="L113" s="4">
+      <c r="M113" s="4">
         <v>0.0702826976776123</v>
       </c>
-      <c r="M113">
+      <c r="N113">
         <v>8337563.103</v>
       </c>
-      <c r="N113">
+      <c r="O113">
         <v>0.095026381</v>
       </c>
-      <c r="O113" s="6">
+      <c r="P113" s="4">
         <v>8767847.40089562</v>
       </c>
-      <c r="P113">
+      <c r="Q113">
         <v>0.082327217</v>
       </c>
-      <c r="Q113">
+      <c r="R113">
         <v>11808143.59</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:18">
       <c r="A114" s="2">
         <v>202009</v>
       </c>
@@ -5995,7 +6114,7 @@
         <v>52010212</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D114" s="2">
         <v>858.584</v>
@@ -6006,9 +6125,7 @@
       <c r="F114" s="2">
         <v>202005</v>
       </c>
-      <c r="G114" s="4">
-        <v>11527802.1</v>
-      </c>
+      <c r="G114" s="4"/>
       <c r="H114" s="4">
         <v>11527802.1</v>
       </c>
@@ -6019,28 +6136,31 @@
         <v>11527802.1</v>
       </c>
       <c r="K114" s="4">
+        <v>11527802.1</v>
+      </c>
+      <c r="L114" s="4">
         <v>0.0092957253454955</v>
       </c>
-      <c r="L114" s="4">
+      <c r="M114" s="4">
         <v>-0.0058469083160162</v>
       </c>
-      <c r="M114">
+      <c r="N114">
         <v>8944632.982</v>
       </c>
-      <c r="N114">
+      <c r="O114">
         <v>0.023695678</v>
       </c>
-      <c r="O114" s="6">
+      <c r="P114" s="4">
         <v>9641895.49699001</v>
       </c>
-      <c r="P114">
+      <c r="Q114">
         <v>0.000369772</v>
       </c>
-      <c r="Q114">
+      <c r="R114">
         <v>12821412.85</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:18">
       <c r="A115" s="2">
         <v>202010</v>
       </c>
@@ -6048,7 +6168,7 @@
         <v>52010212</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D115" s="2">
         <v>857.48</v>
@@ -6059,9 +6179,7 @@
       <c r="F115" s="2">
         <v>202006</v>
       </c>
-      <c r="G115" s="4">
-        <v>11635461</v>
-      </c>
+      <c r="G115" s="4"/>
       <c r="H115" s="4">
         <v>11635461</v>
       </c>
@@ -6072,28 +6190,31 @@
         <v>11635461</v>
       </c>
       <c r="K115" s="4">
+        <v>11635461</v>
+      </c>
+      <c r="L115" s="4">
         <v>-0.334990907591108</v>
       </c>
-      <c r="L115" s="4">
+      <c r="M115" s="4">
         <v>-0.253359228372574</v>
       </c>
-      <c r="M115">
+      <c r="N115">
         <v>8892487.122</v>
       </c>
-      <c r="N115">
+      <c r="O115">
         <v>-0.209544882</v>
       </c>
-      <c r="O115" s="6">
+      <c r="P115" s="4">
         <v>9873095.16561774</v>
       </c>
-      <c r="P115">
+      <c r="Q115">
         <v>-0.30733794</v>
       </c>
-      <c r="Q115">
+      <c r="R115">
         <v>12826154.73</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:18">
       <c r="A116" s="2">
         <v>202102</v>
       </c>
@@ -6101,7 +6222,7 @@
         <v>52010212</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D116" s="2">
         <v>97.152</v>
@@ -6112,9 +6233,7 @@
       <c r="F116" s="2">
         <v>202007</v>
       </c>
-      <c r="G116" s="4">
-        <v>8323363.8</v>
-      </c>
+      <c r="G116" s="4"/>
       <c r="H116" s="4">
         <v>8323363.8</v>
       </c>
@@ -6125,28 +6244,31 @@
         <v>8323363.8</v>
       </c>
       <c r="K116" s="4">
+        <v>8323363.8</v>
+      </c>
+      <c r="L116" s="4">
         <v>0.260408544716404</v>
       </c>
-      <c r="L116" s="4">
+      <c r="M116" s="4">
         <v>0.251097083091736</v>
       </c>
-      <c r="M116">
+      <c r="N116">
         <v>6902250.486</v>
       </c>
-      <c r="N116">
+      <c r="O116">
         <v>0.26750654</v>
       </c>
-      <c r="O116" s="6">
+      <c r="P116" s="4">
         <v>8006618.33686144</v>
       </c>
-      <c r="P116">
+      <c r="Q116">
         <v>0.280527174</v>
       </c>
-      <c r="Q116">
+      <c r="R116">
         <v>9432380.054</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:18">
       <c r="A117" s="2">
         <v>202103</v>
       </c>
@@ -6154,7 +6276,7 @@
         <v>52010212</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D117" s="2">
         <v>839.956</v>
@@ -6165,9 +6287,7 @@
       <c r="F117" s="2">
         <v>202008</v>
       </c>
-      <c r="G117" s="4">
-        <v>10799232.3</v>
-      </c>
+      <c r="G117" s="4"/>
       <c r="H117" s="4">
         <v>10799232.3</v>
       </c>
@@ -6178,28 +6298,31 @@
         <v>10799232.3</v>
       </c>
       <c r="K117" s="4">
+        <v>10799232.3</v>
+      </c>
+      <c r="L117" s="4">
         <v>-0.0533087647781052</v>
       </c>
-      <c r="L117" s="4">
+      <c r="M117" s="4">
         <v>-0.0565496124327183</v>
       </c>
-      <c r="M117">
+      <c r="N117">
         <v>8872393.757</v>
       </c>
-      <c r="N117">
+      <c r="O117">
         <v>-0.052229419</v>
       </c>
-      <c r="O117" s="6">
+      <c r="P117" s="4">
         <v>10462265.9051349</v>
       </c>
-      <c r="P117">
+      <c r="Q117">
         <v>-0.055015072</v>
       </c>
-      <c r="Q117">
+      <c r="R117">
         <v>12486844.59</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:18">
       <c r="A118" s="2">
         <v>202104</v>
       </c>
@@ -6207,7 +6330,7 @@
         <v>52010212</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D118" s="2">
         <v>947.768</v>
@@ -6218,9 +6341,7 @@
       <c r="F118" s="2">
         <v>202009</v>
       </c>
-      <c r="G118" s="4">
-        <v>10238614.2</v>
-      </c>
+      <c r="G118" s="4"/>
       <c r="H118" s="4">
         <v>10238614.2</v>
       </c>
@@ -6231,28 +6352,31 @@
         <v>10238614.2</v>
       </c>
       <c r="K118" s="4">
+        <v>10238614.2</v>
+      </c>
+      <c r="L118" s="4">
         <v>-0.00128666535095334</v>
       </c>
-      <c r="L118" s="4">
+      <c r="M118" s="4">
         <v>0.00825770571827888</v>
       </c>
-      <c r="M118">
+      <c r="N118">
         <v>8384585.932</v>
       </c>
-      <c r="N118">
+      <c r="O118">
         <v>-0.003828928</v>
       </c>
-      <c r="O118" s="6">
+      <c r="P118" s="4">
         <v>9929852.62374927</v>
       </c>
-      <c r="P118">
+      <c r="Q118">
         <v>-0.0151788</v>
       </c>
-      <c r="Q118">
+      <c r="R118">
         <v>11818434.76</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:18">
       <c r="A119" s="2">
         <v>202105</v>
       </c>
@@ -6260,7 +6384,7 @@
         <v>52010212</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D119" s="2">
         <v>1073.812</v>
@@ -6271,9 +6395,7 @@
       <c r="F119" s="2">
         <v>202010</v>
       </c>
-      <c r="G119" s="4">
-        <v>10225449</v>
-      </c>
+      <c r="G119" s="4"/>
       <c r="H119" s="4">
         <v>10225449</v>
       </c>
@@ -6284,28 +6406,31 @@
         <v>10225449</v>
       </c>
       <c r="K119" s="4">
+        <v>10225449</v>
+      </c>
+      <c r="L119" s="4">
         <v>-0.38188352458273</v>
       </c>
-      <c r="L119" s="4">
+      <c r="M119" s="4">
         <v>-0.372227430343628</v>
       </c>
-      <c r="M119">
+      <c r="N119">
         <v>8454110.043</v>
       </c>
-      <c r="N119">
+      <c r="O119">
         <v>-0.97490418</v>
       </c>
-      <c r="O119" s="6">
+      <c r="P119" s="4">
         <v>9891904.62685247</v>
       </c>
-      <c r="P119">
+      <c r="Q119">
         <v>-0.569358051</v>
       </c>
-      <c r="Q119">
+      <c r="R119">
         <v>11640399.69</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:18">
       <c r="A120" s="2">
         <v>202106</v>
       </c>
@@ -6313,7 +6438,7 @@
         <v>52010212</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D120" s="2">
         <v>1524.08</v>
@@ -6324,41 +6449,42 @@
       <c r="F120" s="2">
         <v>202011</v>
       </c>
-      <c r="G120" s="4">
+      <c r="G120" s="4"/>
+      <c r="H120" s="4">
         <v>7958721.15</v>
       </c>
-      <c r="H120" s="4">
+      <c r="I120" s="4">
         <v>6372001.83601434</v>
       </c>
-      <c r="I120" s="4">
+      <c r="J120" s="4">
         <v>6372000.7709341</v>
       </c>
-      <c r="J120" s="4">
+      <c r="K120" s="4">
         <v>6979630.95</v>
       </c>
-      <c r="K120" s="4">
+      <c r="L120" s="4">
         <v>-0.0383019335965855</v>
       </c>
-      <c r="L120" s="4">
+      <c r="M120" s="4">
         <v>-0.0438146218657494</v>
       </c>
-      <c r="M120">
+      <c r="N120">
         <v>5826551.029</v>
       </c>
-      <c r="N120">
+      <c r="O120">
         <v>-1.385324001</v>
       </c>
-      <c r="O120" s="6">
+      <c r="P120" s="4">
         <v>3731507.70224412</v>
       </c>
-      <c r="P120">
+      <c r="Q120">
         <v>-0.550936997</v>
       </c>
-      <c r="Q120">
+      <c r="R120">
         <v>6587168.978</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:18">
       <c r="A121" s="2">
         <v>202107</v>
       </c>
@@ -6366,7 +6492,7 @@
         <v>52010212</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D121" s="2">
         <v>838.668</v>
@@ -6377,41 +6503,42 @@
       <c r="F121" s="2">
         <v>202012</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="4"/>
+      <c r="H121" s="4">
         <v>5691993.3</v>
       </c>
-      <c r="H121" s="4">
+      <c r="I121" s="4">
         <v>742644.263077604</v>
       </c>
-      <c r="I121" s="4">
+      <c r="J121" s="4">
         <v>742643.70551521</v>
       </c>
-      <c r="J121" s="4">
+      <c r="K121" s="4">
         <v>6717352.5</v>
       </c>
-      <c r="K121" s="4">
+      <c r="L121" s="4">
         <v>-0.0398386860473039</v>
       </c>
-      <c r="L121" s="4">
+      <c r="M121" s="4">
         <v>-0.0773847699165344</v>
       </c>
-      <c r="M121">
+      <c r="N121">
         <v>5576774.739</v>
       </c>
-      <c r="N121">
+      <c r="O121">
         <v>-0.779118776</v>
       </c>
-      <c r="O121" s="6">
+      <c r="P121" s="4">
         <v>933781.841417463</v>
       </c>
-      <c r="P121">
+      <c r="Q121">
         <v>-0.579864383</v>
       </c>
-      <c r="Q121">
+      <c r="R121">
         <v>3796906.112</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:18">
       <c r="A122" s="2">
         <v>202108</v>
       </c>
@@ -6419,7 +6546,7 @@
         <v>52010212</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D122" s="2">
         <v>777.76</v>
@@ -6430,41 +6557,42 @@
       <c r="F122" s="2">
         <v>202101</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="4"/>
+      <c r="H122" s="4">
         <v>3425265.45</v>
       </c>
-      <c r="H122" s="4">
+      <c r="I122" s="4">
         <v>-2581255.36212184</v>
       </c>
-      <c r="I122" s="4">
+      <c r="J122" s="4">
         <v>-2581255.11400785</v>
       </c>
-      <c r="J122" s="4">
+      <c r="K122" s="4">
         <v>6455002.5</v>
       </c>
-      <c r="K122" s="4">
+      <c r="L122" s="4">
         <v>-1.71769618323165</v>
       </c>
-      <c r="L122" s="4">
+      <c r="M122" s="4">
         <v>-1.71902549266815</v>
       </c>
-      <c r="M122">
+      <c r="N122">
         <v>5161492.703</v>
       </c>
-      <c r="N122">
+      <c r="O122">
         <v>0.966304719</v>
       </c>
-      <c r="O122" s="6">
+      <c r="P122" s="4">
         <v>428428.043276426</v>
       </c>
-      <c r="P122">
+      <c r="Q122">
         <v>0.663591921</v>
       </c>
-      <c r="Q122">
+      <c r="R122">
         <v>2126169.416</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:18">
       <c r="A123" s="2">
         <v>202109</v>
       </c>
@@ -6472,7 +6600,7 @@
         <v>52010212</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D123" s="2">
         <v>825.768</v>
@@ -6483,9 +6611,7 @@
       <c r="F123" s="2">
         <v>202102</v>
       </c>
-      <c r="G123" s="4">
-        <v>1158537.6</v>
-      </c>
+      <c r="G123" s="4"/>
       <c r="H123" s="4">
         <v>1158537.6</v>
       </c>
@@ -6496,28 +6622,31 @@
         <v>1158537.6</v>
       </c>
       <c r="K123" s="4">
+        <v>1158537.6</v>
+      </c>
+      <c r="L123" s="4">
         <v>2.15707198385868</v>
       </c>
-      <c r="L123" s="4">
+      <c r="M123" s="4">
         <v>2.15486931800842</v>
       </c>
-      <c r="M123">
+      <c r="N123">
         <v>925148.9211</v>
       </c>
-      <c r="N123">
+      <c r="O123">
         <v>2.158838749</v>
       </c>
-      <c r="O123" s="6">
+      <c r="P123" s="4">
         <v>1126002.42505736</v>
       </c>
-      <c r="P123">
+      <c r="Q123">
         <v>0.779902577</v>
       </c>
-      <c r="Q123">
+      <c r="R123">
         <v>4128499.872</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:18">
       <c r="A124" s="2">
         <v>202203</v>
       </c>
@@ -6525,7 +6654,7 @@
         <v>52010212</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D124" s="2">
         <v>1005.364</v>
@@ -6536,9 +6665,7 @@
       <c r="F124" s="2">
         <v>202103</v>
       </c>
-      <c r="G124" s="4">
-        <v>10016475.3</v>
-      </c>
+      <c r="G124" s="4"/>
       <c r="H124" s="4">
         <v>10016475.3</v>
       </c>
@@ -6549,28 +6676,31 @@
         <v>10016475.3</v>
       </c>
       <c r="K124" s="4">
+        <v>10016475.3</v>
+      </c>
+      <c r="L124" s="4">
         <v>0.120760225696699</v>
       </c>
-      <c r="L124" s="4">
+      <c r="M124" s="4">
         <v>0.116227269172668</v>
       </c>
-      <c r="M124">
+      <c r="N124">
         <v>7981047.871</v>
       </c>
-      <c r="N124">
+      <c r="O124">
         <v>0.114161544</v>
       </c>
-      <c r="O124" s="6">
+      <c r="P124" s="4">
         <v>9752398.14053416</v>
       </c>
-      <c r="P124">
+      <c r="Q124">
         <v>0.340283543</v>
       </c>
-      <c r="Q124">
+      <c r="R124">
         <v>9005331.784</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:18">
       <c r="A125" s="2">
         <v>202204</v>
       </c>
@@ -6578,7 +6708,7 @@
         <v>52010212</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D125" s="2">
         <f>E125/11925</f>
@@ -6590,9 +6720,7 @@
       <c r="F125" s="2">
         <v>202104</v>
       </c>
-      <c r="G125" s="4">
-        <v>11302133.4</v>
-      </c>
+      <c r="G125" s="4"/>
       <c r="H125" s="4">
         <v>11302133.4</v>
       </c>
@@ -6603,28 +6731,31 @@
         <v>11302133.4</v>
       </c>
       <c r="K125" s="4">
+        <v>11302133.4</v>
+      </c>
+      <c r="L125" s="4">
         <v>0.1248604562394</v>
       </c>
-      <c r="L125" s="4">
+      <c r="M125" s="4">
         <v>-0.311040669679642</v>
       </c>
-      <c r="M125">
+      <c r="N125">
         <v>8964721.111</v>
       </c>
-      <c r="N125">
+      <c r="O125">
         <v>-0.13125442</v>
       </c>
-      <c r="O125" s="6">
+      <c r="P125" s="4">
         <v>10931786.8766408</v>
       </c>
-      <c r="P125">
+      <c r="Q125">
         <v>0.193668127</v>
       </c>
-      <c r="Q125">
+      <c r="R125">
         <v>12655607.5</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:18">
       <c r="A126" s="2">
         <v>202205</v>
       </c>
@@ -6632,7 +6763,7 @@
         <v>52010212</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D126" s="2">
         <f t="shared" ref="D126:D136" si="0">E126/11925</f>
@@ -6644,9 +6775,7 @@
       <c r="F126" s="2">
         <v>202105</v>
       </c>
-      <c r="G126" s="4">
-        <v>12805208.1</v>
-      </c>
+      <c r="G126" s="4"/>
       <c r="H126" s="4">
         <v>12805208.1</v>
       </c>
@@ -6657,28 +6786,31 @@
         <v>12805208.1</v>
       </c>
       <c r="K126" s="4">
+        <v>12805208.1</v>
+      </c>
+      <c r="L126" s="4">
         <v>0.350175992044196</v>
       </c>
-      <c r="L126" s="4">
+      <c r="M126" s="4">
         <v>-0.224872916936874</v>
       </c>
-      <c r="M126">
+      <c r="N126">
         <v>6568308.147</v>
       </c>
-      <c r="N126">
+      <c r="O126">
         <v>0.442142427</v>
       </c>
-      <c r="O126" s="6">
+      <c r="P126" s="4">
         <v>9587118.16911796</v>
       </c>
-      <c r="P126">
+      <c r="Q126">
         <v>-0.004892483</v>
       </c>
-      <c r="Q126">
+      <c r="R126">
         <v>15360027.81</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:18">
       <c r="A127" s="2">
         <v>202206</v>
       </c>
@@ -6686,7 +6818,7 @@
         <v>52010212</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D127" s="2">
         <f t="shared" si="0"/>
@@ -6698,9 +6830,7 @@
       <c r="F127" s="2">
         <v>202106</v>
       </c>
-      <c r="G127" s="4">
-        <v>18174654</v>
-      </c>
+      <c r="G127" s="4"/>
       <c r="H127" s="4">
         <v>18174654</v>
       </c>
@@ -6711,28 +6841,31 @@
         <v>18174654</v>
       </c>
       <c r="K127" s="4">
+        <v>18174654</v>
+      </c>
+      <c r="L127" s="4">
         <v>-0.597331264363941</v>
       </c>
-      <c r="L127" s="4">
+      <c r="M127" s="4">
         <v>0.0101760514080524</v>
       </c>
-      <c r="M127">
+      <c r="N127">
         <v>5245566.964</v>
       </c>
-      <c r="N127">
+      <c r="O127">
         <v>-0.660054088</v>
       </c>
-      <c r="O127" s="6">
+      <c r="P127" s="4">
         <v>14917914.470894</v>
       </c>
-      <c r="P127">
+      <c r="Q127">
         <v>-0.465870142</v>
       </c>
-      <c r="Q127">
+      <c r="R127">
         <v>15285062.66</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:18">
       <c r="A128" s="2">
         <v>202207</v>
       </c>
@@ -6740,7 +6873,7 @@
         <v>52010212</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D128" s="2">
         <f t="shared" si="0"/>
@@ -6752,9 +6885,7 @@
       <c r="F128" s="2">
         <v>202107</v>
       </c>
-      <c r="G128" s="4">
-        <v>10001115.9</v>
-      </c>
+      <c r="G128" s="4"/>
       <c r="H128" s="4">
         <v>10001115.9</v>
       </c>
@@ -6765,19 +6896,22 @@
         <v>10001115.9</v>
       </c>
       <c r="K128" s="4">
+        <v>10001115.9</v>
+      </c>
+      <c r="L128" s="4">
         <v>-0.0753969178486003</v>
       </c>
-      <c r="M128">
+      <c r="N128">
         <v>5299218.652</v>
       </c>
-      <c r="O128" s="6">
+      <c r="P128" s="4">
         <v>7709926.49591412</v>
       </c>
-      <c r="Q128">
+      <c r="R128">
         <v>9592733.394</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:12">
       <c r="A129" s="2">
         <v>202209</v>
       </c>
@@ -6785,7 +6919,7 @@
         <v>52010212</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D129" s="2">
         <f t="shared" si="0"/>
@@ -6797,9 +6931,7 @@
       <c r="F129" s="2">
         <v>202108</v>
       </c>
-      <c r="G129" s="4">
-        <v>9274788</v>
-      </c>
+      <c r="G129" s="4"/>
       <c r="H129" s="4">
         <v>9274788</v>
       </c>
@@ -6810,10 +6942,13 @@
         <v>9274788</v>
       </c>
       <c r="K129" s="4">
+        <v>9274788</v>
+      </c>
+      <c r="L129" s="4">
         <v>0.0598958628329704</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>202301</v>
       </c>
@@ -6821,7 +6956,7 @@
         <v>52010212</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D130" s="2">
         <f t="shared" si="0"/>
@@ -6833,9 +6968,7 @@
       <c r="F130" s="2">
         <v>202109</v>
       </c>
-      <c r="G130" s="4">
-        <v>9847283.4</v>
-      </c>
+      <c r="G130" s="4"/>
       <c r="H130" s="4">
         <v>9847283.4</v>
       </c>
@@ -6845,8 +6978,11 @@
       <c r="J130" s="4">
         <v>9847283.4</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="K130" s="4">
+        <v>9847283.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="2">
         <v>202302</v>
       </c>
@@ -6854,7 +6990,7 @@
         <v>52010212</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D131" s="2">
         <f t="shared" si="0"/>
@@ -6866,11 +7002,12 @@
       <c r="F131" s="2">
         <v>202110</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131" s="6">
         <v>12188776.7015093</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="2">
         <v>202303</v>
       </c>
@@ -6878,7 +7015,7 @@
         <v>52010212</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D132" s="2">
         <f t="shared" si="0"/>
@@ -6890,11 +7027,12 @@
       <c r="F132" s="2">
         <v>202111</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="6">
         <v>11724277.3824308</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="2">
         <v>202304</v>
       </c>
@@ -6902,7 +7040,7 @@
         <v>52010212</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D133" s="2">
         <f t="shared" si="0"/>
@@ -6914,11 +7052,12 @@
       <c r="F133" s="2">
         <v>202112</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="6">
         <v>9025621.274351</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="2">
         <v>202306</v>
       </c>
@@ -6926,7 +7065,7 @@
         <v>52010212</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D134" s="2">
         <f t="shared" si="0"/>
@@ -6938,11 +7077,12 @@
       <c r="F134" s="2">
         <v>202201</v>
       </c>
-      <c r="G134" s="4">
+      <c r="G134" s="6">
         <v>5003090.93883228</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="2">
         <v>202312</v>
       </c>
@@ -6950,7 +7090,7 @@
         <v>52010212</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D135" s="2">
         <f t="shared" si="0"/>
@@ -6962,11 +7102,12 @@
       <c r="F135" s="2">
         <v>202202</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="6">
         <v>8584968.06547549</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="2">
         <v>202401</v>
       </c>
@@ -6974,7 +7115,7 @@
         <v>52010212</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D136" s="2">
         <f t="shared" si="0"/>
@@ -6986,195 +7127,220 @@
       <c r="F136" s="2">
         <v>202203</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="6">
         <v>12898761.6723452</v>
       </c>
-    </row>
-    <row r="137" spans="6:7">
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="6:8">
       <c r="F137" s="2">
         <v>202204</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137" s="6">
         <v>11130514.2889023</v>
       </c>
-    </row>
-    <row r="138" spans="6:7">
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="6:8">
       <c r="F138" s="2">
         <v>202205</v>
       </c>
-      <c r="G138" s="4">
+      <c r="G138" s="6">
         <v>11681998.3623938</v>
       </c>
-    </row>
-    <row r="139" spans="6:7">
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="6:8">
       <c r="F139" s="2">
         <v>202206</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="6">
         <v>11745585.3483146</v>
       </c>
-    </row>
-    <row r="140" spans="6:7">
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="6:8">
       <c r="F140" s="2">
         <v>202207</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140" s="6">
         <v>9555846.68551861</v>
       </c>
-    </row>
-    <row r="141" spans="6:7">
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="6:8">
       <c r="F141" s="2">
         <v>202208</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="6">
         <v>11240060.2802818</v>
       </c>
-    </row>
-    <row r="142" spans="6:7">
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="6:8">
       <c r="F142" s="2">
         <v>202209</v>
       </c>
-      <c r="G142" s="4">
+      <c r="G142" s="6">
         <v>10885171.2422645</v>
       </c>
-    </row>
-    <row r="143" spans="6:7">
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="6:8">
       <c r="F143" s="2">
         <v>202210</v>
       </c>
-      <c r="G143" s="4">
+      <c r="G143" s="6">
         <v>10876671.1810661</v>
       </c>
-    </row>
-    <row r="144" spans="6:7">
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="6:8">
       <c r="F144" s="2">
         <v>202211</v>
       </c>
-      <c r="G144" s="4">
+      <c r="G144" s="6">
         <v>8485004.72801463</v>
       </c>
-    </row>
-    <row r="145" spans="6:7">
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="6:8">
       <c r="F145" s="2">
         <v>202212</v>
       </c>
-      <c r="G145" s="4">
+      <c r="G145" s="6">
         <v>8258994.32401067</v>
       </c>
-    </row>
-    <row r="146" spans="6:7">
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="6:8">
       <c r="F146" s="2">
         <v>202301</v>
       </c>
-      <c r="G146" s="4">
+      <c r="G146" s="6">
         <v>8026484.21104432</v>
       </c>
-    </row>
-    <row r="147" spans="6:7">
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="6:8">
       <c r="F147" s="2">
         <v>202302</v>
       </c>
-      <c r="G147" s="4">
+      <c r="G147" s="6">
         <v>120000</v>
       </c>
-    </row>
-    <row r="148" spans="6:7">
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="6:8">
       <c r="F148" s="2">
         <v>202303</v>
       </c>
-      <c r="G148" s="4">
+      <c r="G148" s="6">
         <v>10740682.4322282</v>
       </c>
-    </row>
-    <row r="149" spans="6:7">
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="6:8">
       <c r="F149" s="2">
         <v>202304</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="6">
         <v>11547312.674674</v>
       </c>
-    </row>
-    <row r="150" spans="6:7">
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="6:8">
       <c r="F150" s="2">
         <v>202305</v>
       </c>
-      <c r="G150" s="4">
+      <c r="G150" s="6">
         <v>12410636.8535441</v>
       </c>
-    </row>
-    <row r="151" spans="6:7">
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="6:8">
       <c r="F151" s="2">
         <v>202306</v>
       </c>
-      <c r="G151" s="4">
+      <c r="G151" s="6">
         <v>15000000</v>
       </c>
-    </row>
-    <row r="152" spans="6:7">
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="6:8">
       <c r="F152" s="2">
         <v>202307</v>
       </c>
-      <c r="G152" s="4">
+      <c r="G152" s="6">
         <v>10730607.1970336</v>
       </c>
-    </row>
-    <row r="153" spans="6:7">
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" spans="6:8">
       <c r="F153" s="2">
         <v>202308</v>
       </c>
-      <c r="G153" s="4">
+      <c r="G153" s="6">
         <v>10240910.4662535</v>
       </c>
-    </row>
-    <row r="154" spans="6:7">
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" spans="6:8">
       <c r="F154" s="2">
         <v>202309</v>
       </c>
-      <c r="G154" s="4">
+      <c r="G154" s="6">
         <v>10629079.5862087</v>
       </c>
-    </row>
-    <row r="155" spans="6:7">
+      <c r="H154" s="4"/>
+    </row>
+    <row r="155" spans="6:8">
       <c r="F155" s="2">
         <v>202310</v>
       </c>
-      <c r="G155" s="4">
+      <c r="G155" s="6">
         <v>10289767.1502643</v>
       </c>
-    </row>
-    <row r="156" spans="6:7">
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" spans="6:8">
       <c r="F156" s="2">
         <v>202311</v>
       </c>
-      <c r="G156" s="4">
+      <c r="G156" s="6">
         <v>10168338.6654818</v>
       </c>
-    </row>
-    <row r="157" spans="6:7">
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" spans="6:8">
       <c r="F157" s="2">
         <v>202312</v>
       </c>
-      <c r="G157" s="4">
+      <c r="G157" s="6">
         <v>9427788.96931507</v>
       </c>
-    </row>
-    <row r="158" spans="6:7">
+      <c r="H157" s="4"/>
+    </row>
+    <row r="158" spans="6:8">
       <c r="F158" s="2">
         <v>202401</v>
       </c>
-      <c r="G158" s="4">
+      <c r="G158" s="6">
         <v>8189343.15150116</v>
       </c>
-    </row>
-    <row r="159" spans="7:7">
-      <c r="G159" s="4">
+      <c r="H158" s="4"/>
+    </row>
+    <row r="159" spans="7:8">
+      <c r="G159" s="6">
         <v>9300648.90141308</v>
       </c>
-    </row>
-    <row r="160" spans="7:7">
-      <c r="G160" s="4">
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" spans="7:8">
+      <c r="G160" s="6">
         <v>10472249.5699259</v>
       </c>
+      <c r="H160" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
